--- a/02_外部設計/04_画面遷移図.xlsx
+++ b/02_外部設計/04_画面遷移図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\システム開発演習\03_システム開発演習\010-外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55E8515-51AC-4CA7-83EB-0705A63256C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C16B89-FB52-4375-889D-46F5ADAD21C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6456" yWindow="1284" windowWidth="17280" windowHeight="8880" tabRatio="802" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -968,53 +968,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1052,8 +1010,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1076,19 +1089,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1549,6 +1549,16 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>商品詳細表示画面</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -1556,6 +1566,21 @@
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>itemDetail.html</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1879,6 +1904,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>会員情報変更画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>updateUser.html</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -1945,6 +2002,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>退会確認画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>withdrawConfirm.html</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2011,6 +2100,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>退会完了画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>withdrawCommit.html</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2077,6 +2198,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>会員情報変更確認画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>updateUserConfirm.html</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2143,6 +2296,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>会員情報変更完了画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>updateUserCommit.html</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2209,6 +2394,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>購入履歴一覧画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>purchaseHistory.html</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2275,6 +2492,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>購入履歴キャンセル確認画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>purchaseCancelConfirm.html</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2341,13 +2590,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>購入履歴キャンセル完了画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>purchaseCancelCommit.html</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2407,6 +2681,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>会員登録情報入力画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>registUser.html</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2447,8 +2753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5417820" y="3489960"/>
-          <a:ext cx="1645920" cy="403860"/>
+          <a:off x="5521744" y="3521413"/>
+          <a:ext cx="1678021" cy="404346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2470,15 +2776,87 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>会員登録情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>確認</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>registUserConfirm.html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2536,15 +2914,88 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ ゴシック"/>
-            <a:ea typeface="ＭＳ ゴシック"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>会員登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>完了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>registUserCommit.html</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -4013,6 +4464,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>購入確認画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>purchaseConfirm.html</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -4079,6 +4562,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>購入完了画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>purchaseCommit.html</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -4675,13 +5190,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>カートからの削除確認画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>removeFromCartConfirm.html</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4741,6 +5281,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>カートからの削除完了画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>removeFromCartCommit.html</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -8817,11 +9389,11 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="4"/>
+    <col min="1" max="16384" width="2.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1">
@@ -8936,25 +9508,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="40" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -8970,49 +9542,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="42" t="s">
+      <c r="AF3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43" t="s">
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="43"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="52"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -9028,26 +9600,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -9653,44 +10225,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="46"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="58"/>
+      <c r="AM16" s="58"/>
+      <c r="AN16" s="58"/>
+      <c r="AO16" s="58"/>
+      <c r="AP16" s="58"/>
+      <c r="AQ16" s="58"/>
+      <c r="AR16" s="59"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -9709,42 +10281,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="49"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="61"/>
+      <c r="AQ17" s="61"/>
+      <c r="AR17" s="62"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -9763,42 +10335,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="49"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="62"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -9817,42 +10389,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="49"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="62"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -9871,42 +10443,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="49"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="61"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="61"/>
+      <c r="AO20" s="61"/>
+      <c r="AP20" s="61"/>
+      <c r="AQ20" s="61"/>
+      <c r="AR20" s="62"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -9925,42 +10497,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="48"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="48"/>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="49"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="62"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -9979,42 +10551,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="48"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="49"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="61"/>
+      <c r="AL22" s="61"/>
+      <c r="AM22" s="61"/>
+      <c r="AN22" s="61"/>
+      <c r="AO22" s="61"/>
+      <c r="AP22" s="61"/>
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="62"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -10033,42 +10605,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="49"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="61"/>
+      <c r="AM23" s="61"/>
+      <c r="AN23" s="61"/>
+      <c r="AO23" s="61"/>
+      <c r="AP23" s="61"/>
+      <c r="AQ23" s="61"/>
+      <c r="AR23" s="62"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -10087,42 +10659,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
-      <c r="AR24" s="49"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
+      <c r="AK24" s="61"/>
+      <c r="AL24" s="61"/>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="61"/>
+      <c r="AO24" s="61"/>
+      <c r="AP24" s="61"/>
+      <c r="AQ24" s="61"/>
+      <c r="AR24" s="62"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -10141,42 +10713,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="49"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="61"/>
+      <c r="AO25" s="61"/>
+      <c r="AP25" s="61"/>
+      <c r="AQ25" s="61"/>
+      <c r="AR25" s="62"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -10195,42 +10767,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="49"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="61"/>
+      <c r="AL26" s="61"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="61"/>
+      <c r="AO26" s="61"/>
+      <c r="AP26" s="61"/>
+      <c r="AQ26" s="61"/>
+      <c r="AR26" s="62"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -10249,42 +10821,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="49"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="61"/>
+      <c r="AN27" s="61"/>
+      <c r="AO27" s="61"/>
+      <c r="AP27" s="61"/>
+      <c r="AQ27" s="61"/>
+      <c r="AR27" s="62"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -10303,42 +10875,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AR28" s="49"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="61"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="61"/>
+      <c r="AO28" s="61"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="61"/>
+      <c r="AR28" s="62"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -10357,42 +10929,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
-      <c r="AN29" s="51"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="52"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="65"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -11164,30 +11736,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="42" t="s">
+      <c r="AF45" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="42"/>
-      <c r="AH45" s="42"/>
-      <c r="AI45" s="42"/>
-      <c r="AJ45" s="42"/>
-      <c r="AK45" s="42"/>
-      <c r="AL45" s="43" t="s">
+      <c r="AG45" s="39"/>
+      <c r="AH45" s="39"/>
+      <c r="AI45" s="39"/>
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="39"/>
+      <c r="AL45" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AM45" s="43"/>
-      <c r="AN45" s="43"/>
-      <c r="AO45" s="43"/>
-      <c r="AP45" s="43"/>
-      <c r="AQ45" s="43"/>
-      <c r="AR45" s="43"/>
-      <c r="AS45" s="43"/>
-      <c r="AT45" s="43"/>
-      <c r="AU45" s="43"/>
-      <c r="AV45" s="43"/>
-      <c r="AW45" s="43"/>
-      <c r="AX45" s="43"/>
-      <c r="AY45" s="43"/>
+      <c r="AM45" s="52"/>
+      <c r="AN45" s="52"/>
+      <c r="AO45" s="52"/>
+      <c r="AP45" s="52"/>
+      <c r="AQ45" s="52"/>
+      <c r="AR45" s="52"/>
+      <c r="AS45" s="52"/>
+      <c r="AT45" s="52"/>
+      <c r="AU45" s="52"/>
+      <c r="AV45" s="52"/>
+      <c r="AW45" s="52"/>
+      <c r="AX45" s="52"/>
+      <c r="AY45" s="52"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -11222,26 +11794,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="42"/>
-      <c r="AH46" s="42"/>
-      <c r="AI46" s="42"/>
-      <c r="AJ46" s="42"/>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="43"/>
-      <c r="AM46" s="43"/>
-      <c r="AN46" s="43"/>
-      <c r="AO46" s="43"/>
-      <c r="AP46" s="43"/>
-      <c r="AQ46" s="43"/>
-      <c r="AR46" s="43"/>
-      <c r="AS46" s="43"/>
-      <c r="AT46" s="43"/>
-      <c r="AU46" s="43"/>
-      <c r="AV46" s="43"/>
-      <c r="AW46" s="43"/>
-      <c r="AX46" s="43"/>
-      <c r="AY46" s="43"/>
+      <c r="AF46" s="39"/>
+      <c r="AG46" s="39"/>
+      <c r="AH46" s="39"/>
+      <c r="AI46" s="39"/>
+      <c r="AJ46" s="39"/>
+      <c r="AK46" s="39"/>
+      <c r="AL46" s="52"/>
+      <c r="AM46" s="52"/>
+      <c r="AN46" s="52"/>
+      <c r="AO46" s="52"/>
+      <c r="AP46" s="52"/>
+      <c r="AQ46" s="52"/>
+      <c r="AR46" s="52"/>
+      <c r="AS46" s="52"/>
+      <c r="AT46" s="52"/>
+      <c r="AU46" s="52"/>
+      <c r="AV46" s="52"/>
+      <c r="AW46" s="52"/>
+      <c r="AX46" s="52"/>
+      <c r="AY46" s="52"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -11276,30 +11848,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="42" t="s">
+      <c r="AF47" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="53">
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="38">
         <v>42887</v>
       </c>
-      <c r="AM47" s="53"/>
-      <c r="AN47" s="53"/>
-      <c r="AO47" s="53"/>
-      <c r="AP47" s="53"/>
-      <c r="AQ47" s="53"/>
-      <c r="AR47" s="53"/>
-      <c r="AS47" s="53"/>
-      <c r="AT47" s="53"/>
-      <c r="AU47" s="53"/>
-      <c r="AV47" s="53"/>
-      <c r="AW47" s="53"/>
-      <c r="AX47" s="53"/>
-      <c r="AY47" s="53"/>
+      <c r="AM47" s="38"/>
+      <c r="AN47" s="38"/>
+      <c r="AO47" s="38"/>
+      <c r="AP47" s="38"/>
+      <c r="AQ47" s="38"/>
+      <c r="AR47" s="38"/>
+      <c r="AS47" s="38"/>
+      <c r="AT47" s="38"/>
+      <c r="AU47" s="38"/>
+      <c r="AV47" s="38"/>
+      <c r="AW47" s="38"/>
+      <c r="AX47" s="38"/>
+      <c r="AY47" s="38"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -11334,26 +11906,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="42"/>
-      <c r="AI48" s="42"/>
-      <c r="AJ48" s="42"/>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
-      <c r="AP48" s="53"/>
-      <c r="AQ48" s="53"/>
-      <c r="AR48" s="53"/>
-      <c r="AS48" s="53"/>
-      <c r="AT48" s="53"/>
-      <c r="AU48" s="53"/>
-      <c r="AV48" s="53"/>
-      <c r="AW48" s="53"/>
-      <c r="AX48" s="53"/>
-      <c r="AY48" s="53"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="39"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="39"/>
+      <c r="AL48" s="38"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="38"/>
+      <c r="AO48" s="38"/>
+      <c r="AP48" s="38"/>
+      <c r="AQ48" s="38"/>
+      <c r="AR48" s="38"/>
+      <c r="AS48" s="38"/>
+      <c r="AT48" s="38"/>
+      <c r="AU48" s="38"/>
+      <c r="AV48" s="38"/>
+      <c r="AW48" s="38"/>
+      <c r="AX48" s="38"/>
+      <c r="AY48" s="38"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -11388,30 +11960,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="54" t="s">
+      <c r="AF49" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="55"/>
-      <c r="AH49" s="55"/>
-      <c r="AI49" s="55"/>
-      <c r="AJ49" s="55"/>
-      <c r="AK49" s="56"/>
-      <c r="AL49" s="60" t="s">
+      <c r="AG49" s="41"/>
+      <c r="AH49" s="41"/>
+      <c r="AI49" s="41"/>
+      <c r="AJ49" s="41"/>
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="AM49" s="61"/>
-      <c r="AN49" s="61"/>
-      <c r="AO49" s="61"/>
-      <c r="AP49" s="61"/>
-      <c r="AQ49" s="61"/>
-      <c r="AR49" s="61"/>
-      <c r="AS49" s="61"/>
-      <c r="AT49" s="61"/>
-      <c r="AU49" s="61"/>
-      <c r="AV49" s="61"/>
-      <c r="AW49" s="61"/>
-      <c r="AX49" s="61"/>
-      <c r="AY49" s="62"/>
+      <c r="AM49" s="47"/>
+      <c r="AN49" s="47"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="47"/>
+      <c r="AQ49" s="47"/>
+      <c r="AR49" s="47"/>
+      <c r="AS49" s="47"/>
+      <c r="AT49" s="47"/>
+      <c r="AU49" s="47"/>
+      <c r="AV49" s="47"/>
+      <c r="AW49" s="47"/>
+      <c r="AX49" s="47"/>
+      <c r="AY49" s="48"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -11446,26 +12018,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="57"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="58"/>
-      <c r="AI50" s="58"/>
-      <c r="AJ50" s="58"/>
-      <c r="AK50" s="59"/>
-      <c r="AL50" s="63"/>
-      <c r="AM50" s="64"/>
-      <c r="AN50" s="64"/>
-      <c r="AO50" s="64"/>
-      <c r="AP50" s="64"/>
-      <c r="AQ50" s="64"/>
-      <c r="AR50" s="64"/>
-      <c r="AS50" s="64"/>
-      <c r="AT50" s="64"/>
-      <c r="AU50" s="64"/>
-      <c r="AV50" s="64"/>
-      <c r="AW50" s="64"/>
-      <c r="AX50" s="64"/>
-      <c r="AY50" s="65"/>
+      <c r="AF50" s="43"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="44"/>
+      <c r="AJ50" s="44"/>
+      <c r="AK50" s="45"/>
+      <c r="AL50" s="49"/>
+      <c r="AM50" s="50"/>
+      <c r="AN50" s="50"/>
+      <c r="AO50" s="50"/>
+      <c r="AP50" s="50"/>
+      <c r="AQ50" s="50"/>
+      <c r="AR50" s="50"/>
+      <c r="AS50" s="50"/>
+      <c r="AT50" s="50"/>
+      <c r="AU50" s="50"/>
+      <c r="AV50" s="50"/>
+      <c r="AW50" s="50"/>
+      <c r="AX50" s="50"/>
+      <c r="AY50" s="51"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -11578,17 +12150,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11610,250 +12182,250 @@
       <selection pane="bottomLeft" activeCell="K36" sqref="K36:T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="16"/>
+    <col min="1" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="75"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="73"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="78"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1"/>
+    <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="76" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="76" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="76" t="s">
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="76" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="78"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="70"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="79">
+      <c r="A5" s="71">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80">
+      <c r="B5" s="71"/>
+      <c r="C5" s="72">
         <v>42887</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="79" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79" t="s">
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="79"/>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="79"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="79"/>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="79"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="79"/>
-      <c r="AU5" s="79"/>
-      <c r="AV5" s="79"/>
-      <c r="AW5" s="79"/>
-      <c r="AX5" s="79"/>
-      <c r="AY5" s="79"/>
-      <c r="AZ5" s="79"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="71"/>
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="71"/>
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="71"/>
+      <c r="AP5" s="71"/>
+      <c r="AQ5" s="71"/>
+      <c r="AR5" s="71"/>
+      <c r="AS5" s="71"/>
+      <c r="AT5" s="71"/>
+      <c r="AU5" s="71"/>
+      <c r="AV5" s="71"/>
+      <c r="AW5" s="71"/>
+      <c r="AX5" s="71"/>
+      <c r="AY5" s="71"/>
+      <c r="AZ5" s="71"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="66">
@@ -14136,232 +14708,88 @@
       <c r="AZ45" s="66"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="74">
+      <c r="A46" s="79">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="74"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
-      <c r="T46" s="74"/>
-      <c r="U46" s="74"/>
-      <c r="V46" s="74"/>
-      <c r="W46" s="74"/>
-      <c r="X46" s="74"/>
-      <c r="Y46" s="74"/>
-      <c r="Z46" s="74"/>
-      <c r="AA46" s="74"/>
-      <c r="AB46" s="74"/>
-      <c r="AC46" s="74"/>
-      <c r="AD46" s="74"/>
-      <c r="AE46" s="74"/>
-      <c r="AF46" s="74"/>
-      <c r="AG46" s="74"/>
-      <c r="AH46" s="74"/>
-      <c r="AI46" s="74"/>
-      <c r="AJ46" s="74"/>
-      <c r="AK46" s="74"/>
-      <c r="AL46" s="74"/>
-      <c r="AM46" s="74"/>
-      <c r="AN46" s="74"/>
-      <c r="AO46" s="74"/>
-      <c r="AP46" s="74"/>
-      <c r="AQ46" s="74"/>
-      <c r="AR46" s="74"/>
-      <c r="AS46" s="74"/>
-      <c r="AT46" s="74"/>
-      <c r="AU46" s="74"/>
-      <c r="AV46" s="74"/>
-      <c r="AW46" s="74"/>
-      <c r="AX46" s="74"/>
-      <c r="AY46" s="74"/>
-      <c r="AZ46" s="74"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="79"/>
+      <c r="R46" s="79"/>
+      <c r="S46" s="79"/>
+      <c r="T46" s="79"/>
+      <c r="U46" s="79"/>
+      <c r="V46" s="79"/>
+      <c r="W46" s="79"/>
+      <c r="X46" s="79"/>
+      <c r="Y46" s="79"/>
+      <c r="Z46" s="79"/>
+      <c r="AA46" s="79"/>
+      <c r="AB46" s="79"/>
+      <c r="AC46" s="79"/>
+      <c r="AD46" s="79"/>
+      <c r="AE46" s="79"/>
+      <c r="AF46" s="79"/>
+      <c r="AG46" s="79"/>
+      <c r="AH46" s="79"/>
+      <c r="AI46" s="79"/>
+      <c r="AJ46" s="79"/>
+      <c r="AK46" s="79"/>
+      <c r="AL46" s="79"/>
+      <c r="AM46" s="79"/>
+      <c r="AN46" s="79"/>
+      <c r="AO46" s="79"/>
+      <c r="AP46" s="79"/>
+      <c r="AQ46" s="79"/>
+      <c r="AR46" s="79"/>
+      <c r="AS46" s="79"/>
+      <c r="AT46" s="79"/>
+      <c r="AU46" s="79"/>
+      <c r="AV46" s="79"/>
+      <c r="AW46" s="79"/>
+      <c r="AX46" s="79"/>
+      <c r="AY46" s="79"/>
+      <c r="AZ46" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="A1:AZ2"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
     <mergeCell ref="K43:T43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:F44"/>
@@ -14386,30 +14814,174 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="U41:AZ41"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="A1:AZ2"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14424,15 +14996,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI44" sqref="AI44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="28" width="2.625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="2.75" style="16" customWidth="1"/>
-    <col min="30" max="16384" width="2.625" style="16"/>
+    <col min="1" max="28" width="2.6640625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="2.77734375" style="16" customWidth="1"/>
+    <col min="30" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
@@ -14563,7 +15135,7 @@
       <c r="AX2" s="97"/>
       <c r="AY2" s="98"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1"/>
+    <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52">
       <c r="A4" s="81" t="s">
         <v>17</v>
@@ -14578,7 +15150,7 @@
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
     </row>
-    <row r="5" spans="1:52" ht="11.25" thickBot="1">
+    <row r="5" spans="1:52" ht="10.199999999999999" thickBot="1">
       <c r="A5" s="82"/>
       <c r="B5" s="82"/>
       <c r="C5" s="82"/>
@@ -17000,11 +17572,11 @@
       <selection activeCell="X45" sqref="X45:Y45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="28" width="2.625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="2.75" style="16" customWidth="1"/>
-    <col min="30" max="16384" width="2.625" style="16"/>
+    <col min="1" max="28" width="2.6640625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="2.77734375" style="16" customWidth="1"/>
+    <col min="30" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
@@ -17135,7 +17707,7 @@
       <c r="AX2" s="97"/>
       <c r="AY2" s="98"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1"/>
+    <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52">
       <c r="A4" s="81" t="s">
         <v>17</v>
@@ -17150,7 +17722,7 @@
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
     </row>
-    <row r="5" spans="1:52" ht="11.25" thickBot="1">
+    <row r="5" spans="1:52" ht="10.199999999999999" thickBot="1">
       <c r="A5" s="82"/>
       <c r="B5" s="82"/>
       <c r="C5" s="82"/>
@@ -19541,6 +20113,11 @@
     <row r="50" spans="1:52" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -19548,11 +20125,6 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/02_外部設計/04_画面遷移図.xlsx
+++ b/02_外部設計/04_画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C16B89-FB52-4375-889D-46F5ADAD21C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961B7076-9CFB-4868-99F2-720F14CA21C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6456" yWindow="1284" windowWidth="17280" windowHeight="8880" tabRatio="802" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -27,15 +27,148 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>奈良田 岬</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F95A74C0-6B67-4B2D-A26B-0F6658395B6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>奈良田 岬:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+お客様に相談する。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL45" authorId="0" shapeId="0" xr:uid="{AB18F057-9F89-4854-A387-56CED8CB9118}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>奈良田 岬:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+お客様に相談する。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>奈良田 岬</author>
+  </authors>
+  <commentList>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{7DE68132-9D59-4077-8CBB-CD49BA3A121B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>奈良田 岬:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+お客様に相談する。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>奈良田 岬</author>
+  </authors>
+  <commentList>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{CBCD7862-6CE9-4AE5-80FF-AD63B642CCCA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>奈良田 岬:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+お客様に相談する。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -175,13 +308,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>全ページ</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>初版作成</t>
     <rPh sb="0" eb="2">
       <t>ショハン</t>
@@ -221,34 +347,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>山田　太郎</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>山田 太郎</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>2017BAH000X011-001</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>山田 太郎</t>
-    <rPh sb="3" eb="5">
-      <t>タロウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -256,7 +355,49 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>山田 太郎</t>
+    <t>奈良田</t>
+    <rPh sb="0" eb="3">
+      <t>ナラタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面遷移図(ショッピング機能)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面遷移図(管理機能)</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>奈良田</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初版作成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>奈良田</t>
+    <rPh sb="0" eb="2">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>奈良田</t>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -265,9 +406,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -355,6 +496,21 @@
       <sz val="6"/>
       <name val="明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -968,11 +1124,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1010,65 +1205,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,9 +1225,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1151,9 +1295,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,6 +1302,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9385,11 +9541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
@@ -9415,7 +9571,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -9508,25 +9664,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="53" t="s">
-        <v>24</v>
+      <c r="B3" s="38" t="s">
+        <v>23</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="55" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -9542,49 +9698,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="39" t="s">
+      <c r="AF3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="52" t="s">
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -9600,26 +9756,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -10225,44 +10381,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="58"/>
-      <c r="AM16" s="58"/>
-      <c r="AN16" s="58"/>
-      <c r="AO16" s="58"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="59"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="46"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -10281,42 +10437,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="61"/>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="61"/>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="62"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="49"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -10335,42 +10491,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="62"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="49"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -10389,42 +10545,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="61"/>
-      <c r="AO19" s="61"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="62"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="48"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="49"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -10443,42 +10599,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="61"/>
-      <c r="AG20" s="61"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="61"/>
-      <c r="AJ20" s="61"/>
-      <c r="AK20" s="61"/>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="61"/>
-      <c r="AN20" s="61"/>
-      <c r="AO20" s="61"/>
-      <c r="AP20" s="61"/>
-      <c r="AQ20" s="61"/>
-      <c r="AR20" s="62"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="49"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -10497,42 +10653,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="61"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="61"/>
-      <c r="AN21" s="61"/>
-      <c r="AO21" s="61"/>
-      <c r="AP21" s="61"/>
-      <c r="AQ21" s="61"/>
-      <c r="AR21" s="62"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="49"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -10551,42 +10707,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="61"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="61"/>
-      <c r="AJ22" s="61"/>
-      <c r="AK22" s="61"/>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="61"/>
-      <c r="AN22" s="61"/>
-      <c r="AO22" s="61"/>
-      <c r="AP22" s="61"/>
-      <c r="AQ22" s="61"/>
-      <c r="AR22" s="62"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="49"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -10605,42 +10761,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="61"/>
-      <c r="AH23" s="61"/>
-      <c r="AI23" s="61"/>
-      <c r="AJ23" s="61"/>
-      <c r="AK23" s="61"/>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="61"/>
-      <c r="AN23" s="61"/>
-      <c r="AO23" s="61"/>
-      <c r="AP23" s="61"/>
-      <c r="AQ23" s="61"/>
-      <c r="AR23" s="62"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="49"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -10659,42 +10815,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="61"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="61"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="61"/>
-      <c r="AJ24" s="61"/>
-      <c r="AK24" s="61"/>
-      <c r="AL24" s="61"/>
-      <c r="AM24" s="61"/>
-      <c r="AN24" s="61"/>
-      <c r="AO24" s="61"/>
-      <c r="AP24" s="61"/>
-      <c r="AQ24" s="61"/>
-      <c r="AR24" s="62"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="49"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -10713,42 +10869,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="61"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="61"/>
-      <c r="AJ25" s="61"/>
-      <c r="AK25" s="61"/>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="61"/>
-      <c r="AN25" s="61"/>
-      <c r="AO25" s="61"/>
-      <c r="AP25" s="61"/>
-      <c r="AQ25" s="61"/>
-      <c r="AR25" s="62"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="49"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -10767,42 +10923,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="61"/>
-      <c r="Z26" s="61"/>
-      <c r="AA26" s="61"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="61"/>
-      <c r="AF26" s="61"/>
-      <c r="AG26" s="61"/>
-      <c r="AH26" s="61"/>
-      <c r="AI26" s="61"/>
-      <c r="AJ26" s="61"/>
-      <c r="AK26" s="61"/>
-      <c r="AL26" s="61"/>
-      <c r="AM26" s="61"/>
-      <c r="AN26" s="61"/>
-      <c r="AO26" s="61"/>
-      <c r="AP26" s="61"/>
-      <c r="AQ26" s="61"/>
-      <c r="AR26" s="62"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="48"/>
+      <c r="AR26" s="49"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -10821,42 +10977,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="61"/>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="61"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="61"/>
-      <c r="AM27" s="61"/>
-      <c r="AN27" s="61"/>
-      <c r="AO27" s="61"/>
-      <c r="AP27" s="61"/>
-      <c r="AQ27" s="61"/>
-      <c r="AR27" s="62"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="48"/>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="48"/>
+      <c r="AO27" s="48"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="49"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -10875,42 +11031,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="61"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="61"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="61"/>
-      <c r="AL28" s="61"/>
-      <c r="AM28" s="61"/>
-      <c r="AN28" s="61"/>
-      <c r="AO28" s="61"/>
-      <c r="AP28" s="61"/>
-      <c r="AQ28" s="61"/>
-      <c r="AR28" s="62"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="48"/>
+      <c r="AO28" s="48"/>
+      <c r="AP28" s="48"/>
+      <c r="AQ28" s="48"/>
+      <c r="AR28" s="49"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -10929,42 +11085,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="64"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="64"/>
-      <c r="AR29" s="65"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="51"/>
+      <c r="AQ29" s="51"/>
+      <c r="AR29" s="52"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -11736,30 +11892,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="39" t="s">
+      <c r="AF45" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="39"/>
-      <c r="AH45" s="39"/>
-      <c r="AI45" s="39"/>
-      <c r="AJ45" s="39"/>
-      <c r="AK45" s="39"/>
-      <c r="AL45" s="52" t="s">
-        <v>25</v>
+      <c r="AG45" s="42"/>
+      <c r="AH45" s="42"/>
+      <c r="AI45" s="42"/>
+      <c r="AJ45" s="42"/>
+      <c r="AK45" s="42"/>
+      <c r="AL45" s="43" t="s">
+        <v>24</v>
       </c>
-      <c r="AM45" s="52"/>
-      <c r="AN45" s="52"/>
-      <c r="AO45" s="52"/>
-      <c r="AP45" s="52"/>
-      <c r="AQ45" s="52"/>
-      <c r="AR45" s="52"/>
-      <c r="AS45" s="52"/>
-      <c r="AT45" s="52"/>
-      <c r="AU45" s="52"/>
-      <c r="AV45" s="52"/>
-      <c r="AW45" s="52"/>
-      <c r="AX45" s="52"/>
-      <c r="AY45" s="52"/>
+      <c r="AM45" s="43"/>
+      <c r="AN45" s="43"/>
+      <c r="AO45" s="43"/>
+      <c r="AP45" s="43"/>
+      <c r="AQ45" s="43"/>
+      <c r="AR45" s="43"/>
+      <c r="AS45" s="43"/>
+      <c r="AT45" s="43"/>
+      <c r="AU45" s="43"/>
+      <c r="AV45" s="43"/>
+      <c r="AW45" s="43"/>
+      <c r="AX45" s="43"/>
+      <c r="AY45" s="43"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -11794,26 +11950,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="39"/>
-      <c r="AG46" s="39"/>
-      <c r="AH46" s="39"/>
-      <c r="AI46" s="39"/>
-      <c r="AJ46" s="39"/>
-      <c r="AK46" s="39"/>
-      <c r="AL46" s="52"/>
-      <c r="AM46" s="52"/>
-      <c r="AN46" s="52"/>
-      <c r="AO46" s="52"/>
-      <c r="AP46" s="52"/>
-      <c r="AQ46" s="52"/>
-      <c r="AR46" s="52"/>
-      <c r="AS46" s="52"/>
-      <c r="AT46" s="52"/>
-      <c r="AU46" s="52"/>
-      <c r="AV46" s="52"/>
-      <c r="AW46" s="52"/>
-      <c r="AX46" s="52"/>
-      <c r="AY46" s="52"/>
+      <c r="AF46" s="42"/>
+      <c r="AG46" s="42"/>
+      <c r="AH46" s="42"/>
+      <c r="AI46" s="42"/>
+      <c r="AJ46" s="42"/>
+      <c r="AK46" s="42"/>
+      <c r="AL46" s="43"/>
+      <c r="AM46" s="43"/>
+      <c r="AN46" s="43"/>
+      <c r="AO46" s="43"/>
+      <c r="AP46" s="43"/>
+      <c r="AQ46" s="43"/>
+      <c r="AR46" s="43"/>
+      <c r="AS46" s="43"/>
+      <c r="AT46" s="43"/>
+      <c r="AU46" s="43"/>
+      <c r="AV46" s="43"/>
+      <c r="AW46" s="43"/>
+      <c r="AX46" s="43"/>
+      <c r="AY46" s="43"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -11848,30 +12004,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="39" t="s">
+      <c r="AF47" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="39"/>
-      <c r="AH47" s="39"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
-      <c r="AK47" s="39"/>
-      <c r="AL47" s="38">
-        <v>42887</v>
+      <c r="AG47" s="42"/>
+      <c r="AH47" s="42"/>
+      <c r="AI47" s="42"/>
+      <c r="AJ47" s="42"/>
+      <c r="AK47" s="42"/>
+      <c r="AL47" s="100">
+        <v>45545</v>
       </c>
-      <c r="AM47" s="38"/>
-      <c r="AN47" s="38"/>
-      <c r="AO47" s="38"/>
-      <c r="AP47" s="38"/>
-      <c r="AQ47" s="38"/>
-      <c r="AR47" s="38"/>
-      <c r="AS47" s="38"/>
-      <c r="AT47" s="38"/>
-      <c r="AU47" s="38"/>
-      <c r="AV47" s="38"/>
-      <c r="AW47" s="38"/>
-      <c r="AX47" s="38"/>
-      <c r="AY47" s="38"/>
+      <c r="AM47" s="100"/>
+      <c r="AN47" s="100"/>
+      <c r="AO47" s="100"/>
+      <c r="AP47" s="100"/>
+      <c r="AQ47" s="100"/>
+      <c r="AR47" s="100"/>
+      <c r="AS47" s="100"/>
+      <c r="AT47" s="100"/>
+      <c r="AU47" s="100"/>
+      <c r="AV47" s="100"/>
+      <c r="AW47" s="100"/>
+      <c r="AX47" s="100"/>
+      <c r="AY47" s="100"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -11906,26 +12062,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="39"/>
-      <c r="AG48" s="39"/>
-      <c r="AH48" s="39"/>
-      <c r="AI48" s="39"/>
-      <c r="AJ48" s="39"/>
-      <c r="AK48" s="39"/>
-      <c r="AL48" s="38"/>
-      <c r="AM48" s="38"/>
-      <c r="AN48" s="38"/>
-      <c r="AO48" s="38"/>
-      <c r="AP48" s="38"/>
-      <c r="AQ48" s="38"/>
-      <c r="AR48" s="38"/>
-      <c r="AS48" s="38"/>
-      <c r="AT48" s="38"/>
-      <c r="AU48" s="38"/>
-      <c r="AV48" s="38"/>
-      <c r="AW48" s="38"/>
-      <c r="AX48" s="38"/>
-      <c r="AY48" s="38"/>
+      <c r="AF48" s="42"/>
+      <c r="AG48" s="42"/>
+      <c r="AH48" s="42"/>
+      <c r="AI48" s="42"/>
+      <c r="AJ48" s="42"/>
+      <c r="AK48" s="42"/>
+      <c r="AL48" s="100"/>
+      <c r="AM48" s="100"/>
+      <c r="AN48" s="100"/>
+      <c r="AO48" s="100"/>
+      <c r="AP48" s="100"/>
+      <c r="AQ48" s="100"/>
+      <c r="AR48" s="100"/>
+      <c r="AS48" s="100"/>
+      <c r="AT48" s="100"/>
+      <c r="AU48" s="100"/>
+      <c r="AV48" s="100"/>
+      <c r="AW48" s="100"/>
+      <c r="AX48" s="100"/>
+      <c r="AY48" s="100"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -11960,30 +12116,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="40" t="s">
+      <c r="AF49" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="41"/>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="42"/>
-      <c r="AL49" s="46" t="s">
-        <v>26</v>
+      <c r="AG49" s="54"/>
+      <c r="AH49" s="54"/>
+      <c r="AI49" s="54"/>
+      <c r="AJ49" s="54"/>
+      <c r="AK49" s="55"/>
+      <c r="AL49" s="59" t="s">
+        <v>27</v>
       </c>
-      <c r="AM49" s="47"/>
-      <c r="AN49" s="47"/>
-      <c r="AO49" s="47"/>
-      <c r="AP49" s="47"/>
-      <c r="AQ49" s="47"/>
-      <c r="AR49" s="47"/>
-      <c r="AS49" s="47"/>
-      <c r="AT49" s="47"/>
-      <c r="AU49" s="47"/>
-      <c r="AV49" s="47"/>
-      <c r="AW49" s="47"/>
-      <c r="AX49" s="47"/>
-      <c r="AY49" s="48"/>
+      <c r="AM49" s="60"/>
+      <c r="AN49" s="60"/>
+      <c r="AO49" s="60"/>
+      <c r="AP49" s="60"/>
+      <c r="AQ49" s="60"/>
+      <c r="AR49" s="60"/>
+      <c r="AS49" s="60"/>
+      <c r="AT49" s="60"/>
+      <c r="AU49" s="60"/>
+      <c r="AV49" s="60"/>
+      <c r="AW49" s="60"/>
+      <c r="AX49" s="60"/>
+      <c r="AY49" s="61"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -12018,26 +12174,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="43"/>
-      <c r="AG50" s="44"/>
-      <c r="AH50" s="44"/>
-      <c r="AI50" s="44"/>
-      <c r="AJ50" s="44"/>
-      <c r="AK50" s="45"/>
-      <c r="AL50" s="49"/>
-      <c r="AM50" s="50"/>
-      <c r="AN50" s="50"/>
-      <c r="AO50" s="50"/>
-      <c r="AP50" s="50"/>
-      <c r="AQ50" s="50"/>
-      <c r="AR50" s="50"/>
-      <c r="AS50" s="50"/>
-      <c r="AT50" s="50"/>
-      <c r="AU50" s="50"/>
-      <c r="AV50" s="50"/>
-      <c r="AW50" s="50"/>
-      <c r="AX50" s="50"/>
-      <c r="AY50" s="51"/>
+      <c r="AF50" s="56"/>
+      <c r="AG50" s="57"/>
+      <c r="AH50" s="57"/>
+      <c r="AI50" s="57"/>
+      <c r="AJ50" s="57"/>
+      <c r="AK50" s="58"/>
+      <c r="AL50" s="62"/>
+      <c r="AM50" s="63"/>
+      <c r="AN50" s="63"/>
+      <c r="AO50" s="63"/>
+      <c r="AP50" s="63"/>
+      <c r="AQ50" s="63"/>
+      <c r="AR50" s="63"/>
+      <c r="AS50" s="63"/>
+      <c r="AT50" s="63"/>
+      <c r="AU50" s="63"/>
+      <c r="AV50" s="63"/>
+      <c r="AW50" s="63"/>
+      <c r="AX50" s="63"/>
+      <c r="AY50" s="64"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -12150,17 +12306,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12169,6 +12325,7 @@
     <oddFooter>&amp;C&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 **** Corporation. All Rights Reserved.</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -12179,2593 +12336,2797 @@
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BL23" sqref="BL23"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36:T36"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="16"/>
+    <col min="1" max="2" width="2.6640625" style="16"/>
+    <col min="3" max="6" width="3.88671875" style="16" customWidth="1"/>
+    <col min="7" max="10" width="2.6640625" style="16"/>
+    <col min="11" max="20" width="3.5546875" style="16" customWidth="1"/>
+    <col min="21" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74"/>
-      <c r="AT1" s="74"/>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74"/>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="68"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="78"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="71"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="68" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="68" t="s">
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="68" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="70"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="75"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="71">
+      <c r="A5" s="76">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72">
-        <v>42887</v>
+      <c r="B5" s="76"/>
+      <c r="C5" s="101">
+        <v>45537</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71" t="s">
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="71"/>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="71"/>
-      <c r="AN5" s="71"/>
-      <c r="AO5" s="71"/>
-      <c r="AP5" s="71"/>
-      <c r="AQ5" s="71"/>
-      <c r="AR5" s="71"/>
-      <c r="AS5" s="71"/>
-      <c r="AT5" s="71"/>
-      <c r="AU5" s="71"/>
-      <c r="AV5" s="71"/>
-      <c r="AW5" s="71"/>
-      <c r="AX5" s="71"/>
-      <c r="AY5" s="71"/>
-      <c r="AZ5" s="71"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="76"/>
+      <c r="AJ5" s="76"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="76"/>
+      <c r="AN5" s="76"/>
+      <c r="AO5" s="76"/>
+      <c r="AP5" s="76"/>
+      <c r="AQ5" s="76"/>
+      <c r="AR5" s="76"/>
+      <c r="AS5" s="76"/>
+      <c r="AT5" s="76"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
     </row>
     <row r="6" spans="1:52" ht="12">
-      <c r="A6" s="66">
+      <c r="A6" s="65">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="66"/>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="66"/>
-      <c r="AY6" s="66"/>
-      <c r="AZ6" s="66"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="102">
+        <v>45545</v>
+      </c>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="65"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="65"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="65"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="65"/>
+      <c r="AZ6" s="65"/>
     </row>
     <row r="7" spans="1:52" ht="12">
-      <c r="A7" s="66">
+      <c r="A7" s="65">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="66"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="65"/>
+      <c r="AL7" s="65"/>
+      <c r="AM7" s="65"/>
+      <c r="AN7" s="65"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="65"/>
+      <c r="AQ7" s="65"/>
+      <c r="AR7" s="65"/>
+      <c r="AS7" s="65"/>
+      <c r="AT7" s="65"/>
+      <c r="AU7" s="65"/>
+      <c r="AV7" s="65"/>
+      <c r="AW7" s="65"/>
+      <c r="AX7" s="65"/>
+      <c r="AY7" s="65"/>
+      <c r="AZ7" s="65"/>
     </row>
     <row r="8" spans="1:52" ht="12">
-      <c r="A8" s="66">
+      <c r="A8" s="65">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
-      <c r="AZ8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="65"/>
+      <c r="AJ8" s="65"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65"/>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="65"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="65"/>
+      <c r="AU8" s="65"/>
+      <c r="AV8" s="65"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="65"/>
+      <c r="AY8" s="65"/>
+      <c r="AZ8" s="65"/>
     </row>
     <row r="9" spans="1:52" ht="12">
-      <c r="A9" s="66">
+      <c r="A9" s="65">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="66"/>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="66"/>
-      <c r="AY9" s="66"/>
-      <c r="AZ9" s="66"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="65"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="65"/>
+      <c r="AY9" s="65"/>
+      <c r="AZ9" s="65"/>
     </row>
     <row r="10" spans="1:52" ht="12">
-      <c r="A10" s="66">
+      <c r="A10" s="65">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="66"/>
-      <c r="AY10" s="66"/>
-      <c r="AZ10" s="66"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
     </row>
     <row r="11" spans="1:52" ht="12">
-      <c r="A11" s="66">
+      <c r="A11" s="65">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66"/>
-      <c r="AN11" s="66"/>
-      <c r="AO11" s="66"/>
-      <c r="AP11" s="66"/>
-      <c r="AQ11" s="66"/>
-      <c r="AR11" s="66"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="66"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="66"/>
-      <c r="AY11" s="66"/>
-      <c r="AZ11" s="66"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="65"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="65"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="65"/>
+      <c r="AV11" s="65"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="65"/>
+      <c r="AY11" s="65"/>
+      <c r="AZ11" s="65"/>
     </row>
     <row r="12" spans="1:52" ht="12">
-      <c r="A12" s="66">
+      <c r="A12" s="65">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="66"/>
-      <c r="AY12" s="66"/>
-      <c r="AZ12" s="66"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="65"/>
     </row>
     <row r="13" spans="1:52" ht="12">
-      <c r="A13" s="66">
+      <c r="A13" s="65">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="66"/>
-      <c r="AY13" s="66"/>
-      <c r="AZ13" s="66"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="65"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="65"/>
+      <c r="AY13" s="65"/>
+      <c r="AZ13" s="65"/>
     </row>
     <row r="14" spans="1:52" ht="12">
-      <c r="A14" s="66">
+      <c r="A14" s="65">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="66"/>
-      <c r="AY14" s="66"/>
-      <c r="AZ14" s="66"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="65"/>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="65"/>
+      <c r="AL14" s="65"/>
+      <c r="AM14" s="65"/>
+      <c r="AN14" s="65"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="65"/>
+      <c r="AQ14" s="65"/>
+      <c r="AR14" s="65"/>
+      <c r="AS14" s="65"/>
+      <c r="AT14" s="65"/>
+      <c r="AU14" s="65"/>
+      <c r="AV14" s="65"/>
+      <c r="AW14" s="65"/>
+      <c r="AX14" s="65"/>
+      <c r="AY14" s="65"/>
+      <c r="AZ14" s="65"/>
     </row>
     <row r="15" spans="1:52" ht="12">
-      <c r="A15" s="66">
+      <c r="A15" s="65">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="66"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="65"/>
+      <c r="AZ15" s="65"/>
     </row>
     <row r="16" spans="1:52" ht="12">
-      <c r="A16" s="66">
+      <c r="A16" s="65">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="66"/>
-      <c r="AO16" s="66"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="66"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="65"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="65"/>
+      <c r="AZ16" s="65"/>
     </row>
     <row r="17" spans="1:52" ht="12">
-      <c r="A17" s="66">
+      <c r="A17" s="65">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="66"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="66"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
+      <c r="AZ17" s="65"/>
     </row>
     <row r="18" spans="1:52" ht="12">
-      <c r="A18" s="66">
+      <c r="A18" s="65">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="66"/>
-      <c r="AM18" s="66"/>
-      <c r="AN18" s="66"/>
-      <c r="AO18" s="66"/>
-      <c r="AP18" s="66"/>
-      <c r="AQ18" s="66"/>
-      <c r="AR18" s="66"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="66"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
-      <c r="AZ18" s="66"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
     </row>
     <row r="19" spans="1:52" ht="12">
-      <c r="A19" s="66">
+      <c r="A19" s="65">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="66"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
     </row>
     <row r="20" spans="1:52" ht="12">
-      <c r="A20" s="66">
+      <c r="A20" s="65">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="66"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="65"/>
     </row>
     <row r="21" spans="1:52" ht="12">
-      <c r="A21" s="66">
+      <c r="A21" s="65">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="65"/>
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="65"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="65"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="65"/>
+      <c r="AT21" s="65"/>
+      <c r="AU21" s="65"/>
+      <c r="AV21" s="65"/>
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="65"/>
+      <c r="AY21" s="65"/>
+      <c r="AZ21" s="65"/>
     </row>
     <row r="22" spans="1:52" ht="12">
-      <c r="A22" s="66">
+      <c r="A22" s="65">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="66"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="66"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="65"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="65"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="65"/>
+      <c r="AY22" s="65"/>
+      <c r="AZ22" s="65"/>
     </row>
     <row r="23" spans="1:52" ht="12">
-      <c r="A23" s="66">
+      <c r="A23" s="65">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="66"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="66"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="65"/>
+      <c r="AQ23" s="65"/>
+      <c r="AR23" s="65"/>
+      <c r="AS23" s="65"/>
+      <c r="AT23" s="65"/>
+      <c r="AU23" s="65"/>
+      <c r="AV23" s="65"/>
+      <c r="AW23" s="65"/>
+      <c r="AX23" s="65"/>
+      <c r="AY23" s="65"/>
+      <c r="AZ23" s="65"/>
     </row>
     <row r="24" spans="1:52" ht="12">
-      <c r="A24" s="66">
+      <c r="A24" s="65">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="66"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="66"/>
-      <c r="AR24" s="66"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="66"/>
-      <c r="AU24" s="66"/>
-      <c r="AV24" s="66"/>
-      <c r="AW24" s="66"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="66"/>
-      <c r="AZ24" s="66"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="65"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="65"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="65"/>
+      <c r="AU24" s="65"/>
+      <c r="AV24" s="65"/>
+      <c r="AW24" s="65"/>
+      <c r="AX24" s="65"/>
+      <c r="AY24" s="65"/>
+      <c r="AZ24" s="65"/>
     </row>
     <row r="25" spans="1:52" ht="12">
-      <c r="A25" s="66">
+      <c r="A25" s="65">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="66"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="66"/>
-      <c r="AR25" s="66"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="66"/>
-      <c r="AU25" s="66"/>
-      <c r="AV25" s="66"/>
-      <c r="AW25" s="66"/>
-      <c r="AX25" s="66"/>
-      <c r="AY25" s="66"/>
-      <c r="AZ25" s="66"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="65"/>
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="65"/>
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="65"/>
+      <c r="AQ25" s="65"/>
+      <c r="AR25" s="65"/>
+      <c r="AS25" s="65"/>
+      <c r="AT25" s="65"/>
+      <c r="AU25" s="65"/>
+      <c r="AV25" s="65"/>
+      <c r="AW25" s="65"/>
+      <c r="AX25" s="65"/>
+      <c r="AY25" s="65"/>
+      <c r="AZ25" s="65"/>
     </row>
     <row r="26" spans="1:52" ht="12">
-      <c r="A26" s="66">
+      <c r="A26" s="65">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="66"/>
-      <c r="AM26" s="66"/>
-      <c r="AN26" s="66"/>
-      <c r="AO26" s="66"/>
-      <c r="AP26" s="66"/>
-      <c r="AQ26" s="66"/>
-      <c r="AR26" s="66"/>
-      <c r="AS26" s="66"/>
-      <c r="AT26" s="66"/>
-      <c r="AU26" s="66"/>
-      <c r="AV26" s="66"/>
-      <c r="AW26" s="66"/>
-      <c r="AX26" s="66"/>
-      <c r="AY26" s="66"/>
-      <c r="AZ26" s="66"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="65"/>
+      <c r="AG26" s="65"/>
+      <c r="AH26" s="65"/>
+      <c r="AI26" s="65"/>
+      <c r="AJ26" s="65"/>
+      <c r="AK26" s="65"/>
+      <c r="AL26" s="65"/>
+      <c r="AM26" s="65"/>
+      <c r="AN26" s="65"/>
+      <c r="AO26" s="65"/>
+      <c r="AP26" s="65"/>
+      <c r="AQ26" s="65"/>
+      <c r="AR26" s="65"/>
+      <c r="AS26" s="65"/>
+      <c r="AT26" s="65"/>
+      <c r="AU26" s="65"/>
+      <c r="AV26" s="65"/>
+      <c r="AW26" s="65"/>
+      <c r="AX26" s="65"/>
+      <c r="AY26" s="65"/>
+      <c r="AZ26" s="65"/>
     </row>
     <row r="27" spans="1:52" ht="12">
-      <c r="A27" s="66">
+      <c r="A27" s="65">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="66"/>
-      <c r="AM27" s="66"/>
-      <c r="AN27" s="66"/>
-      <c r="AO27" s="66"/>
-      <c r="AP27" s="66"/>
-      <c r="AQ27" s="66"/>
-      <c r="AR27" s="66"/>
-      <c r="AS27" s="66"/>
-      <c r="AT27" s="66"/>
-      <c r="AU27" s="66"/>
-      <c r="AV27" s="66"/>
-      <c r="AW27" s="66"/>
-      <c r="AX27" s="66"/>
-      <c r="AY27" s="66"/>
-      <c r="AZ27" s="66"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="65"/>
+      <c r="AL27" s="65"/>
+      <c r="AM27" s="65"/>
+      <c r="AN27" s="65"/>
+      <c r="AO27" s="65"/>
+      <c r="AP27" s="65"/>
+      <c r="AQ27" s="65"/>
+      <c r="AR27" s="65"/>
+      <c r="AS27" s="65"/>
+      <c r="AT27" s="65"/>
+      <c r="AU27" s="65"/>
+      <c r="AV27" s="65"/>
+      <c r="AW27" s="65"/>
+      <c r="AX27" s="65"/>
+      <c r="AY27" s="65"/>
+      <c r="AZ27" s="65"/>
     </row>
     <row r="28" spans="1:52" ht="12">
-      <c r="A28" s="66">
+      <c r="A28" s="65">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="66"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="66"/>
-      <c r="AP28" s="66"/>
-      <c r="AQ28" s="66"/>
-      <c r="AR28" s="66"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="66"/>
-      <c r="AU28" s="66"/>
-      <c r="AV28" s="66"/>
-      <c r="AW28" s="66"/>
-      <c r="AX28" s="66"/>
-      <c r="AY28" s="66"/>
-      <c r="AZ28" s="66"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="65"/>
+      <c r="AH28" s="65"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="65"/>
+      <c r="AL28" s="65"/>
+      <c r="AM28" s="65"/>
+      <c r="AN28" s="65"/>
+      <c r="AO28" s="65"/>
+      <c r="AP28" s="65"/>
+      <c r="AQ28" s="65"/>
+      <c r="AR28" s="65"/>
+      <c r="AS28" s="65"/>
+      <c r="AT28" s="65"/>
+      <c r="AU28" s="65"/>
+      <c r="AV28" s="65"/>
+      <c r="AW28" s="65"/>
+      <c r="AX28" s="65"/>
+      <c r="AY28" s="65"/>
+      <c r="AZ28" s="65"/>
     </row>
     <row r="29" spans="1:52" ht="12">
-      <c r="A29" s="66">
+      <c r="A29" s="65">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="66"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="66"/>
-      <c r="AL29" s="66"/>
-      <c r="AM29" s="66"/>
-      <c r="AN29" s="66"/>
-      <c r="AO29" s="66"/>
-      <c r="AP29" s="66"/>
-      <c r="AQ29" s="66"/>
-      <c r="AR29" s="66"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="66"/>
-      <c r="AU29" s="66"/>
-      <c r="AV29" s="66"/>
-      <c r="AW29" s="66"/>
-      <c r="AX29" s="66"/>
-      <c r="AY29" s="66"/>
-      <c r="AZ29" s="66"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="65"/>
+      <c r="AG29" s="65"/>
+      <c r="AH29" s="65"/>
+      <c r="AI29" s="65"/>
+      <c r="AJ29" s="65"/>
+      <c r="AK29" s="65"/>
+      <c r="AL29" s="65"/>
+      <c r="AM29" s="65"/>
+      <c r="AN29" s="65"/>
+      <c r="AO29" s="65"/>
+      <c r="AP29" s="65"/>
+      <c r="AQ29" s="65"/>
+      <c r="AR29" s="65"/>
+      <c r="AS29" s="65"/>
+      <c r="AT29" s="65"/>
+      <c r="AU29" s="65"/>
+      <c r="AV29" s="65"/>
+      <c r="AW29" s="65"/>
+      <c r="AX29" s="65"/>
+      <c r="AY29" s="65"/>
+      <c r="AZ29" s="65"/>
     </row>
     <row r="30" spans="1:52" ht="12">
-      <c r="A30" s="66">
+      <c r="A30" s="65">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="66"/>
-      <c r="AK30" s="66"/>
-      <c r="AL30" s="66"/>
-      <c r="AM30" s="66"/>
-      <c r="AN30" s="66"/>
-      <c r="AO30" s="66"/>
-      <c r="AP30" s="66"/>
-      <c r="AQ30" s="66"/>
-      <c r="AR30" s="66"/>
-      <c r="AS30" s="66"/>
-      <c r="AT30" s="66"/>
-      <c r="AU30" s="66"/>
-      <c r="AV30" s="66"/>
-      <c r="AW30" s="66"/>
-      <c r="AX30" s="66"/>
-      <c r="AY30" s="66"/>
-      <c r="AZ30" s="66"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="65"/>
+      <c r="AH30" s="65"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="65"/>
+      <c r="AL30" s="65"/>
+      <c r="AM30" s="65"/>
+      <c r="AN30" s="65"/>
+      <c r="AO30" s="65"/>
+      <c r="AP30" s="65"/>
+      <c r="AQ30" s="65"/>
+      <c r="AR30" s="65"/>
+      <c r="AS30" s="65"/>
+      <c r="AT30" s="65"/>
+      <c r="AU30" s="65"/>
+      <c r="AV30" s="65"/>
+      <c r="AW30" s="65"/>
+      <c r="AX30" s="65"/>
+      <c r="AY30" s="65"/>
+      <c r="AZ30" s="65"/>
     </row>
     <row r="31" spans="1:52" ht="12">
-      <c r="A31" s="66">
+      <c r="A31" s="65">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="66"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="66"/>
-      <c r="AN31" s="66"/>
-      <c r="AO31" s="66"/>
-      <c r="AP31" s="66"/>
-      <c r="AQ31" s="66"/>
-      <c r="AR31" s="66"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="66"/>
-      <c r="AU31" s="66"/>
-      <c r="AV31" s="66"/>
-      <c r="AW31" s="66"/>
-      <c r="AX31" s="66"/>
-      <c r="AY31" s="66"/>
-      <c r="AZ31" s="66"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="65"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="65"/>
+      <c r="AL31" s="65"/>
+      <c r="AM31" s="65"/>
+      <c r="AN31" s="65"/>
+      <c r="AO31" s="65"/>
+      <c r="AP31" s="65"/>
+      <c r="AQ31" s="65"/>
+      <c r="AR31" s="65"/>
+      <c r="AS31" s="65"/>
+      <c r="AT31" s="65"/>
+      <c r="AU31" s="65"/>
+      <c r="AV31" s="65"/>
+      <c r="AW31" s="65"/>
+      <c r="AX31" s="65"/>
+      <c r="AY31" s="65"/>
+      <c r="AZ31" s="65"/>
     </row>
     <row r="32" spans="1:52" ht="12">
-      <c r="A32" s="66">
+      <c r="A32" s="65">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="66"/>
-      <c r="AM32" s="66"/>
-      <c r="AN32" s="66"/>
-      <c r="AO32" s="66"/>
-      <c r="AP32" s="66"/>
-      <c r="AQ32" s="66"/>
-      <c r="AR32" s="66"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="66"/>
-      <c r="AU32" s="66"/>
-      <c r="AV32" s="66"/>
-      <c r="AW32" s="66"/>
-      <c r="AX32" s="66"/>
-      <c r="AY32" s="66"/>
-      <c r="AZ32" s="66"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="65"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="65"/>
+      <c r="AK32" s="65"/>
+      <c r="AL32" s="65"/>
+      <c r="AM32" s="65"/>
+      <c r="AN32" s="65"/>
+      <c r="AO32" s="65"/>
+      <c r="AP32" s="65"/>
+      <c r="AQ32" s="65"/>
+      <c r="AR32" s="65"/>
+      <c r="AS32" s="65"/>
+      <c r="AT32" s="65"/>
+      <c r="AU32" s="65"/>
+      <c r="AV32" s="65"/>
+      <c r="AW32" s="65"/>
+      <c r="AX32" s="65"/>
+      <c r="AY32" s="65"/>
+      <c r="AZ32" s="65"/>
     </row>
     <row r="33" spans="1:52" ht="12">
-      <c r="A33" s="66">
+      <c r="A33" s="65">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="66"/>
-      <c r="AN33" s="66"/>
-      <c r="AO33" s="66"/>
-      <c r="AP33" s="66"/>
-      <c r="AQ33" s="66"/>
-      <c r="AR33" s="66"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="66"/>
-      <c r="AU33" s="66"/>
-      <c r="AV33" s="66"/>
-      <c r="AW33" s="66"/>
-      <c r="AX33" s="66"/>
-      <c r="AY33" s="66"/>
-      <c r="AZ33" s="66"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="65"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="65"/>
+      <c r="AI33" s="65"/>
+      <c r="AJ33" s="65"/>
+      <c r="AK33" s="65"/>
+      <c r="AL33" s="65"/>
+      <c r="AM33" s="65"/>
+      <c r="AN33" s="65"/>
+      <c r="AO33" s="65"/>
+      <c r="AP33" s="65"/>
+      <c r="AQ33" s="65"/>
+      <c r="AR33" s="65"/>
+      <c r="AS33" s="65"/>
+      <c r="AT33" s="65"/>
+      <c r="AU33" s="65"/>
+      <c r="AV33" s="65"/>
+      <c r="AW33" s="65"/>
+      <c r="AX33" s="65"/>
+      <c r="AY33" s="65"/>
+      <c r="AZ33" s="65"/>
     </row>
     <row r="34" spans="1:52" ht="12">
-      <c r="A34" s="66">
+      <c r="A34" s="65">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
-      <c r="AL34" s="66"/>
-      <c r="AM34" s="66"/>
-      <c r="AN34" s="66"/>
-      <c r="AO34" s="66"/>
-      <c r="AP34" s="66"/>
-      <c r="AQ34" s="66"/>
-      <c r="AR34" s="66"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="66"/>
-      <c r="AU34" s="66"/>
-      <c r="AV34" s="66"/>
-      <c r="AW34" s="66"/>
-      <c r="AX34" s="66"/>
-      <c r="AY34" s="66"/>
-      <c r="AZ34" s="66"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="65"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
+      <c r="AL34" s="65"/>
+      <c r="AM34" s="65"/>
+      <c r="AN34" s="65"/>
+      <c r="AO34" s="65"/>
+      <c r="AP34" s="65"/>
+      <c r="AQ34" s="65"/>
+      <c r="AR34" s="65"/>
+      <c r="AS34" s="65"/>
+      <c r="AT34" s="65"/>
+      <c r="AU34" s="65"/>
+      <c r="AV34" s="65"/>
+      <c r="AW34" s="65"/>
+      <c r="AX34" s="65"/>
+      <c r="AY34" s="65"/>
+      <c r="AZ34" s="65"/>
     </row>
     <row r="35" spans="1:52" ht="12">
-      <c r="A35" s="66">
+      <c r="A35" s="65">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="66"/>
-      <c r="AL35" s="66"/>
-      <c r="AM35" s="66"/>
-      <c r="AN35" s="66"/>
-      <c r="AO35" s="66"/>
-      <c r="AP35" s="66"/>
-      <c r="AQ35" s="66"/>
-      <c r="AR35" s="66"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="66"/>
-      <c r="AU35" s="66"/>
-      <c r="AV35" s="66"/>
-      <c r="AW35" s="66"/>
-      <c r="AX35" s="66"/>
-      <c r="AY35" s="66"/>
-      <c r="AZ35" s="66"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
+      <c r="Y35" s="65"/>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="65"/>
+      <c r="AB35" s="65"/>
+      <c r="AC35" s="65"/>
+      <c r="AD35" s="65"/>
+      <c r="AE35" s="65"/>
+      <c r="AF35" s="65"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="65"/>
+      <c r="AJ35" s="65"/>
+      <c r="AK35" s="65"/>
+      <c r="AL35" s="65"/>
+      <c r="AM35" s="65"/>
+      <c r="AN35" s="65"/>
+      <c r="AO35" s="65"/>
+      <c r="AP35" s="65"/>
+      <c r="AQ35" s="65"/>
+      <c r="AR35" s="65"/>
+      <c r="AS35" s="65"/>
+      <c r="AT35" s="65"/>
+      <c r="AU35" s="65"/>
+      <c r="AV35" s="65"/>
+      <c r="AW35" s="65"/>
+      <c r="AX35" s="65"/>
+      <c r="AY35" s="65"/>
+      <c r="AZ35" s="65"/>
     </row>
     <row r="36" spans="1:52" ht="12">
-      <c r="A36" s="66">
+      <c r="A36" s="65">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="66"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
-      <c r="AI36" s="66"/>
-      <c r="AJ36" s="66"/>
-      <c r="AK36" s="66"/>
-      <c r="AL36" s="66"/>
-      <c r="AM36" s="66"/>
-      <c r="AN36" s="66"/>
-      <c r="AO36" s="66"/>
-      <c r="AP36" s="66"/>
-      <c r="AQ36" s="66"/>
-      <c r="AR36" s="66"/>
-      <c r="AS36" s="66"/>
-      <c r="AT36" s="66"/>
-      <c r="AU36" s="66"/>
-      <c r="AV36" s="66"/>
-      <c r="AW36" s="66"/>
-      <c r="AX36" s="66"/>
-      <c r="AY36" s="66"/>
-      <c r="AZ36" s="66"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="65"/>
+      <c r="AH36" s="65"/>
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="65"/>
+      <c r="AK36" s="65"/>
+      <c r="AL36" s="65"/>
+      <c r="AM36" s="65"/>
+      <c r="AN36" s="65"/>
+      <c r="AO36" s="65"/>
+      <c r="AP36" s="65"/>
+      <c r="AQ36" s="65"/>
+      <c r="AR36" s="65"/>
+      <c r="AS36" s="65"/>
+      <c r="AT36" s="65"/>
+      <c r="AU36" s="65"/>
+      <c r="AV36" s="65"/>
+      <c r="AW36" s="65"/>
+      <c r="AX36" s="65"/>
+      <c r="AY36" s="65"/>
+      <c r="AZ36" s="65"/>
     </row>
     <row r="37" spans="1:52" ht="12">
-      <c r="A37" s="66">
+      <c r="A37" s="65">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="66"/>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="66"/>
-      <c r="AB37" s="66"/>
-      <c r="AC37" s="66"/>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="66"/>
-      <c r="AK37" s="66"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="66"/>
-      <c r="AN37" s="66"/>
-      <c r="AO37" s="66"/>
-      <c r="AP37" s="66"/>
-      <c r="AQ37" s="66"/>
-      <c r="AR37" s="66"/>
-      <c r="AS37" s="66"/>
-      <c r="AT37" s="66"/>
-      <c r="AU37" s="66"/>
-      <c r="AV37" s="66"/>
-      <c r="AW37" s="66"/>
-      <c r="AX37" s="66"/>
-      <c r="AY37" s="66"/>
-      <c r="AZ37" s="66"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="65"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="65"/>
+      <c r="AF37" s="65"/>
+      <c r="AG37" s="65"/>
+      <c r="AH37" s="65"/>
+      <c r="AI37" s="65"/>
+      <c r="AJ37" s="65"/>
+      <c r="AK37" s="65"/>
+      <c r="AL37" s="65"/>
+      <c r="AM37" s="65"/>
+      <c r="AN37" s="65"/>
+      <c r="AO37" s="65"/>
+      <c r="AP37" s="65"/>
+      <c r="AQ37" s="65"/>
+      <c r="AR37" s="65"/>
+      <c r="AS37" s="65"/>
+      <c r="AT37" s="65"/>
+      <c r="AU37" s="65"/>
+      <c r="AV37" s="65"/>
+      <c r="AW37" s="65"/>
+      <c r="AX37" s="65"/>
+      <c r="AY37" s="65"/>
+      <c r="AZ37" s="65"/>
     </row>
     <row r="38" spans="1:52" ht="12">
-      <c r="A38" s="66">
+      <c r="A38" s="65">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="66"/>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="66"/>
-      <c r="AF38" s="66"/>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="66"/>
-      <c r="AI38" s="66"/>
-      <c r="AJ38" s="66"/>
-      <c r="AK38" s="66"/>
-      <c r="AL38" s="66"/>
-      <c r="AM38" s="66"/>
-      <c r="AN38" s="66"/>
-      <c r="AO38" s="66"/>
-      <c r="AP38" s="66"/>
-      <c r="AQ38" s="66"/>
-      <c r="AR38" s="66"/>
-      <c r="AS38" s="66"/>
-      <c r="AT38" s="66"/>
-      <c r="AU38" s="66"/>
-      <c r="AV38" s="66"/>
-      <c r="AW38" s="66"/>
-      <c r="AX38" s="66"/>
-      <c r="AY38" s="66"/>
-      <c r="AZ38" s="66"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="65"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="65"/>
+      <c r="AE38" s="65"/>
+      <c r="AF38" s="65"/>
+      <c r="AG38" s="65"/>
+      <c r="AH38" s="65"/>
+      <c r="AI38" s="65"/>
+      <c r="AJ38" s="65"/>
+      <c r="AK38" s="65"/>
+      <c r="AL38" s="65"/>
+      <c r="AM38" s="65"/>
+      <c r="AN38" s="65"/>
+      <c r="AO38" s="65"/>
+      <c r="AP38" s="65"/>
+      <c r="AQ38" s="65"/>
+      <c r="AR38" s="65"/>
+      <c r="AS38" s="65"/>
+      <c r="AT38" s="65"/>
+      <c r="AU38" s="65"/>
+      <c r="AV38" s="65"/>
+      <c r="AW38" s="65"/>
+      <c r="AX38" s="65"/>
+      <c r="AY38" s="65"/>
+      <c r="AZ38" s="65"/>
     </row>
     <row r="39" spans="1:52" ht="12">
-      <c r="A39" s="66">
+      <c r="A39" s="65">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="66"/>
-      <c r="S39" s="66"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="66"/>
-      <c r="AB39" s="66"/>
-      <c r="AC39" s="66"/>
-      <c r="AD39" s="66"/>
-      <c r="AE39" s="66"/>
-      <c r="AF39" s="66"/>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="66"/>
-      <c r="AI39" s="66"/>
-      <c r="AJ39" s="66"/>
-      <c r="AK39" s="66"/>
-      <c r="AL39" s="66"/>
-      <c r="AM39" s="66"/>
-      <c r="AN39" s="66"/>
-      <c r="AO39" s="66"/>
-      <c r="AP39" s="66"/>
-      <c r="AQ39" s="66"/>
-      <c r="AR39" s="66"/>
-      <c r="AS39" s="66"/>
-      <c r="AT39" s="66"/>
-      <c r="AU39" s="66"/>
-      <c r="AV39" s="66"/>
-      <c r="AW39" s="66"/>
-      <c r="AX39" s="66"/>
-      <c r="AY39" s="66"/>
-      <c r="AZ39" s="66"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="65"/>
+      <c r="V39" s="65"/>
+      <c r="W39" s="65"/>
+      <c r="X39" s="65"/>
+      <c r="Y39" s="65"/>
+      <c r="Z39" s="65"/>
+      <c r="AA39" s="65"/>
+      <c r="AB39" s="65"/>
+      <c r="AC39" s="65"/>
+      <c r="AD39" s="65"/>
+      <c r="AE39" s="65"/>
+      <c r="AF39" s="65"/>
+      <c r="AG39" s="65"/>
+      <c r="AH39" s="65"/>
+      <c r="AI39" s="65"/>
+      <c r="AJ39" s="65"/>
+      <c r="AK39" s="65"/>
+      <c r="AL39" s="65"/>
+      <c r="AM39" s="65"/>
+      <c r="AN39" s="65"/>
+      <c r="AO39" s="65"/>
+      <c r="AP39" s="65"/>
+      <c r="AQ39" s="65"/>
+      <c r="AR39" s="65"/>
+      <c r="AS39" s="65"/>
+      <c r="AT39" s="65"/>
+      <c r="AU39" s="65"/>
+      <c r="AV39" s="65"/>
+      <c r="AW39" s="65"/>
+      <c r="AX39" s="65"/>
+      <c r="AY39" s="65"/>
+      <c r="AZ39" s="65"/>
     </row>
     <row r="40" spans="1:52" ht="12">
-      <c r="A40" s="66">
+      <c r="A40" s="65">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
-      <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="66"/>
-      <c r="AI40" s="66"/>
-      <c r="AJ40" s="66"/>
-      <c r="AK40" s="66"/>
-      <c r="AL40" s="66"/>
-      <c r="AM40" s="66"/>
-      <c r="AN40" s="66"/>
-      <c r="AO40" s="66"/>
-      <c r="AP40" s="66"/>
-      <c r="AQ40" s="66"/>
-      <c r="AR40" s="66"/>
-      <c r="AS40" s="66"/>
-      <c r="AT40" s="66"/>
-      <c r="AU40" s="66"/>
-      <c r="AV40" s="66"/>
-      <c r="AW40" s="66"/>
-      <c r="AX40" s="66"/>
-      <c r="AY40" s="66"/>
-      <c r="AZ40" s="66"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="65"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="65"/>
+      <c r="AB40" s="65"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="65"/>
+      <c r="AF40" s="65"/>
+      <c r="AG40" s="65"/>
+      <c r="AH40" s="65"/>
+      <c r="AI40" s="65"/>
+      <c r="AJ40" s="65"/>
+      <c r="AK40" s="65"/>
+      <c r="AL40" s="65"/>
+      <c r="AM40" s="65"/>
+      <c r="AN40" s="65"/>
+      <c r="AO40" s="65"/>
+      <c r="AP40" s="65"/>
+      <c r="AQ40" s="65"/>
+      <c r="AR40" s="65"/>
+      <c r="AS40" s="65"/>
+      <c r="AT40" s="65"/>
+      <c r="AU40" s="65"/>
+      <c r="AV40" s="65"/>
+      <c r="AW40" s="65"/>
+      <c r="AX40" s="65"/>
+      <c r="AY40" s="65"/>
+      <c r="AZ40" s="65"/>
     </row>
     <row r="41" spans="1:52" ht="12">
-      <c r="A41" s="66">
+      <c r="A41" s="65">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="66"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="66"/>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="66"/>
-      <c r="AB41" s="66"/>
-      <c r="AC41" s="66"/>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="66"/>
-      <c r="AI41" s="66"/>
-      <c r="AJ41" s="66"/>
-      <c r="AK41" s="66"/>
-      <c r="AL41" s="66"/>
-      <c r="AM41" s="66"/>
-      <c r="AN41" s="66"/>
-      <c r="AO41" s="66"/>
-      <c r="AP41" s="66"/>
-      <c r="AQ41" s="66"/>
-      <c r="AR41" s="66"/>
-      <c r="AS41" s="66"/>
-      <c r="AT41" s="66"/>
-      <c r="AU41" s="66"/>
-      <c r="AV41" s="66"/>
-      <c r="AW41" s="66"/>
-      <c r="AX41" s="66"/>
-      <c r="AY41" s="66"/>
-      <c r="AZ41" s="66"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
+      <c r="AA41" s="65"/>
+      <c r="AB41" s="65"/>
+      <c r="AC41" s="65"/>
+      <c r="AD41" s="65"/>
+      <c r="AE41" s="65"/>
+      <c r="AF41" s="65"/>
+      <c r="AG41" s="65"/>
+      <c r="AH41" s="65"/>
+      <c r="AI41" s="65"/>
+      <c r="AJ41" s="65"/>
+      <c r="AK41" s="65"/>
+      <c r="AL41" s="65"/>
+      <c r="AM41" s="65"/>
+      <c r="AN41" s="65"/>
+      <c r="AO41" s="65"/>
+      <c r="AP41" s="65"/>
+      <c r="AQ41" s="65"/>
+      <c r="AR41" s="65"/>
+      <c r="AS41" s="65"/>
+      <c r="AT41" s="65"/>
+      <c r="AU41" s="65"/>
+      <c r="AV41" s="65"/>
+      <c r="AW41" s="65"/>
+      <c r="AX41" s="65"/>
+      <c r="AY41" s="65"/>
+      <c r="AZ41" s="65"/>
     </row>
     <row r="42" spans="1:52" ht="12">
-      <c r="A42" s="66">
+      <c r="A42" s="65">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
-      <c r="S42" s="66"/>
-      <c r="T42" s="66"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="66"/>
-      <c r="W42" s="66"/>
-      <c r="X42" s="66"/>
-      <c r="Y42" s="66"/>
-      <c r="Z42" s="66"/>
-      <c r="AA42" s="66"/>
-      <c r="AB42" s="66"/>
-      <c r="AC42" s="66"/>
-      <c r="AD42" s="66"/>
-      <c r="AE42" s="66"/>
-      <c r="AF42" s="66"/>
-      <c r="AG42" s="66"/>
-      <c r="AH42" s="66"/>
-      <c r="AI42" s="66"/>
-      <c r="AJ42" s="66"/>
-      <c r="AK42" s="66"/>
-      <c r="AL42" s="66"/>
-      <c r="AM42" s="66"/>
-      <c r="AN42" s="66"/>
-      <c r="AO42" s="66"/>
-      <c r="AP42" s="66"/>
-      <c r="AQ42" s="66"/>
-      <c r="AR42" s="66"/>
-      <c r="AS42" s="66"/>
-      <c r="AT42" s="66"/>
-      <c r="AU42" s="66"/>
-      <c r="AV42" s="66"/>
-      <c r="AW42" s="66"/>
-      <c r="AX42" s="66"/>
-      <c r="AY42" s="66"/>
-      <c r="AZ42" s="66"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="65"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="65"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="65"/>
+      <c r="AF42" s="65"/>
+      <c r="AG42" s="65"/>
+      <c r="AH42" s="65"/>
+      <c r="AI42" s="65"/>
+      <c r="AJ42" s="65"/>
+      <c r="AK42" s="65"/>
+      <c r="AL42" s="65"/>
+      <c r="AM42" s="65"/>
+      <c r="AN42" s="65"/>
+      <c r="AO42" s="65"/>
+      <c r="AP42" s="65"/>
+      <c r="AQ42" s="65"/>
+      <c r="AR42" s="65"/>
+      <c r="AS42" s="65"/>
+      <c r="AT42" s="65"/>
+      <c r="AU42" s="65"/>
+      <c r="AV42" s="65"/>
+      <c r="AW42" s="65"/>
+      <c r="AX42" s="65"/>
+      <c r="AY42" s="65"/>
+      <c r="AZ42" s="65"/>
     </row>
     <row r="43" spans="1:52" ht="12">
-      <c r="A43" s="66">
+      <c r="A43" s="65">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="66"/>
-      <c r="R43" s="66"/>
-      <c r="S43" s="66"/>
-      <c r="T43" s="66"/>
-      <c r="U43" s="66"/>
-      <c r="V43" s="66"/>
-      <c r="W43" s="66"/>
-      <c r="X43" s="66"/>
-      <c r="Y43" s="66"/>
-      <c r="Z43" s="66"/>
-      <c r="AA43" s="66"/>
-      <c r="AB43" s="66"/>
-      <c r="AC43" s="66"/>
-      <c r="AD43" s="66"/>
-      <c r="AE43" s="66"/>
-      <c r="AF43" s="66"/>
-      <c r="AG43" s="66"/>
-      <c r="AH43" s="66"/>
-      <c r="AI43" s="66"/>
-      <c r="AJ43" s="66"/>
-      <c r="AK43" s="66"/>
-      <c r="AL43" s="66"/>
-      <c r="AM43" s="66"/>
-      <c r="AN43" s="66"/>
-      <c r="AO43" s="66"/>
-      <c r="AP43" s="66"/>
-      <c r="AQ43" s="66"/>
-      <c r="AR43" s="66"/>
-      <c r="AS43" s="66"/>
-      <c r="AT43" s="66"/>
-      <c r="AU43" s="66"/>
-      <c r="AV43" s="66"/>
-      <c r="AW43" s="66"/>
-      <c r="AX43" s="66"/>
-      <c r="AY43" s="66"/>
-      <c r="AZ43" s="66"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="65"/>
+      <c r="W43" s="65"/>
+      <c r="X43" s="65"/>
+      <c r="Y43" s="65"/>
+      <c r="Z43" s="65"/>
+      <c r="AA43" s="65"/>
+      <c r="AB43" s="65"/>
+      <c r="AC43" s="65"/>
+      <c r="AD43" s="65"/>
+      <c r="AE43" s="65"/>
+      <c r="AF43" s="65"/>
+      <c r="AG43" s="65"/>
+      <c r="AH43" s="65"/>
+      <c r="AI43" s="65"/>
+      <c r="AJ43" s="65"/>
+      <c r="AK43" s="65"/>
+      <c r="AL43" s="65"/>
+      <c r="AM43" s="65"/>
+      <c r="AN43" s="65"/>
+      <c r="AO43" s="65"/>
+      <c r="AP43" s="65"/>
+      <c r="AQ43" s="65"/>
+      <c r="AR43" s="65"/>
+      <c r="AS43" s="65"/>
+      <c r="AT43" s="65"/>
+      <c r="AU43" s="65"/>
+      <c r="AV43" s="65"/>
+      <c r="AW43" s="65"/>
+      <c r="AX43" s="65"/>
+      <c r="AY43" s="65"/>
+      <c r="AZ43" s="65"/>
     </row>
     <row r="44" spans="1:52" ht="12">
-      <c r="A44" s="66">
+      <c r="A44" s="65">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="66"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="66"/>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="66"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="66"/>
-      <c r="AK44" s="66"/>
-      <c r="AL44" s="66"/>
-      <c r="AM44" s="66"/>
-      <c r="AN44" s="66"/>
-      <c r="AO44" s="66"/>
-      <c r="AP44" s="66"/>
-      <c r="AQ44" s="66"/>
-      <c r="AR44" s="66"/>
-      <c r="AS44" s="66"/>
-      <c r="AT44" s="66"/>
-      <c r="AU44" s="66"/>
-      <c r="AV44" s="66"/>
-      <c r="AW44" s="66"/>
-      <c r="AX44" s="66"/>
-      <c r="AY44" s="66"/>
-      <c r="AZ44" s="66"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="65"/>
+      <c r="T44" s="65"/>
+      <c r="U44" s="65"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="65"/>
+      <c r="AA44" s="65"/>
+      <c r="AB44" s="65"/>
+      <c r="AC44" s="65"/>
+      <c r="AD44" s="65"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="65"/>
+      <c r="AG44" s="65"/>
+      <c r="AH44" s="65"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="65"/>
+      <c r="AK44" s="65"/>
+      <c r="AL44" s="65"/>
+      <c r="AM44" s="65"/>
+      <c r="AN44" s="65"/>
+      <c r="AO44" s="65"/>
+      <c r="AP44" s="65"/>
+      <c r="AQ44" s="65"/>
+      <c r="AR44" s="65"/>
+      <c r="AS44" s="65"/>
+      <c r="AT44" s="65"/>
+      <c r="AU44" s="65"/>
+      <c r="AV44" s="65"/>
+      <c r="AW44" s="65"/>
+      <c r="AX44" s="65"/>
+      <c r="AY44" s="65"/>
+      <c r="AZ44" s="65"/>
     </row>
     <row r="45" spans="1:52" ht="12">
-      <c r="A45" s="66">
+      <c r="A45" s="65">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="66"/>
-      <c r="W45" s="66"/>
-      <c r="X45" s="66"/>
-      <c r="Y45" s="66"/>
-      <c r="Z45" s="66"/>
-      <c r="AA45" s="66"/>
-      <c r="AB45" s="66"/>
-      <c r="AC45" s="66"/>
-      <c r="AD45" s="66"/>
-      <c r="AE45" s="66"/>
-      <c r="AF45" s="66"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="66"/>
-      <c r="AI45" s="66"/>
-      <c r="AJ45" s="66"/>
-      <c r="AK45" s="66"/>
-      <c r="AL45" s="66"/>
-      <c r="AM45" s="66"/>
-      <c r="AN45" s="66"/>
-      <c r="AO45" s="66"/>
-      <c r="AP45" s="66"/>
-      <c r="AQ45" s="66"/>
-      <c r="AR45" s="66"/>
-      <c r="AS45" s="66"/>
-      <c r="AT45" s="66"/>
-      <c r="AU45" s="66"/>
-      <c r="AV45" s="66"/>
-      <c r="AW45" s="66"/>
-      <c r="AX45" s="66"/>
-      <c r="AY45" s="66"/>
-      <c r="AZ45" s="66"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="65"/>
+      <c r="AB45" s="65"/>
+      <c r="AC45" s="65"/>
+      <c r="AD45" s="65"/>
+      <c r="AE45" s="65"/>
+      <c r="AF45" s="65"/>
+      <c r="AG45" s="65"/>
+      <c r="AH45" s="65"/>
+      <c r="AI45" s="65"/>
+      <c r="AJ45" s="65"/>
+      <c r="AK45" s="65"/>
+      <c r="AL45" s="65"/>
+      <c r="AM45" s="65"/>
+      <c r="AN45" s="65"/>
+      <c r="AO45" s="65"/>
+      <c r="AP45" s="65"/>
+      <c r="AQ45" s="65"/>
+      <c r="AR45" s="65"/>
+      <c r="AS45" s="65"/>
+      <c r="AT45" s="65"/>
+      <c r="AU45" s="65"/>
+      <c r="AV45" s="65"/>
+      <c r="AW45" s="65"/>
+      <c r="AX45" s="65"/>
+      <c r="AY45" s="65"/>
+      <c r="AZ45" s="65"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="79">
+      <c r="A46" s="72">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
-      <c r="Q46" s="79"/>
-      <c r="R46" s="79"/>
-      <c r="S46" s="79"/>
-      <c r="T46" s="79"/>
-      <c r="U46" s="79"/>
-      <c r="V46" s="79"/>
-      <c r="W46" s="79"/>
-      <c r="X46" s="79"/>
-      <c r="Y46" s="79"/>
-      <c r="Z46" s="79"/>
-      <c r="AA46" s="79"/>
-      <c r="AB46" s="79"/>
-      <c r="AC46" s="79"/>
-      <c r="AD46" s="79"/>
-      <c r="AE46" s="79"/>
-      <c r="AF46" s="79"/>
-      <c r="AG46" s="79"/>
-      <c r="AH46" s="79"/>
-      <c r="AI46" s="79"/>
-      <c r="AJ46" s="79"/>
-      <c r="AK46" s="79"/>
-      <c r="AL46" s="79"/>
-      <c r="AM46" s="79"/>
-      <c r="AN46" s="79"/>
-      <c r="AO46" s="79"/>
-      <c r="AP46" s="79"/>
-      <c r="AQ46" s="79"/>
-      <c r="AR46" s="79"/>
-      <c r="AS46" s="79"/>
-      <c r="AT46" s="79"/>
-      <c r="AU46" s="79"/>
-      <c r="AV46" s="79"/>
-      <c r="AW46" s="79"/>
-      <c r="AX46" s="79"/>
-      <c r="AY46" s="79"/>
-      <c r="AZ46" s="79"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="72"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
+      <c r="AH46" s="72"/>
+      <c r="AI46" s="72"/>
+      <c r="AJ46" s="72"/>
+      <c r="AK46" s="72"/>
+      <c r="AL46" s="72"/>
+      <c r="AM46" s="72"/>
+      <c r="AN46" s="72"/>
+      <c r="AO46" s="72"/>
+      <c r="AP46" s="72"/>
+      <c r="AQ46" s="72"/>
+      <c r="AR46" s="72"/>
+      <c r="AS46" s="72"/>
+      <c r="AT46" s="72"/>
+      <c r="AU46" s="72"/>
+      <c r="AV46" s="72"/>
+      <c r="AW46" s="72"/>
+      <c r="AX46" s="72"/>
+      <c r="AY46" s="72"/>
+      <c r="AZ46" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="G44:J44"/>
     <mergeCell ref="K44:T44"/>
     <mergeCell ref="C40:F40"/>
@@ -14790,198 +15151,6 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14993,11 +15162,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI44" sqref="AI44"/>
+    <sheetView zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -15008,159 +15177,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="99" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="100" t="s">
-        <v>28</v>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="96" t="s">
+        <v>25</v>
       </c>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="99" t="s">
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="101">
-        <v>42887</v>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="104">
+        <v>45545</v>
       </c>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="101"/>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="101"/>
-      <c r="AU1" s="89" t="s">
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="93">
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="89">
         <v>1</v>
       </c>
-      <c r="AX1" s="94"/>
-      <c r="AY1" s="95"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="91"/>
     </row>
     <row r="2" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="102" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="103" t="s">
-        <v>21</v>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="98" t="s">
+        <v>20</v>
       </c>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="102" t="s">
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="104" t="s">
-        <v>29</v>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="99" t="s">
+        <v>32</v>
       </c>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="98"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="99"/>
+      <c r="AP2" s="99"/>
+      <c r="AQ2" s="99"/>
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="99"/>
+      <c r="AT2" s="99"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="94"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:52" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="23"/>
@@ -17561,15 +17730,16 @@
     <oddFooter>&amp;C&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 **** Corporation. All Rights Reserved.</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45:Y45"/>
+      <selection activeCell="X1" sqref="X1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -17580,159 +17750,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="99" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="100" t="s">
-        <v>30</v>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="96" t="s">
+        <v>26</v>
       </c>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="99" t="s">
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="101">
-        <v>42887</v>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="104">
+        <v>45537</v>
       </c>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="101"/>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="101"/>
-      <c r="AU1" s="89" t="s">
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="93">
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="89">
         <v>2</v>
       </c>
-      <c r="AX1" s="94"/>
-      <c r="AY1" s="95"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="91"/>
     </row>
     <row r="2" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="102" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="103" t="s">
-        <v>22</v>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="98" t="s">
+        <v>21</v>
       </c>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="102" t="s">
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="104" t="s">
-        <v>31</v>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="99" t="s">
+        <v>33</v>
       </c>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="98"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="99"/>
+      <c r="AP2" s="99"/>
+      <c r="AQ2" s="99"/>
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="99"/>
+      <c r="AT2" s="99"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="94"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:52" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="23"/>
@@ -20113,11 +20283,6 @@
     <row r="50" spans="1:52" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -20125,6 +20290,11 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -20133,5 +20303,6 @@
     <oddFooter>&amp;C&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 **** Corporation. All Rights Reserved.</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/02_外部設計/04_画面遷移図.xlsx
+++ b/02_外部設計/04_画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961B7076-9CFB-4868-99F2-720F14CA21C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40106AC2-F89F-4AFD-B08F-5A9BE76E2572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -406,7 +406,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1124,50 +1124,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1205,7 +1166,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1225,16 +1244,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1295,6 +1307,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1302,21 +1317,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2786,15 +2786,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:colOff>36641</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>76686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:colOff>44261</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>91926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2811,8 +2811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3535680" y="3482340"/>
-          <a:ext cx="1470660" cy="403860"/>
+          <a:off x="3579130" y="3521899"/>
+          <a:ext cx="1499195" cy="404346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5830,6 +5830,95 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>129702</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>64851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>64851</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>89170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9DD2DF-B2AF-4E3B-A93F-8F6D1ADB3563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6104106" y="956553"/>
+          <a:ext cx="2172511" cy="486383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画面遷移のうち、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>戻りの処理は記述するのか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -9508,11 +9597,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -9545,7 +9634,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
@@ -9664,25 +9753,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="40" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -9698,49 +9787,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="42" t="s">
+      <c r="AF3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43" t="s">
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="43"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="52"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -9756,26 +9845,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -10381,44 +10470,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="46"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="58"/>
+      <c r="AM16" s="58"/>
+      <c r="AN16" s="58"/>
+      <c r="AO16" s="58"/>
+      <c r="AP16" s="58"/>
+      <c r="AQ16" s="58"/>
+      <c r="AR16" s="59"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -10437,42 +10526,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="49"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="61"/>
+      <c r="AQ17" s="61"/>
+      <c r="AR17" s="62"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -10491,42 +10580,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="49"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="62"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -10545,42 +10634,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="49"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="62"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -10599,42 +10688,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="49"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="61"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="61"/>
+      <c r="AO20" s="61"/>
+      <c r="AP20" s="61"/>
+      <c r="AQ20" s="61"/>
+      <c r="AR20" s="62"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -10653,42 +10742,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="48"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="48"/>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="49"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="62"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -10707,42 +10796,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="48"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="49"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="61"/>
+      <c r="AL22" s="61"/>
+      <c r="AM22" s="61"/>
+      <c r="AN22" s="61"/>
+      <c r="AO22" s="61"/>
+      <c r="AP22" s="61"/>
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="62"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -10761,42 +10850,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="49"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="61"/>
+      <c r="AM23" s="61"/>
+      <c r="AN23" s="61"/>
+      <c r="AO23" s="61"/>
+      <c r="AP23" s="61"/>
+      <c r="AQ23" s="61"/>
+      <c r="AR23" s="62"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -10815,42 +10904,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
-      <c r="AR24" s="49"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
+      <c r="AK24" s="61"/>
+      <c r="AL24" s="61"/>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="61"/>
+      <c r="AO24" s="61"/>
+      <c r="AP24" s="61"/>
+      <c r="AQ24" s="61"/>
+      <c r="AR24" s="62"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -10869,42 +10958,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="49"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="61"/>
+      <c r="AO25" s="61"/>
+      <c r="AP25" s="61"/>
+      <c r="AQ25" s="61"/>
+      <c r="AR25" s="62"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -10923,42 +11012,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="49"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="61"/>
+      <c r="AL26" s="61"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="61"/>
+      <c r="AO26" s="61"/>
+      <c r="AP26" s="61"/>
+      <c r="AQ26" s="61"/>
+      <c r="AR26" s="62"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -10977,42 +11066,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="49"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="61"/>
+      <c r="AN27" s="61"/>
+      <c r="AO27" s="61"/>
+      <c r="AP27" s="61"/>
+      <c r="AQ27" s="61"/>
+      <c r="AR27" s="62"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -11031,42 +11120,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AR28" s="49"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="61"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="61"/>
+      <c r="AO28" s="61"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="61"/>
+      <c r="AR28" s="62"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -11085,42 +11174,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
-      <c r="AN29" s="51"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="52"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="65"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -11892,30 +11981,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="42" t="s">
+      <c r="AF45" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="42"/>
-      <c r="AH45" s="42"/>
-      <c r="AI45" s="42"/>
-      <c r="AJ45" s="42"/>
-      <c r="AK45" s="42"/>
-      <c r="AL45" s="43" t="s">
+      <c r="AG45" s="39"/>
+      <c r="AH45" s="39"/>
+      <c r="AI45" s="39"/>
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="39"/>
+      <c r="AL45" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AM45" s="43"/>
-      <c r="AN45" s="43"/>
-      <c r="AO45" s="43"/>
-      <c r="AP45" s="43"/>
-      <c r="AQ45" s="43"/>
-      <c r="AR45" s="43"/>
-      <c r="AS45" s="43"/>
-      <c r="AT45" s="43"/>
-      <c r="AU45" s="43"/>
-      <c r="AV45" s="43"/>
-      <c r="AW45" s="43"/>
-      <c r="AX45" s="43"/>
-      <c r="AY45" s="43"/>
+      <c r="AM45" s="52"/>
+      <c r="AN45" s="52"/>
+      <c r="AO45" s="52"/>
+      <c r="AP45" s="52"/>
+      <c r="AQ45" s="52"/>
+      <c r="AR45" s="52"/>
+      <c r="AS45" s="52"/>
+      <c r="AT45" s="52"/>
+      <c r="AU45" s="52"/>
+      <c r="AV45" s="52"/>
+      <c r="AW45" s="52"/>
+      <c r="AX45" s="52"/>
+      <c r="AY45" s="52"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -11950,26 +12039,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="42"/>
-      <c r="AH46" s="42"/>
-      <c r="AI46" s="42"/>
-      <c r="AJ46" s="42"/>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="43"/>
-      <c r="AM46" s="43"/>
-      <c r="AN46" s="43"/>
-      <c r="AO46" s="43"/>
-      <c r="AP46" s="43"/>
-      <c r="AQ46" s="43"/>
-      <c r="AR46" s="43"/>
-      <c r="AS46" s="43"/>
-      <c r="AT46" s="43"/>
-      <c r="AU46" s="43"/>
-      <c r="AV46" s="43"/>
-      <c r="AW46" s="43"/>
-      <c r="AX46" s="43"/>
-      <c r="AY46" s="43"/>
+      <c r="AF46" s="39"/>
+      <c r="AG46" s="39"/>
+      <c r="AH46" s="39"/>
+      <c r="AI46" s="39"/>
+      <c r="AJ46" s="39"/>
+      <c r="AK46" s="39"/>
+      <c r="AL46" s="52"/>
+      <c r="AM46" s="52"/>
+      <c r="AN46" s="52"/>
+      <c r="AO46" s="52"/>
+      <c r="AP46" s="52"/>
+      <c r="AQ46" s="52"/>
+      <c r="AR46" s="52"/>
+      <c r="AS46" s="52"/>
+      <c r="AT46" s="52"/>
+      <c r="AU46" s="52"/>
+      <c r="AV46" s="52"/>
+      <c r="AW46" s="52"/>
+      <c r="AX46" s="52"/>
+      <c r="AY46" s="52"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -12004,30 +12093,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="42" t="s">
+      <c r="AF47" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="100">
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="38">
         <v>45545</v>
       </c>
-      <c r="AM47" s="100"/>
-      <c r="AN47" s="100"/>
-      <c r="AO47" s="100"/>
-      <c r="AP47" s="100"/>
-      <c r="AQ47" s="100"/>
-      <c r="AR47" s="100"/>
-      <c r="AS47" s="100"/>
-      <c r="AT47" s="100"/>
-      <c r="AU47" s="100"/>
-      <c r="AV47" s="100"/>
-      <c r="AW47" s="100"/>
-      <c r="AX47" s="100"/>
-      <c r="AY47" s="100"/>
+      <c r="AM47" s="38"/>
+      <c r="AN47" s="38"/>
+      <c r="AO47" s="38"/>
+      <c r="AP47" s="38"/>
+      <c r="AQ47" s="38"/>
+      <c r="AR47" s="38"/>
+      <c r="AS47" s="38"/>
+      <c r="AT47" s="38"/>
+      <c r="AU47" s="38"/>
+      <c r="AV47" s="38"/>
+      <c r="AW47" s="38"/>
+      <c r="AX47" s="38"/>
+      <c r="AY47" s="38"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -12062,26 +12151,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="42"/>
-      <c r="AI48" s="42"/>
-      <c r="AJ48" s="42"/>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="100"/>
-      <c r="AM48" s="100"/>
-      <c r="AN48" s="100"/>
-      <c r="AO48" s="100"/>
-      <c r="AP48" s="100"/>
-      <c r="AQ48" s="100"/>
-      <c r="AR48" s="100"/>
-      <c r="AS48" s="100"/>
-      <c r="AT48" s="100"/>
-      <c r="AU48" s="100"/>
-      <c r="AV48" s="100"/>
-      <c r="AW48" s="100"/>
-      <c r="AX48" s="100"/>
-      <c r="AY48" s="100"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="39"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="39"/>
+      <c r="AL48" s="38"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="38"/>
+      <c r="AO48" s="38"/>
+      <c r="AP48" s="38"/>
+      <c r="AQ48" s="38"/>
+      <c r="AR48" s="38"/>
+      <c r="AS48" s="38"/>
+      <c r="AT48" s="38"/>
+      <c r="AU48" s="38"/>
+      <c r="AV48" s="38"/>
+      <c r="AW48" s="38"/>
+      <c r="AX48" s="38"/>
+      <c r="AY48" s="38"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -12116,30 +12205,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="53" t="s">
+      <c r="AF49" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="54"/>
-      <c r="AH49" s="54"/>
-      <c r="AI49" s="54"/>
-      <c r="AJ49" s="54"/>
-      <c r="AK49" s="55"/>
-      <c r="AL49" s="59" t="s">
+      <c r="AG49" s="41"/>
+      <c r="AH49" s="41"/>
+      <c r="AI49" s="41"/>
+      <c r="AJ49" s="41"/>
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="AM49" s="60"/>
-      <c r="AN49" s="60"/>
-      <c r="AO49" s="60"/>
-      <c r="AP49" s="60"/>
-      <c r="AQ49" s="60"/>
-      <c r="AR49" s="60"/>
-      <c r="AS49" s="60"/>
-      <c r="AT49" s="60"/>
-      <c r="AU49" s="60"/>
-      <c r="AV49" s="60"/>
-      <c r="AW49" s="60"/>
-      <c r="AX49" s="60"/>
-      <c r="AY49" s="61"/>
+      <c r="AM49" s="47"/>
+      <c r="AN49" s="47"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="47"/>
+      <c r="AQ49" s="47"/>
+      <c r="AR49" s="47"/>
+      <c r="AS49" s="47"/>
+      <c r="AT49" s="47"/>
+      <c r="AU49" s="47"/>
+      <c r="AV49" s="47"/>
+      <c r="AW49" s="47"/>
+      <c r="AX49" s="47"/>
+      <c r="AY49" s="48"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -12174,26 +12263,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="56"/>
-      <c r="AG50" s="57"/>
-      <c r="AH50" s="57"/>
-      <c r="AI50" s="57"/>
-      <c r="AJ50" s="57"/>
-      <c r="AK50" s="58"/>
-      <c r="AL50" s="62"/>
-      <c r="AM50" s="63"/>
-      <c r="AN50" s="63"/>
-      <c r="AO50" s="63"/>
-      <c r="AP50" s="63"/>
-      <c r="AQ50" s="63"/>
-      <c r="AR50" s="63"/>
-      <c r="AS50" s="63"/>
-      <c r="AT50" s="63"/>
-      <c r="AU50" s="63"/>
-      <c r="AV50" s="63"/>
-      <c r="AW50" s="63"/>
-      <c r="AX50" s="63"/>
-      <c r="AY50" s="64"/>
+      <c r="AF50" s="43"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="44"/>
+      <c r="AJ50" s="44"/>
+      <c r="AK50" s="45"/>
+      <c r="AL50" s="49"/>
+      <c r="AM50" s="50"/>
+      <c r="AN50" s="50"/>
+      <c r="AO50" s="50"/>
+      <c r="AP50" s="50"/>
+      <c r="AQ50" s="50"/>
+      <c r="AR50" s="50"/>
+      <c r="AS50" s="50"/>
+      <c r="AT50" s="50"/>
+      <c r="AU50" s="50"/>
+      <c r="AV50" s="50"/>
+      <c r="AW50" s="50"/>
+      <c r="AX50" s="50"/>
+      <c r="AY50" s="51"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -12306,17 +12395,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12349,2760 +12438,2616 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="75"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="71"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="78"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="73" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="73" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="73" t="s">
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="73" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="75"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="70"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="76">
+      <c r="A5" s="71">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="101">
+      <c r="B5" s="71"/>
+      <c r="C5" s="72">
         <v>45537</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="76" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76" t="s">
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="76"/>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="76"/>
-      <c r="AJ5" s="76"/>
-      <c r="AK5" s="76"/>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="76"/>
-      <c r="AN5" s="76"/>
-      <c r="AO5" s="76"/>
-      <c r="AP5" s="76"/>
-      <c r="AQ5" s="76"/>
-      <c r="AR5" s="76"/>
-      <c r="AS5" s="76"/>
-      <c r="AT5" s="76"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="71"/>
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="71"/>
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="71"/>
+      <c r="AP5" s="71"/>
+      <c r="AQ5" s="71"/>
+      <c r="AR5" s="71"/>
+      <c r="AS5" s="71"/>
+      <c r="AT5" s="71"/>
+      <c r="AU5" s="71"/>
+      <c r="AV5" s="71"/>
+      <c r="AW5" s="71"/>
+      <c r="AX5" s="71"/>
+      <c r="AY5" s="71"/>
+      <c r="AZ5" s="71"/>
     </row>
     <row r="6" spans="1:52" ht="12">
-      <c r="A6" s="65">
+      <c r="A6" s="66">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="102">
+      <c r="B6" s="66"/>
+      <c r="C6" s="67">
         <v>45545</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="65" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65" t="s">
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65" t="s">
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="65"/>
-      <c r="AJ6" s="65"/>
-      <c r="AK6" s="65"/>
-      <c r="AL6" s="65"/>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="65"/>
-      <c r="AO6" s="65"/>
-      <c r="AP6" s="65"/>
-      <c r="AQ6" s="65"/>
-      <c r="AR6" s="65"/>
-      <c r="AS6" s="65"/>
-      <c r="AT6" s="65"/>
-      <c r="AU6" s="65"/>
-      <c r="AV6" s="65"/>
-      <c r="AW6" s="65"/>
-      <c r="AX6" s="65"/>
-      <c r="AY6" s="65"/>
-      <c r="AZ6" s="65"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="66"/>
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="66"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="66"/>
+      <c r="AW6" s="66"/>
+      <c r="AX6" s="66"/>
+      <c r="AY6" s="66"/>
+      <c r="AZ6" s="66"/>
     </row>
     <row r="7" spans="1:52" ht="12">
-      <c r="A7" s="65">
+      <c r="A7" s="66">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="65"/>
-      <c r="AR7" s="65"/>
-      <c r="AS7" s="65"/>
-      <c r="AT7" s="65"/>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="66"/>
+      <c r="AO7" s="66"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="66"/>
+      <c r="AW7" s="66"/>
+      <c r="AX7" s="66"/>
+      <c r="AY7" s="66"/>
+      <c r="AZ7" s="66"/>
     </row>
     <row r="8" spans="1:52" ht="12">
-      <c r="A8" s="65">
+      <c r="A8" s="66">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="65"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="65"/>
-      <c r="AT8" s="65"/>
-      <c r="AU8" s="65"/>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="65"/>
-      <c r="AX8" s="65"/>
-      <c r="AY8" s="65"/>
-      <c r="AZ8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="66"/>
+      <c r="AW8" s="66"/>
+      <c r="AX8" s="66"/>
+      <c r="AY8" s="66"/>
+      <c r="AZ8" s="66"/>
     </row>
     <row r="9" spans="1:52" ht="12">
-      <c r="A9" s="65">
+      <c r="A9" s="66">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="65"/>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="65"/>
-      <c r="AZ9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="66"/>
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="66"/>
+      <c r="AY9" s="66"/>
+      <c r="AZ9" s="66"/>
     </row>
     <row r="10" spans="1:52" ht="12">
-      <c r="A10" s="65">
+      <c r="A10" s="66">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="66"/>
+      <c r="AW10" s="66"/>
+      <c r="AX10" s="66"/>
+      <c r="AY10" s="66"/>
+      <c r="AZ10" s="66"/>
     </row>
     <row r="11" spans="1:52" ht="12">
-      <c r="A11" s="65">
+      <c r="A11" s="66">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="65"/>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="65"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="65"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="65"/>
-      <c r="AV11" s="65"/>
-      <c r="AW11" s="65"/>
-      <c r="AX11" s="65"/>
-      <c r="AY11" s="65"/>
-      <c r="AZ11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="66"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="66"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="66"/>
+      <c r="AV11" s="66"/>
+      <c r="AW11" s="66"/>
+      <c r="AX11" s="66"/>
+      <c r="AY11" s="66"/>
+      <c r="AZ11" s="66"/>
     </row>
     <row r="12" spans="1:52" ht="12">
-      <c r="A12" s="65">
+      <c r="A12" s="66">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="65"/>
-      <c r="AY12" s="65"/>
-      <c r="AZ12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="66"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="66"/>
+      <c r="AY12" s="66"/>
+      <c r="AZ12" s="66"/>
     </row>
     <row r="13" spans="1:52" ht="12">
-      <c r="A13" s="65">
+      <c r="A13" s="66">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="65"/>
-      <c r="AZ13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="66"/>
+      <c r="AV13" s="66"/>
+      <c r="AW13" s="66"/>
+      <c r="AX13" s="66"/>
+      <c r="AY13" s="66"/>
+      <c r="AZ13" s="66"/>
     </row>
     <row r="14" spans="1:52" ht="12">
-      <c r="A14" s="65">
+      <c r="A14" s="66">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="65"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="65"/>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="65"/>
-      <c r="AX14" s="65"/>
-      <c r="AY14" s="65"/>
-      <c r="AZ14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="66"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="66"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="66"/>
+      <c r="AV14" s="66"/>
+      <c r="AW14" s="66"/>
+      <c r="AX14" s="66"/>
+      <c r="AY14" s="66"/>
+      <c r="AZ14" s="66"/>
     </row>
     <row r="15" spans="1:52" ht="12">
-      <c r="A15" s="65">
+      <c r="A15" s="66">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="66"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="66"/>
+      <c r="AW15" s="66"/>
+      <c r="AX15" s="66"/>
+      <c r="AY15" s="66"/>
+      <c r="AZ15" s="66"/>
     </row>
     <row r="16" spans="1:52" ht="12">
-      <c r="A16" s="65">
+      <c r="A16" s="66">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="65"/>
-      <c r="AZ16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="66"/>
+      <c r="AO16" s="66"/>
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="66"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="66"/>
+      <c r="AV16" s="66"/>
+      <c r="AW16" s="66"/>
+      <c r="AX16" s="66"/>
+      <c r="AY16" s="66"/>
+      <c r="AZ16" s="66"/>
     </row>
     <row r="17" spans="1:52" ht="12">
-      <c r="A17" s="65">
+      <c r="A17" s="66">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="66"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="66"/>
+      <c r="AV17" s="66"/>
+      <c r="AW17" s="66"/>
+      <c r="AX17" s="66"/>
+      <c r="AY17" s="66"/>
+      <c r="AZ17" s="66"/>
     </row>
     <row r="18" spans="1:52" ht="12">
-      <c r="A18" s="65">
+      <c r="A18" s="66">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
+      <c r="AM18" s="66"/>
+      <c r="AN18" s="66"/>
+      <c r="AO18" s="66"/>
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="66"/>
+      <c r="AR18" s="66"/>
+      <c r="AS18" s="66"/>
+      <c r="AT18" s="66"/>
+      <c r="AU18" s="66"/>
+      <c r="AV18" s="66"/>
+      <c r="AW18" s="66"/>
+      <c r="AX18" s="66"/>
+      <c r="AY18" s="66"/>
+      <c r="AZ18" s="66"/>
     </row>
     <row r="19" spans="1:52" ht="12">
-      <c r="A19" s="65">
+      <c r="A19" s="66">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="66"/>
+      <c r="AZ19" s="66"/>
     </row>
     <row r="20" spans="1:52" ht="12">
-      <c r="A20" s="65">
+      <c r="A20" s="66">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="65"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="66"/>
+      <c r="AV20" s="66"/>
+      <c r="AW20" s="66"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="66"/>
+      <c r="AZ20" s="66"/>
     </row>
     <row r="21" spans="1:52" ht="12">
-      <c r="A21" s="65">
+      <c r="A21" s="66">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="65"/>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="65"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="65"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
-      <c r="AZ21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="66"/>
     </row>
     <row r="22" spans="1:52" ht="12">
-      <c r="A22" s="65">
+      <c r="A22" s="66">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="65"/>
-      <c r="AI22" s="65"/>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="65"/>
-      <c r="AL22" s="65"/>
-      <c r="AM22" s="65"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="65"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="65"/>
-      <c r="AT22" s="65"/>
-      <c r="AU22" s="65"/>
-      <c r="AV22" s="65"/>
-      <c r="AW22" s="65"/>
-      <c r="AX22" s="65"/>
-      <c r="AY22" s="65"/>
-      <c r="AZ22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="66"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="66"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="66"/>
+      <c r="AV22" s="66"/>
+      <c r="AW22" s="66"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="66"/>
+      <c r="AZ22" s="66"/>
     </row>
     <row r="23" spans="1:52" ht="12">
-      <c r="A23" s="65">
+      <c r="A23" s="66">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="65"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="65"/>
-      <c r="AT23" s="65"/>
-      <c r="AU23" s="65"/>
-      <c r="AV23" s="65"/>
-      <c r="AW23" s="65"/>
-      <c r="AX23" s="65"/>
-      <c r="AY23" s="65"/>
-      <c r="AZ23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="66"/>
+      <c r="AN23" s="66"/>
+      <c r="AO23" s="66"/>
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="66"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="66"/>
+      <c r="AT23" s="66"/>
+      <c r="AU23" s="66"/>
+      <c r="AV23" s="66"/>
+      <c r="AW23" s="66"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="66"/>
+      <c r="AZ23" s="66"/>
     </row>
     <row r="24" spans="1:52" ht="12">
-      <c r="A24" s="65">
+      <c r="A24" s="66">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="65"/>
-      <c r="AH24" s="65"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="65"/>
-      <c r="AM24" s="65"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="65"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="65"/>
-      <c r="AV24" s="65"/>
-      <c r="AW24" s="65"/>
-      <c r="AX24" s="65"/>
-      <c r="AY24" s="65"/>
-      <c r="AZ24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="66"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="66"/>
+      <c r="AT24" s="66"/>
+      <c r="AU24" s="66"/>
+      <c r="AV24" s="66"/>
+      <c r="AW24" s="66"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="66"/>
+      <c r="AZ24" s="66"/>
     </row>
     <row r="25" spans="1:52" ht="12">
-      <c r="A25" s="65">
+      <c r="A25" s="66">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="65"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="65"/>
-      <c r="AM25" s="65"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-      <c r="AP25" s="65"/>
-      <c r="AQ25" s="65"/>
-      <c r="AR25" s="65"/>
-      <c r="AS25" s="65"/>
-      <c r="AT25" s="65"/>
-      <c r="AU25" s="65"/>
-      <c r="AV25" s="65"/>
-      <c r="AW25" s="65"/>
-      <c r="AX25" s="65"/>
-      <c r="AY25" s="65"/>
-      <c r="AZ25" s="65"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="66"/>
+      <c r="AM25" s="66"/>
+      <c r="AN25" s="66"/>
+      <c r="AO25" s="66"/>
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="66"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="66"/>
+      <c r="AT25" s="66"/>
+      <c r="AU25" s="66"/>
+      <c r="AV25" s="66"/>
+      <c r="AW25" s="66"/>
+      <c r="AX25" s="66"/>
+      <c r="AY25" s="66"/>
+      <c r="AZ25" s="66"/>
     </row>
     <row r="26" spans="1:52" ht="12">
-      <c r="A26" s="65">
+      <c r="A26" s="66">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="65"/>
-      <c r="AG26" s="65"/>
-      <c r="AH26" s="65"/>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="65"/>
-      <c r="AK26" s="65"/>
-      <c r="AL26" s="65"/>
-      <c r="AM26" s="65"/>
-      <c r="AN26" s="65"/>
-      <c r="AO26" s="65"/>
-      <c r="AP26" s="65"/>
-      <c r="AQ26" s="65"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="65"/>
-      <c r="AT26" s="65"/>
-      <c r="AU26" s="65"/>
-      <c r="AV26" s="65"/>
-      <c r="AW26" s="65"/>
-      <c r="AX26" s="65"/>
-      <c r="AY26" s="65"/>
-      <c r="AZ26" s="65"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
+      <c r="AM26" s="66"/>
+      <c r="AN26" s="66"/>
+      <c r="AO26" s="66"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66"/>
+      <c r="AR26" s="66"/>
+      <c r="AS26" s="66"/>
+      <c r="AT26" s="66"/>
+      <c r="AU26" s="66"/>
+      <c r="AV26" s="66"/>
+      <c r="AW26" s="66"/>
+      <c r="AX26" s="66"/>
+      <c r="AY26" s="66"/>
+      <c r="AZ26" s="66"/>
     </row>
     <row r="27" spans="1:52" ht="12">
-      <c r="A27" s="65">
+      <c r="A27" s="66">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
-      <c r="AK27" s="65"/>
-      <c r="AL27" s="65"/>
-      <c r="AM27" s="65"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="65"/>
-      <c r="AR27" s="65"/>
-      <c r="AS27" s="65"/>
-      <c r="AT27" s="65"/>
-      <c r="AU27" s="65"/>
-      <c r="AV27" s="65"/>
-      <c r="AW27" s="65"/>
-      <c r="AX27" s="65"/>
-      <c r="AY27" s="65"/>
-      <c r="AZ27" s="65"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="66"/>
+      <c r="AM27" s="66"/>
+      <c r="AN27" s="66"/>
+      <c r="AO27" s="66"/>
+      <c r="AP27" s="66"/>
+      <c r="AQ27" s="66"/>
+      <c r="AR27" s="66"/>
+      <c r="AS27" s="66"/>
+      <c r="AT27" s="66"/>
+      <c r="AU27" s="66"/>
+      <c r="AV27" s="66"/>
+      <c r="AW27" s="66"/>
+      <c r="AX27" s="66"/>
+      <c r="AY27" s="66"/>
+      <c r="AZ27" s="66"/>
     </row>
     <row r="28" spans="1:52" ht="12">
-      <c r="A28" s="65">
+      <c r="A28" s="66">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="65"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="65"/>
-      <c r="AK28" s="65"/>
-      <c r="AL28" s="65"/>
-      <c r="AM28" s="65"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="65"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="65"/>
-      <c r="AT28" s="65"/>
-      <c r="AU28" s="65"/>
-      <c r="AV28" s="65"/>
-      <c r="AW28" s="65"/>
-      <c r="AX28" s="65"/>
-      <c r="AY28" s="65"/>
-      <c r="AZ28" s="65"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="66"/>
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="66"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="66"/>
+      <c r="AT28" s="66"/>
+      <c r="AU28" s="66"/>
+      <c r="AV28" s="66"/>
+      <c r="AW28" s="66"/>
+      <c r="AX28" s="66"/>
+      <c r="AY28" s="66"/>
+      <c r="AZ28" s="66"/>
     </row>
     <row r="29" spans="1:52" ht="12">
-      <c r="A29" s="65">
+      <c r="A29" s="66">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="65"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="65"/>
-      <c r="AF29" s="65"/>
-      <c r="AG29" s="65"/>
-      <c r="AH29" s="65"/>
-      <c r="AI29" s="65"/>
-      <c r="AJ29" s="65"/>
-      <c r="AK29" s="65"/>
-      <c r="AL29" s="65"/>
-      <c r="AM29" s="65"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="65"/>
-      <c r="AP29" s="65"/>
-      <c r="AQ29" s="65"/>
-      <c r="AR29" s="65"/>
-      <c r="AS29" s="65"/>
-      <c r="AT29" s="65"/>
-      <c r="AU29" s="65"/>
-      <c r="AV29" s="65"/>
-      <c r="AW29" s="65"/>
-      <c r="AX29" s="65"/>
-      <c r="AY29" s="65"/>
-      <c r="AZ29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="66"/>
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="66"/>
+      <c r="AM29" s="66"/>
+      <c r="AN29" s="66"/>
+      <c r="AO29" s="66"/>
+      <c r="AP29" s="66"/>
+      <c r="AQ29" s="66"/>
+      <c r="AR29" s="66"/>
+      <c r="AS29" s="66"/>
+      <c r="AT29" s="66"/>
+      <c r="AU29" s="66"/>
+      <c r="AV29" s="66"/>
+      <c r="AW29" s="66"/>
+      <c r="AX29" s="66"/>
+      <c r="AY29" s="66"/>
+      <c r="AZ29" s="66"/>
     </row>
     <row r="30" spans="1:52" ht="12">
-      <c r="A30" s="65">
+      <c r="A30" s="66">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="65"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="65"/>
-      <c r="AE30" s="65"/>
-      <c r="AF30" s="65"/>
-      <c r="AG30" s="65"/>
-      <c r="AH30" s="65"/>
-      <c r="AI30" s="65"/>
-      <c r="AJ30" s="65"/>
-      <c r="AK30" s="65"/>
-      <c r="AL30" s="65"/>
-      <c r="AM30" s="65"/>
-      <c r="AN30" s="65"/>
-      <c r="AO30" s="65"/>
-      <c r="AP30" s="65"/>
-      <c r="AQ30" s="65"/>
-      <c r="AR30" s="65"/>
-      <c r="AS30" s="65"/>
-      <c r="AT30" s="65"/>
-      <c r="AU30" s="65"/>
-      <c r="AV30" s="65"/>
-      <c r="AW30" s="65"/>
-      <c r="AX30" s="65"/>
-      <c r="AY30" s="65"/>
-      <c r="AZ30" s="65"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="66"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="66"/>
+      <c r="AL30" s="66"/>
+      <c r="AM30" s="66"/>
+      <c r="AN30" s="66"/>
+      <c r="AO30" s="66"/>
+      <c r="AP30" s="66"/>
+      <c r="AQ30" s="66"/>
+      <c r="AR30" s="66"/>
+      <c r="AS30" s="66"/>
+      <c r="AT30" s="66"/>
+      <c r="AU30" s="66"/>
+      <c r="AV30" s="66"/>
+      <c r="AW30" s="66"/>
+      <c r="AX30" s="66"/>
+      <c r="AY30" s="66"/>
+      <c r="AZ30" s="66"/>
     </row>
     <row r="31" spans="1:52" ht="12">
-      <c r="A31" s="65">
+      <c r="A31" s="66">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="65"/>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="65"/>
-      <c r="AG31" s="65"/>
-      <c r="AH31" s="65"/>
-      <c r="AI31" s="65"/>
-      <c r="AJ31" s="65"/>
-      <c r="AK31" s="65"/>
-      <c r="AL31" s="65"/>
-      <c r="AM31" s="65"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="65"/>
-      <c r="AQ31" s="65"/>
-      <c r="AR31" s="65"/>
-      <c r="AS31" s="65"/>
-      <c r="AT31" s="65"/>
-      <c r="AU31" s="65"/>
-      <c r="AV31" s="65"/>
-      <c r="AW31" s="65"/>
-      <c r="AX31" s="65"/>
-      <c r="AY31" s="65"/>
-      <c r="AZ31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="66"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="66"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+      <c r="AR31" s="66"/>
+      <c r="AS31" s="66"/>
+      <c r="AT31" s="66"/>
+      <c r="AU31" s="66"/>
+      <c r="AV31" s="66"/>
+      <c r="AW31" s="66"/>
+      <c r="AX31" s="66"/>
+      <c r="AY31" s="66"/>
+      <c r="AZ31" s="66"/>
     </row>
     <row r="32" spans="1:52" ht="12">
-      <c r="A32" s="65">
+      <c r="A32" s="66">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="65"/>
-      <c r="AA32" s="65"/>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="65"/>
-      <c r="AD32" s="65"/>
-      <c r="AE32" s="65"/>
-      <c r="AF32" s="65"/>
-      <c r="AG32" s="65"/>
-      <c r="AH32" s="65"/>
-      <c r="AI32" s="65"/>
-      <c r="AJ32" s="65"/>
-      <c r="AK32" s="65"/>
-      <c r="AL32" s="65"/>
-      <c r="AM32" s="65"/>
-      <c r="AN32" s="65"/>
-      <c r="AO32" s="65"/>
-      <c r="AP32" s="65"/>
-      <c r="AQ32" s="65"/>
-      <c r="AR32" s="65"/>
-      <c r="AS32" s="65"/>
-      <c r="AT32" s="65"/>
-      <c r="AU32" s="65"/>
-      <c r="AV32" s="65"/>
-      <c r="AW32" s="65"/>
-      <c r="AX32" s="65"/>
-      <c r="AY32" s="65"/>
-      <c r="AZ32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="66"/>
+      <c r="AM32" s="66"/>
+      <c r="AN32" s="66"/>
+      <c r="AO32" s="66"/>
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="66"/>
+      <c r="AR32" s="66"/>
+      <c r="AS32" s="66"/>
+      <c r="AT32" s="66"/>
+      <c r="AU32" s="66"/>
+      <c r="AV32" s="66"/>
+      <c r="AW32" s="66"/>
+      <c r="AX32" s="66"/>
+      <c r="AY32" s="66"/>
+      <c r="AZ32" s="66"/>
     </row>
     <row r="33" spans="1:52" ht="12">
-      <c r="A33" s="65">
+      <c r="A33" s="66">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="65"/>
-      <c r="AA33" s="65"/>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="65"/>
-      <c r="AE33" s="65"/>
-      <c r="AF33" s="65"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="65"/>
-      <c r="AJ33" s="65"/>
-      <c r="AK33" s="65"/>
-      <c r="AL33" s="65"/>
-      <c r="AM33" s="65"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="65"/>
-      <c r="AQ33" s="65"/>
-      <c r="AR33" s="65"/>
-      <c r="AS33" s="65"/>
-      <c r="AT33" s="65"/>
-      <c r="AU33" s="65"/>
-      <c r="AV33" s="65"/>
-      <c r="AW33" s="65"/>
-      <c r="AX33" s="65"/>
-      <c r="AY33" s="65"/>
-      <c r="AZ33" s="65"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="66"/>
+      <c r="AM33" s="66"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="66"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="66"/>
+      <c r="AR33" s="66"/>
+      <c r="AS33" s="66"/>
+      <c r="AT33" s="66"/>
+      <c r="AU33" s="66"/>
+      <c r="AV33" s="66"/>
+      <c r="AW33" s="66"/>
+      <c r="AX33" s="66"/>
+      <c r="AY33" s="66"/>
+      <c r="AZ33" s="66"/>
     </row>
     <row r="34" spans="1:52" ht="12">
-      <c r="A34" s="65">
+      <c r="A34" s="66">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="65"/>
-      <c r="AF34" s="65"/>
-      <c r="AG34" s="65"/>
-      <c r="AH34" s="65"/>
-      <c r="AI34" s="65"/>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="65"/>
-      <c r="AL34" s="65"/>
-      <c r="AM34" s="65"/>
-      <c r="AN34" s="65"/>
-      <c r="AO34" s="65"/>
-      <c r="AP34" s="65"/>
-      <c r="AQ34" s="65"/>
-      <c r="AR34" s="65"/>
-      <c r="AS34" s="65"/>
-      <c r="AT34" s="65"/>
-      <c r="AU34" s="65"/>
-      <c r="AV34" s="65"/>
-      <c r="AW34" s="65"/>
-      <c r="AX34" s="65"/>
-      <c r="AY34" s="65"/>
-      <c r="AZ34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
+      <c r="AL34" s="66"/>
+      <c r="AM34" s="66"/>
+      <c r="AN34" s="66"/>
+      <c r="AO34" s="66"/>
+      <c r="AP34" s="66"/>
+      <c r="AQ34" s="66"/>
+      <c r="AR34" s="66"/>
+      <c r="AS34" s="66"/>
+      <c r="AT34" s="66"/>
+      <c r="AU34" s="66"/>
+      <c r="AV34" s="66"/>
+      <c r="AW34" s="66"/>
+      <c r="AX34" s="66"/>
+      <c r="AY34" s="66"/>
+      <c r="AZ34" s="66"/>
     </row>
     <row r="35" spans="1:52" ht="12">
-      <c r="A35" s="65">
+      <c r="A35" s="66">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="65"/>
-      <c r="AE35" s="65"/>
-      <c r="AF35" s="65"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="65"/>
-      <c r="AI35" s="65"/>
-      <c r="AJ35" s="65"/>
-      <c r="AK35" s="65"/>
-      <c r="AL35" s="65"/>
-      <c r="AM35" s="65"/>
-      <c r="AN35" s="65"/>
-      <c r="AO35" s="65"/>
-      <c r="AP35" s="65"/>
-      <c r="AQ35" s="65"/>
-      <c r="AR35" s="65"/>
-      <c r="AS35" s="65"/>
-      <c r="AT35" s="65"/>
-      <c r="AU35" s="65"/>
-      <c r="AV35" s="65"/>
-      <c r="AW35" s="65"/>
-      <c r="AX35" s="65"/>
-      <c r="AY35" s="65"/>
-      <c r="AZ35" s="65"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="66"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="66"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
+      <c r="AJ35" s="66"/>
+      <c r="AK35" s="66"/>
+      <c r="AL35" s="66"/>
+      <c r="AM35" s="66"/>
+      <c r="AN35" s="66"/>
+      <c r="AO35" s="66"/>
+      <c r="AP35" s="66"/>
+      <c r="AQ35" s="66"/>
+      <c r="AR35" s="66"/>
+      <c r="AS35" s="66"/>
+      <c r="AT35" s="66"/>
+      <c r="AU35" s="66"/>
+      <c r="AV35" s="66"/>
+      <c r="AW35" s="66"/>
+      <c r="AX35" s="66"/>
+      <c r="AY35" s="66"/>
+      <c r="AZ35" s="66"/>
     </row>
     <row r="36" spans="1:52" ht="12">
-      <c r="A36" s="65">
+      <c r="A36" s="66">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="65"/>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="65"/>
-      <c r="AD36" s="65"/>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="65"/>
-      <c r="AG36" s="65"/>
-      <c r="AH36" s="65"/>
-      <c r="AI36" s="65"/>
-      <c r="AJ36" s="65"/>
-      <c r="AK36" s="65"/>
-      <c r="AL36" s="65"/>
-      <c r="AM36" s="65"/>
-      <c r="AN36" s="65"/>
-      <c r="AO36" s="65"/>
-      <c r="AP36" s="65"/>
-      <c r="AQ36" s="65"/>
-      <c r="AR36" s="65"/>
-      <c r="AS36" s="65"/>
-      <c r="AT36" s="65"/>
-      <c r="AU36" s="65"/>
-      <c r="AV36" s="65"/>
-      <c r="AW36" s="65"/>
-      <c r="AX36" s="65"/>
-      <c r="AY36" s="65"/>
-      <c r="AZ36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="66"/>
+      <c r="AL36" s="66"/>
+      <c r="AM36" s="66"/>
+      <c r="AN36" s="66"/>
+      <c r="AO36" s="66"/>
+      <c r="AP36" s="66"/>
+      <c r="AQ36" s="66"/>
+      <c r="AR36" s="66"/>
+      <c r="AS36" s="66"/>
+      <c r="AT36" s="66"/>
+      <c r="AU36" s="66"/>
+      <c r="AV36" s="66"/>
+      <c r="AW36" s="66"/>
+      <c r="AX36" s="66"/>
+      <c r="AY36" s="66"/>
+      <c r="AZ36" s="66"/>
     </row>
     <row r="37" spans="1:52" ht="12">
-      <c r="A37" s="65">
+      <c r="A37" s="66">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="65"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="65"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="65"/>
-      <c r="AA37" s="65"/>
-      <c r="AB37" s="65"/>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="65"/>
-      <c r="AE37" s="65"/>
-      <c r="AF37" s="65"/>
-      <c r="AG37" s="65"/>
-      <c r="AH37" s="65"/>
-      <c r="AI37" s="65"/>
-      <c r="AJ37" s="65"/>
-      <c r="AK37" s="65"/>
-      <c r="AL37" s="65"/>
-      <c r="AM37" s="65"/>
-      <c r="AN37" s="65"/>
-      <c r="AO37" s="65"/>
-      <c r="AP37" s="65"/>
-      <c r="AQ37" s="65"/>
-      <c r="AR37" s="65"/>
-      <c r="AS37" s="65"/>
-      <c r="AT37" s="65"/>
-      <c r="AU37" s="65"/>
-      <c r="AV37" s="65"/>
-      <c r="AW37" s="65"/>
-      <c r="AX37" s="65"/>
-      <c r="AY37" s="65"/>
-      <c r="AZ37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="66"/>
+      <c r="AC37" s="66"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="66"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
+      <c r="AJ37" s="66"/>
+      <c r="AK37" s="66"/>
+      <c r="AL37" s="66"/>
+      <c r="AM37" s="66"/>
+      <c r="AN37" s="66"/>
+      <c r="AO37" s="66"/>
+      <c r="AP37" s="66"/>
+      <c r="AQ37" s="66"/>
+      <c r="AR37" s="66"/>
+      <c r="AS37" s="66"/>
+      <c r="AT37" s="66"/>
+      <c r="AU37" s="66"/>
+      <c r="AV37" s="66"/>
+      <c r="AW37" s="66"/>
+      <c r="AX37" s="66"/>
+      <c r="AY37" s="66"/>
+      <c r="AZ37" s="66"/>
     </row>
     <row r="38" spans="1:52" ht="12">
-      <c r="A38" s="65">
+      <c r="A38" s="66">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
-      <c r="AD38" s="65"/>
-      <c r="AE38" s="65"/>
-      <c r="AF38" s="65"/>
-      <c r="AG38" s="65"/>
-      <c r="AH38" s="65"/>
-      <c r="AI38" s="65"/>
-      <c r="AJ38" s="65"/>
-      <c r="AK38" s="65"/>
-      <c r="AL38" s="65"/>
-      <c r="AM38" s="65"/>
-      <c r="AN38" s="65"/>
-      <c r="AO38" s="65"/>
-      <c r="AP38" s="65"/>
-      <c r="AQ38" s="65"/>
-      <c r="AR38" s="65"/>
-      <c r="AS38" s="65"/>
-      <c r="AT38" s="65"/>
-      <c r="AU38" s="65"/>
-      <c r="AV38" s="65"/>
-      <c r="AW38" s="65"/>
-      <c r="AX38" s="65"/>
-      <c r="AY38" s="65"/>
-      <c r="AZ38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="66"/>
+      <c r="AL38" s="66"/>
+      <c r="AM38" s="66"/>
+      <c r="AN38" s="66"/>
+      <c r="AO38" s="66"/>
+      <c r="AP38" s="66"/>
+      <c r="AQ38" s="66"/>
+      <c r="AR38" s="66"/>
+      <c r="AS38" s="66"/>
+      <c r="AT38" s="66"/>
+      <c r="AU38" s="66"/>
+      <c r="AV38" s="66"/>
+      <c r="AW38" s="66"/>
+      <c r="AX38" s="66"/>
+      <c r="AY38" s="66"/>
+      <c r="AZ38" s="66"/>
     </row>
     <row r="39" spans="1:52" ht="12">
-      <c r="A39" s="65">
+      <c r="A39" s="66">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
-      <c r="S39" s="65"/>
-      <c r="T39" s="65"/>
-      <c r="U39" s="65"/>
-      <c r="V39" s="65"/>
-      <c r="W39" s="65"/>
-      <c r="X39" s="65"/>
-      <c r="Y39" s="65"/>
-      <c r="Z39" s="65"/>
-      <c r="AA39" s="65"/>
-      <c r="AB39" s="65"/>
-      <c r="AC39" s="65"/>
-      <c r="AD39" s="65"/>
-      <c r="AE39" s="65"/>
-      <c r="AF39" s="65"/>
-      <c r="AG39" s="65"/>
-      <c r="AH39" s="65"/>
-      <c r="AI39" s="65"/>
-      <c r="AJ39" s="65"/>
-      <c r="AK39" s="65"/>
-      <c r="AL39" s="65"/>
-      <c r="AM39" s="65"/>
-      <c r="AN39" s="65"/>
-      <c r="AO39" s="65"/>
-      <c r="AP39" s="65"/>
-      <c r="AQ39" s="65"/>
-      <c r="AR39" s="65"/>
-      <c r="AS39" s="65"/>
-      <c r="AT39" s="65"/>
-      <c r="AU39" s="65"/>
-      <c r="AV39" s="65"/>
-      <c r="AW39" s="65"/>
-      <c r="AX39" s="65"/>
-      <c r="AY39" s="65"/>
-      <c r="AZ39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="66"/>
+      <c r="AL39" s="66"/>
+      <c r="AM39" s="66"/>
+      <c r="AN39" s="66"/>
+      <c r="AO39" s="66"/>
+      <c r="AP39" s="66"/>
+      <c r="AQ39" s="66"/>
+      <c r="AR39" s="66"/>
+      <c r="AS39" s="66"/>
+      <c r="AT39" s="66"/>
+      <c r="AU39" s="66"/>
+      <c r="AV39" s="66"/>
+      <c r="AW39" s="66"/>
+      <c r="AX39" s="66"/>
+      <c r="AY39" s="66"/>
+      <c r="AZ39" s="66"/>
     </row>
     <row r="40" spans="1:52" ht="12">
-      <c r="A40" s="65">
+      <c r="A40" s="66">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="65"/>
-      <c r="S40" s="65"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="65"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="65"/>
-      <c r="AA40" s="65"/>
-      <c r="AB40" s="65"/>
-      <c r="AC40" s="65"/>
-      <c r="AD40" s="65"/>
-      <c r="AE40" s="65"/>
-      <c r="AF40" s="65"/>
-      <c r="AG40" s="65"/>
-      <c r="AH40" s="65"/>
-      <c r="AI40" s="65"/>
-      <c r="AJ40" s="65"/>
-      <c r="AK40" s="65"/>
-      <c r="AL40" s="65"/>
-      <c r="AM40" s="65"/>
-      <c r="AN40" s="65"/>
-      <c r="AO40" s="65"/>
-      <c r="AP40" s="65"/>
-      <c r="AQ40" s="65"/>
-      <c r="AR40" s="65"/>
-      <c r="AS40" s="65"/>
-      <c r="AT40" s="65"/>
-      <c r="AU40" s="65"/>
-      <c r="AV40" s="65"/>
-      <c r="AW40" s="65"/>
-      <c r="AX40" s="65"/>
-      <c r="AY40" s="65"/>
-      <c r="AZ40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="66"/>
+      <c r="AK40" s="66"/>
+      <c r="AL40" s="66"/>
+      <c r="AM40" s="66"/>
+      <c r="AN40" s="66"/>
+      <c r="AO40" s="66"/>
+      <c r="AP40" s="66"/>
+      <c r="AQ40" s="66"/>
+      <c r="AR40" s="66"/>
+      <c r="AS40" s="66"/>
+      <c r="AT40" s="66"/>
+      <c r="AU40" s="66"/>
+      <c r="AV40" s="66"/>
+      <c r="AW40" s="66"/>
+      <c r="AX40" s="66"/>
+      <c r="AY40" s="66"/>
+      <c r="AZ40" s="66"/>
     </row>
     <row r="41" spans="1:52" ht="12">
-      <c r="A41" s="65">
+      <c r="A41" s="66">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
-      <c r="S41" s="65"/>
-      <c r="T41" s="65"/>
-      <c r="U41" s="65"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="65"/>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="65"/>
-      <c r="AA41" s="65"/>
-      <c r="AB41" s="65"/>
-      <c r="AC41" s="65"/>
-      <c r="AD41" s="65"/>
-      <c r="AE41" s="65"/>
-      <c r="AF41" s="65"/>
-      <c r="AG41" s="65"/>
-      <c r="AH41" s="65"/>
-      <c r="AI41" s="65"/>
-      <c r="AJ41" s="65"/>
-      <c r="AK41" s="65"/>
-      <c r="AL41" s="65"/>
-      <c r="AM41" s="65"/>
-      <c r="AN41" s="65"/>
-      <c r="AO41" s="65"/>
-      <c r="AP41" s="65"/>
-      <c r="AQ41" s="65"/>
-      <c r="AR41" s="65"/>
-      <c r="AS41" s="65"/>
-      <c r="AT41" s="65"/>
-      <c r="AU41" s="65"/>
-      <c r="AV41" s="65"/>
-      <c r="AW41" s="65"/>
-      <c r="AX41" s="65"/>
-      <c r="AY41" s="65"/>
-      <c r="AZ41" s="65"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="66"/>
+      <c r="AL41" s="66"/>
+      <c r="AM41" s="66"/>
+      <c r="AN41" s="66"/>
+      <c r="AO41" s="66"/>
+      <c r="AP41" s="66"/>
+      <c r="AQ41" s="66"/>
+      <c r="AR41" s="66"/>
+      <c r="AS41" s="66"/>
+      <c r="AT41" s="66"/>
+      <c r="AU41" s="66"/>
+      <c r="AV41" s="66"/>
+      <c r="AW41" s="66"/>
+      <c r="AX41" s="66"/>
+      <c r="AY41" s="66"/>
+      <c r="AZ41" s="66"/>
     </row>
     <row r="42" spans="1:52" ht="12">
-      <c r="A42" s="65">
+      <c r="A42" s="66">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="65"/>
-      <c r="T42" s="65"/>
-      <c r="U42" s="65"/>
-      <c r="V42" s="65"/>
-      <c r="W42" s="65"/>
-      <c r="X42" s="65"/>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="65"/>
-      <c r="AA42" s="65"/>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="65"/>
-      <c r="AE42" s="65"/>
-      <c r="AF42" s="65"/>
-      <c r="AG42" s="65"/>
-      <c r="AH42" s="65"/>
-      <c r="AI42" s="65"/>
-      <c r="AJ42" s="65"/>
-      <c r="AK42" s="65"/>
-      <c r="AL42" s="65"/>
-      <c r="AM42" s="65"/>
-      <c r="AN42" s="65"/>
-      <c r="AO42" s="65"/>
-      <c r="AP42" s="65"/>
-      <c r="AQ42" s="65"/>
-      <c r="AR42" s="65"/>
-      <c r="AS42" s="65"/>
-      <c r="AT42" s="65"/>
-      <c r="AU42" s="65"/>
-      <c r="AV42" s="65"/>
-      <c r="AW42" s="65"/>
-      <c r="AX42" s="65"/>
-      <c r="AY42" s="65"/>
-      <c r="AZ42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="66"/>
+      <c r="AB42" s="66"/>
+      <c r="AC42" s="66"/>
+      <c r="AD42" s="66"/>
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="66"/>
+      <c r="AG42" s="66"/>
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="66"/>
+      <c r="AK42" s="66"/>
+      <c r="AL42" s="66"/>
+      <c r="AM42" s="66"/>
+      <c r="AN42" s="66"/>
+      <c r="AO42" s="66"/>
+      <c r="AP42" s="66"/>
+      <c r="AQ42" s="66"/>
+      <c r="AR42" s="66"/>
+      <c r="AS42" s="66"/>
+      <c r="AT42" s="66"/>
+      <c r="AU42" s="66"/>
+      <c r="AV42" s="66"/>
+      <c r="AW42" s="66"/>
+      <c r="AX42" s="66"/>
+      <c r="AY42" s="66"/>
+      <c r="AZ42" s="66"/>
     </row>
     <row r="43" spans="1:52" ht="12">
-      <c r="A43" s="65">
+      <c r="A43" s="66">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="65"/>
-      <c r="S43" s="65"/>
-      <c r="T43" s="65"/>
-      <c r="U43" s="65"/>
-      <c r="V43" s="65"/>
-      <c r="W43" s="65"/>
-      <c r="X43" s="65"/>
-      <c r="Y43" s="65"/>
-      <c r="Z43" s="65"/>
-      <c r="AA43" s="65"/>
-      <c r="AB43" s="65"/>
-      <c r="AC43" s="65"/>
-      <c r="AD43" s="65"/>
-      <c r="AE43" s="65"/>
-      <c r="AF43" s="65"/>
-      <c r="AG43" s="65"/>
-      <c r="AH43" s="65"/>
-      <c r="AI43" s="65"/>
-      <c r="AJ43" s="65"/>
-      <c r="AK43" s="65"/>
-      <c r="AL43" s="65"/>
-      <c r="AM43" s="65"/>
-      <c r="AN43" s="65"/>
-      <c r="AO43" s="65"/>
-      <c r="AP43" s="65"/>
-      <c r="AQ43" s="65"/>
-      <c r="AR43" s="65"/>
-      <c r="AS43" s="65"/>
-      <c r="AT43" s="65"/>
-      <c r="AU43" s="65"/>
-      <c r="AV43" s="65"/>
-      <c r="AW43" s="65"/>
-      <c r="AX43" s="65"/>
-      <c r="AY43" s="65"/>
-      <c r="AZ43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="66"/>
+      <c r="AD43" s="66"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="66"/>
+      <c r="AK43" s="66"/>
+      <c r="AL43" s="66"/>
+      <c r="AM43" s="66"/>
+      <c r="AN43" s="66"/>
+      <c r="AO43" s="66"/>
+      <c r="AP43" s="66"/>
+      <c r="AQ43" s="66"/>
+      <c r="AR43" s="66"/>
+      <c r="AS43" s="66"/>
+      <c r="AT43" s="66"/>
+      <c r="AU43" s="66"/>
+      <c r="AV43" s="66"/>
+      <c r="AW43" s="66"/>
+      <c r="AX43" s="66"/>
+      <c r="AY43" s="66"/>
+      <c r="AZ43" s="66"/>
     </row>
     <row r="44" spans="1:52" ht="12">
-      <c r="A44" s="65">
+      <c r="A44" s="66">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="65"/>
-      <c r="T44" s="65"/>
-      <c r="U44" s="65"/>
-      <c r="V44" s="65"/>
-      <c r="W44" s="65"/>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="65"/>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="65"/>
-      <c r="AC44" s="65"/>
-      <c r="AD44" s="65"/>
-      <c r="AE44" s="65"/>
-      <c r="AF44" s="65"/>
-      <c r="AG44" s="65"/>
-      <c r="AH44" s="65"/>
-      <c r="AI44" s="65"/>
-      <c r="AJ44" s="65"/>
-      <c r="AK44" s="65"/>
-      <c r="AL44" s="65"/>
-      <c r="AM44" s="65"/>
-      <c r="AN44" s="65"/>
-      <c r="AO44" s="65"/>
-      <c r="AP44" s="65"/>
-      <c r="AQ44" s="65"/>
-      <c r="AR44" s="65"/>
-      <c r="AS44" s="65"/>
-      <c r="AT44" s="65"/>
-      <c r="AU44" s="65"/>
-      <c r="AV44" s="65"/>
-      <c r="AW44" s="65"/>
-      <c r="AX44" s="65"/>
-      <c r="AY44" s="65"/>
-      <c r="AZ44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="66"/>
+      <c r="X44" s="66"/>
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="66"/>
+      <c r="AB44" s="66"/>
+      <c r="AC44" s="66"/>
+      <c r="AD44" s="66"/>
+      <c r="AE44" s="66"/>
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="66"/>
+      <c r="AK44" s="66"/>
+      <c r="AL44" s="66"/>
+      <c r="AM44" s="66"/>
+      <c r="AN44" s="66"/>
+      <c r="AO44" s="66"/>
+      <c r="AP44" s="66"/>
+      <c r="AQ44" s="66"/>
+      <c r="AR44" s="66"/>
+      <c r="AS44" s="66"/>
+      <c r="AT44" s="66"/>
+      <c r="AU44" s="66"/>
+      <c r="AV44" s="66"/>
+      <c r="AW44" s="66"/>
+      <c r="AX44" s="66"/>
+      <c r="AY44" s="66"/>
+      <c r="AZ44" s="66"/>
     </row>
     <row r="45" spans="1:52" ht="12">
-      <c r="A45" s="65">
+      <c r="A45" s="66">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
-      <c r="P45" s="65"/>
-      <c r="Q45" s="65"/>
-      <c r="R45" s="65"/>
-      <c r="S45" s="65"/>
-      <c r="T45" s="65"/>
-      <c r="U45" s="65"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="65"/>
-      <c r="AB45" s="65"/>
-      <c r="AC45" s="65"/>
-      <c r="AD45" s="65"/>
-      <c r="AE45" s="65"/>
-      <c r="AF45" s="65"/>
-      <c r="AG45" s="65"/>
-      <c r="AH45" s="65"/>
-      <c r="AI45" s="65"/>
-      <c r="AJ45" s="65"/>
-      <c r="AK45" s="65"/>
-      <c r="AL45" s="65"/>
-      <c r="AM45" s="65"/>
-      <c r="AN45" s="65"/>
-      <c r="AO45" s="65"/>
-      <c r="AP45" s="65"/>
-      <c r="AQ45" s="65"/>
-      <c r="AR45" s="65"/>
-      <c r="AS45" s="65"/>
-      <c r="AT45" s="65"/>
-      <c r="AU45" s="65"/>
-      <c r="AV45" s="65"/>
-      <c r="AW45" s="65"/>
-      <c r="AX45" s="65"/>
-      <c r="AY45" s="65"/>
-      <c r="AZ45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
+      <c r="Z45" s="66"/>
+      <c r="AA45" s="66"/>
+      <c r="AB45" s="66"/>
+      <c r="AC45" s="66"/>
+      <c r="AD45" s="66"/>
+      <c r="AE45" s="66"/>
+      <c r="AF45" s="66"/>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="66"/>
+      <c r="AJ45" s="66"/>
+      <c r="AK45" s="66"/>
+      <c r="AL45" s="66"/>
+      <c r="AM45" s="66"/>
+      <c r="AN45" s="66"/>
+      <c r="AO45" s="66"/>
+      <c r="AP45" s="66"/>
+      <c r="AQ45" s="66"/>
+      <c r="AR45" s="66"/>
+      <c r="AS45" s="66"/>
+      <c r="AT45" s="66"/>
+      <c r="AU45" s="66"/>
+      <c r="AV45" s="66"/>
+      <c r="AW45" s="66"/>
+      <c r="AX45" s="66"/>
+      <c r="AY45" s="66"/>
+      <c r="AZ45" s="66"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="72">
+      <c r="A46" s="79">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="72"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="72"/>
-      <c r="Y46" s="72"/>
-      <c r="Z46" s="72"/>
-      <c r="AA46" s="72"/>
-      <c r="AB46" s="72"/>
-      <c r="AC46" s="72"/>
-      <c r="AD46" s="72"/>
-      <c r="AE46" s="72"/>
-      <c r="AF46" s="72"/>
-      <c r="AG46" s="72"/>
-      <c r="AH46" s="72"/>
-      <c r="AI46" s="72"/>
-      <c r="AJ46" s="72"/>
-      <c r="AK46" s="72"/>
-      <c r="AL46" s="72"/>
-      <c r="AM46" s="72"/>
-      <c r="AN46" s="72"/>
-      <c r="AO46" s="72"/>
-      <c r="AP46" s="72"/>
-      <c r="AQ46" s="72"/>
-      <c r="AR46" s="72"/>
-      <c r="AS46" s="72"/>
-      <c r="AT46" s="72"/>
-      <c r="AU46" s="72"/>
-      <c r="AV46" s="72"/>
-      <c r="AW46" s="72"/>
-      <c r="AX46" s="72"/>
-      <c r="AY46" s="72"/>
-      <c r="AZ46" s="72"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="79"/>
+      <c r="R46" s="79"/>
+      <c r="S46" s="79"/>
+      <c r="T46" s="79"/>
+      <c r="U46" s="79"/>
+      <c r="V46" s="79"/>
+      <c r="W46" s="79"/>
+      <c r="X46" s="79"/>
+      <c r="Y46" s="79"/>
+      <c r="Z46" s="79"/>
+      <c r="AA46" s="79"/>
+      <c r="AB46" s="79"/>
+      <c r="AC46" s="79"/>
+      <c r="AD46" s="79"/>
+      <c r="AE46" s="79"/>
+      <c r="AF46" s="79"/>
+      <c r="AG46" s="79"/>
+      <c r="AH46" s="79"/>
+      <c r="AI46" s="79"/>
+      <c r="AJ46" s="79"/>
+      <c r="AK46" s="79"/>
+      <c r="AL46" s="79"/>
+      <c r="AM46" s="79"/>
+      <c r="AN46" s="79"/>
+      <c r="AO46" s="79"/>
+      <c r="AP46" s="79"/>
+      <c r="AQ46" s="79"/>
+      <c r="AR46" s="79"/>
+      <c r="AS46" s="79"/>
+      <c r="AT46" s="79"/>
+      <c r="AU46" s="79"/>
+      <c r="AV46" s="79"/>
+      <c r="AW46" s="79"/>
+      <c r="AX46" s="79"/>
+      <c r="AY46" s="79"/>
+      <c r="AZ46" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="A1:AZ2"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
     <mergeCell ref="K43:T43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:F44"/>
@@ -15127,30 +15072,174 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="U41:AZ41"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="A1:AZ2"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15165,8 +15254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:AG1"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -15177,159 +15266,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="95" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="96" t="s">
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="95" t="s">
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="104">
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="101">
         <v>45545</v>
       </c>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="85" t="s">
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="101"/>
+      <c r="AO1" s="101"/>
+      <c r="AP1" s="101"/>
+      <c r="AQ1" s="101"/>
+      <c r="AR1" s="101"/>
+      <c r="AS1" s="101"/>
+      <c r="AT1" s="101"/>
+      <c r="AU1" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="89">
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="93">
         <v>1</v>
       </c>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="91"/>
+      <c r="AX1" s="94"/>
+      <c r="AY1" s="95"/>
     </row>
     <row r="2" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="97" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="98" t="s">
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="97" t="s">
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="99" t="s">
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="AM2" s="99"/>
-      <c r="AN2" s="99"/>
-      <c r="AO2" s="99"/>
-      <c r="AP2" s="99"/>
-      <c r="AQ2" s="99"/>
-      <c r="AR2" s="99"/>
-      <c r="AS2" s="99"/>
-      <c r="AT2" s="99"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="93"/>
-      <c r="AY2" s="94"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="104"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104"/>
+      <c r="AU2" s="91"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="97"/>
+      <c r="AY2" s="98"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
     </row>
     <row r="5" spans="1:52" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="23"/>
@@ -17750,159 +17839,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="95" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="96" t="s">
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="95" t="s">
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="104">
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="101">
         <v>45537</v>
       </c>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="85" t="s">
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="101"/>
+      <c r="AO1" s="101"/>
+      <c r="AP1" s="101"/>
+      <c r="AQ1" s="101"/>
+      <c r="AR1" s="101"/>
+      <c r="AS1" s="101"/>
+      <c r="AT1" s="101"/>
+      <c r="AU1" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="89">
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="93">
         <v>2</v>
       </c>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="91"/>
+      <c r="AX1" s="94"/>
+      <c r="AY1" s="95"/>
     </row>
     <row r="2" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="97" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="98" t="s">
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="97" t="s">
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="99" t="s">
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="AM2" s="99"/>
-      <c r="AN2" s="99"/>
-      <c r="AO2" s="99"/>
-      <c r="AP2" s="99"/>
-      <c r="AQ2" s="99"/>
-      <c r="AR2" s="99"/>
-      <c r="AS2" s="99"/>
-      <c r="AT2" s="99"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="93"/>
-      <c r="AY2" s="94"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="104"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104"/>
+      <c r="AU2" s="91"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="97"/>
+      <c r="AY2" s="98"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
     </row>
     <row r="5" spans="1:52" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="23"/>
@@ -20283,6 +20372,11 @@
     <row r="50" spans="1:52" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -20290,11 +20384,6 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/02_外部設計/04_画面遷移図.xlsx
+++ b/02_外部設計/04_画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40106AC2-F89F-4AFD-B08F-5A9BE76E2572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616FF5D1-E493-450E-8D43-9AE531415C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -399,6 +399,38 @@
   <si>
     <t>奈良田</t>
     <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>戻りの処理について記載がなかったため、追加しました。</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>不正アクセスエラー処理について記載がなかったため、追加しました。</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1124,11 +1156,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1166,63 +1240,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1245,6 +1264,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3022,15 +3054,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>106194</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>51394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>22374</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>66634</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3047,8 +3079,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7437120" y="3497580"/>
-          <a:ext cx="1562100" cy="403860"/>
+          <a:off x="7572173" y="3496607"/>
+          <a:ext cx="1594201" cy="404346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4984,166 +5016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>138954</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136682</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>67233</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="2699274" y="2385059"/>
-          <a:ext cx="1145016" cy="1095934"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3361764"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 286870"/>
-            <a:gd name="connsiteX1" fmla="*/ 3361764 w 3361764"/>
-            <a:gd name="connsiteY1" fmla="*/ 286870 h 286870"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3361764"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 286870"/>
-            <a:gd name="connsiteX1" fmla="*/ 2792505 w 3361764"/>
-            <a:gd name="connsiteY1" fmla="*/ 152400 h 286870"/>
-            <a:gd name="connsiteX2" fmla="*/ 3361764 w 3361764"/>
-            <a:gd name="connsiteY2" fmla="*/ 286870 h 286870"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3361764"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 286870"/>
-            <a:gd name="connsiteX1" fmla="*/ 2792505 w 3361764"/>
-            <a:gd name="connsiteY1" fmla="*/ 152400 h 286870"/>
-            <a:gd name="connsiteX2" fmla="*/ 3361764 w 3361764"/>
-            <a:gd name="connsiteY2" fmla="*/ 286870 h 286870"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3361764"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 286870"/>
-            <a:gd name="connsiteX1" fmla="*/ 2792505 w 3361764"/>
-            <a:gd name="connsiteY1" fmla="*/ 152400 h 286870"/>
-            <a:gd name="connsiteX2" fmla="*/ 3361764 w 3361764"/>
-            <a:gd name="connsiteY2" fmla="*/ 286870 h 286870"/>
-            <a:gd name="connsiteX0" fmla="*/ 130344 w 3492108"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 286870"/>
-            <a:gd name="connsiteX1" fmla="*/ 125861 w 3492108"/>
-            <a:gd name="connsiteY1" fmla="*/ 188259 h 286870"/>
-            <a:gd name="connsiteX2" fmla="*/ 2922849 w 3492108"/>
-            <a:gd name="connsiteY2" fmla="*/ 152400 h 286870"/>
-            <a:gd name="connsiteX3" fmla="*/ 3492108 w 3492108"/>
-            <a:gd name="connsiteY3" fmla="*/ 286870 h 286870"/>
-            <a:gd name="connsiteX0" fmla="*/ 4483 w 3366247"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 286870"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3366247"/>
-            <a:gd name="connsiteY1" fmla="*/ 188259 h 286870"/>
-            <a:gd name="connsiteX2" fmla="*/ 2796988 w 3366247"/>
-            <a:gd name="connsiteY2" fmla="*/ 152400 h 286870"/>
-            <a:gd name="connsiteX3" fmla="*/ 3366247 w 3366247"/>
-            <a:gd name="connsiteY3" fmla="*/ 286870 h 286870"/>
-            <a:gd name="connsiteX0" fmla="*/ 4483 w 3370730"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 286870"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 3370730"/>
-            <a:gd name="connsiteY1" fmla="*/ 188259 h 286870"/>
-            <a:gd name="connsiteX2" fmla="*/ 3370730 w 3370730"/>
-            <a:gd name="connsiteY2" fmla="*/ 156882 h 286870"/>
-            <a:gd name="connsiteX3" fmla="*/ 3366247 w 3370730"/>
-            <a:gd name="connsiteY3" fmla="*/ 286870 h 286870"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3366247"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 286870"/>
-            <a:gd name="connsiteX1" fmla="*/ 4482 w 3366247"/>
-            <a:gd name="connsiteY1" fmla="*/ 174812 h 286870"/>
-            <a:gd name="connsiteX2" fmla="*/ 3366247 w 3366247"/>
-            <a:gd name="connsiteY2" fmla="*/ 156882 h 286870"/>
-            <a:gd name="connsiteX3" fmla="*/ 3361764 w 3366247"/>
-            <a:gd name="connsiteY3" fmla="*/ 286870 h 286870"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 3366247"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 286870"/>
-            <a:gd name="connsiteX1" fmla="*/ 4483 w 3366247"/>
-            <a:gd name="connsiteY1" fmla="*/ 157359 h 286870"/>
-            <a:gd name="connsiteX2" fmla="*/ 3366247 w 3366247"/>
-            <a:gd name="connsiteY2" fmla="*/ 156882 h 286870"/>
-            <a:gd name="connsiteX3" fmla="*/ 3361764 w 3366247"/>
-            <a:gd name="connsiteY3" fmla="*/ 286870 h 286870"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="3366247" h="286870">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="4483" y="157359"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3366247" y="156882"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="3361764" y="286870"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>79939</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>30629</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>125510</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>72954</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>30629</xdr:rowOff>
+      <xdr:rowOff>48635</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5160,8 +5042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1366374" y="2755900"/>
-          <a:ext cx="964454" cy="152400"/>
+          <a:off x="1255363" y="2559817"/>
+          <a:ext cx="682059" cy="399009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5205,7 +5087,29 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>ログイン成功時</a:t>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>成功時</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5280,7 +5184,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -5897,14 +5801,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>画面遷移のうち、</a:t>
+            <a:t>赤字：戻り処理</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
-              <a:srgbClr val="00B050"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5912,11 +5816,3541 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>青字：不正アクセスエラー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>119447</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>89296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>119448</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF98D604-3862-46D7-8B1A-E51C74FF01F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="678787" y="1597083"/>
+          <a:ext cx="1" cy="1242431"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>105377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72957</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137803</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29AEDF5-0BA6-4F9B-8634-F706BA089EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2553505"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>38910</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="テキスト ボックス 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0E9917-5913-497C-9089-A3F4B0F986E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9855740" y="2033075"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>134559</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>118348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>21069</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37284</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244DF7A5-0BBD-49F4-BDF5-FD7DEC7F8C05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7973431" y="2874518"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>戻りの処理は記述するのか？</a:t>
+            <a:t>※1</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>27561</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>116727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>100519</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4A0B2F-69BE-4083-A887-BBED3FAD31EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544455" y="3561940"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179962</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>34040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66472</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA369B3-9FB3-48B9-AD82-6DC5315C60D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1671536" y="3211742"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>76193</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>92407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>149150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0D6EEA-E3DB-4C5D-818F-6195E2BFC927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7355725" y="4315833"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>17833</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>34043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>90790</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115106</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F108FC-82B0-4BA0-8E2E-E40B41F18E22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9721173" y="5035681"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170234</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>16209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>56745</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>48635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55734873-5D0B-4A87-A3FE-90F79213F2C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3339830" y="1215954"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>155642</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>74573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>34047</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="テキスト ボックス 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA54A38-A108-429C-8E01-427DBAB2E3FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5376153" y="5724722"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80964</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>29669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170234</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>32422</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D08BAB-EB28-4C02-9A91-1B04E9DDF6CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="70" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3064113" y="1383435"/>
+          <a:ext cx="275717" cy="2753"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>149156</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>141047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>27560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="テキスト ボックス 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508959E5-3E20-45F0-9CD3-61EF91A785C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5183220" y="2435153"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107124</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>149156</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3237</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="コネクタ: カギ線 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E93CDA-A3FC-4771-B75C-566A2EE23861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4689473" y="2111639"/>
+          <a:ext cx="199675" cy="787819"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>92411</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>105382</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89171</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="テキスト ボックス 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6411C562-FFA8-4258-AEED-845626BAF844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5312922" y="3229578"/>
+          <a:ext cx="393971" cy="304806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>155728</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>92411</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66469</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="コネクタ: カギ線 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876BC9B0-D36E-4E64-BD72-3080CF458466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="83" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5081394" y="3150452"/>
+          <a:ext cx="153479" cy="309577"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>62671</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>115165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>134559</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4858</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A5F891-5AA4-48B2-9807-A3E0F3B72745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+          <a:endCxn id="65" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7715097" y="3025356"/>
+          <a:ext cx="258334" cy="19396"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>158885</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>118348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>45395</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>150773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="テキスト ボックス 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29B94DB-30EE-4EA5-8EB8-5BF03978B40B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7065523" y="2412454"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>179065</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>158884</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>134560</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="コネクタ: カギ線 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BABCED9-B0F0-46D8-80E8-64AA06F16873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+          <a:endCxn id="92" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6706475" y="2223640"/>
+          <a:ext cx="178936" cy="539159"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>115642</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63224</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1F1879-845F-4DD5-9BFF-2709337F953E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="3"/>
+          <a:endCxn id="64" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9446089" y="2197512"/>
+          <a:ext cx="409651" cy="5797"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>42153</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>74573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>115110</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="テキスト ボックス 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2334819C-A372-4B3A-8FB5-D060AB8B26D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4703323" y="3908892"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>40451</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>42153</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>115104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="コネクタ: カギ線 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8364B537-F156-493E-A8C1-10C71444454B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="99" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4439585" y="3815387"/>
+          <a:ext cx="152881" cy="374595"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>89170</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>113484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>162127</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>64845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B08248-A6D9-4D9F-BC7B-590988BA64A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6809361" y="3947803"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>13457</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>89170</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>24314</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="コネクタ: カギ線 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D141B6-4B29-4D4E-BDFB-9E76FEEA1340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="103" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6488919" y="3797595"/>
+          <a:ext cx="192278" cy="448606"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>22374</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>27561</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>27557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8268F79-F6F8-4CF1-90FA-B1D2A3390C4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="66" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9166374" y="3698780"/>
+          <a:ext cx="378081" cy="33394"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95655</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="コネクタ: カギ線 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B274FB-1860-4CEE-A7B4-D618F00BACC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="113" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2427985" y="4608598"/>
+          <a:ext cx="182552" cy="373299"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95656</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>103758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>168613</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>55120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="テキスト ボックス 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0FB39A-A03D-40FD-9E09-111208F7040C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705911" y="4716290"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>4865</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>94031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>77822</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>45393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="テキスト ボックス 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A812510-BFD0-45E8-B3FB-802676028973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4666035" y="4706563"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>64771</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>4866</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="コネクタ: カギ線 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FAADA54-2F44-48ED-AF73-2DB77D8FB4BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="115" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4426939" y="4637700"/>
+          <a:ext cx="165205" cy="312988"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>76193</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="直線矢印コネクタ 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F716F372-9E8E-4DE5-A4F2-09E32524A22D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="68" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="7131185" y="4486067"/>
+          <a:ext cx="224540" cy="573"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>162128</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>64845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>48638</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>16206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="テキスト ボックス 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E870F49-6093-42CA-884A-8F774F71E7CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2772383" y="6104100"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>162128</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>105376</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="コネクタ: カギ線 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A5FAC1-27D8-48E0-AF13-8E41E4680CA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="122" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2469248" y="5971198"/>
+          <a:ext cx="181739" cy="424531"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>115105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>155642</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118191</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA141C2-39A0-4B68-B2C5-D85DE9F7DF94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="71" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="5117884" y="5894956"/>
+          <a:ext cx="258269" cy="3086"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>24319</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>113483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>97276</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>64845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="テキスト ボックス 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A984C06-01EC-4972-9DAD-50B17C3ECFDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4685489" y="5374526"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>103756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>38910</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>55118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="テキスト ボックス 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53E71A3-3957-4C02-B415-A4D2746AE457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6872591" y="5364799"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>72472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>17833</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>74575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="直線矢印コネクタ 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B18ECA-AE4E-4378-A3BA-E32EA4354299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="69" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9383787" y="5203812"/>
+          <a:ext cx="337386" cy="2103"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>184664</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14586</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="コネクタ: カギ線 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C6A7CB-B12A-49EA-AF37-2C5F58CE7AB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="130" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6544529" y="5206971"/>
+          <a:ext cx="129048" cy="527076"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>64771</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>24320</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>24312</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="コネクタ: カギ線 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C4AE0A-C948-4023-AE82-0B472012E4FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="129" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4449881" y="5309151"/>
+          <a:ext cx="138775" cy="332442"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9726</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>82684</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3AB050-EF0E-4EFF-AC94-31238583339B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5424790" y="2441639"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>56743</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>129700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145911</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="テキスト ボックス 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12383124-48CF-4E3C-B40A-80B4A69B5301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7336275" y="2407592"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>30803</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>103760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="テキスト ボックス 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0793690-011F-4D94-BB5C-86782FB20E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10107037" y="2041184"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>102782</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>145799</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1472</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B923C728-CDFA-4D94-B985-BBB599D7B5AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="5323293" y="2125858"/>
+          <a:ext cx="237570" cy="15699"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107124</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>175854</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10304</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="コネクタ: カギ線 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF4E910-1DAA-42F9-A6EA-1AAA9E78CC24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="0"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="6482836" y="-94862"/>
+          <a:ext cx="3795" cy="4178666"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6023715"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>89171</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>40529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>56747</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>113486</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="テキスト ボックス 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEDA11B-AC8E-4C6C-9FEC-9A367E788F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5504235" y="3218231"/>
+          <a:ext cx="526916" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>29182</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>118351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>102139</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68802629-02BF-4C71-B0CE-4A080F1A9508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8240948" y="2874521"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99555</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>115239</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="コネクタ: カギ線 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2213CEB7-E553-4FD6-8536-626BE4C71AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2629729" y="1926454"/>
+          <a:ext cx="1108081" cy="2066599"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58779"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160505</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>111863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47015</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="テキスト ボックス 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD03282-05B7-4DCB-9C70-EED438E3AA8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2957207" y="4724395"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>37287</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>77817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>110244</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>29178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="テキスト ボックス 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB2A559B-AD27-4562-AD6D-86E9C951E235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3020436" y="6117072"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>51878</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>124836</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>27558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="テキスト ボックス 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23D1C68-D49C-46CA-B369-A0AA4B53CB2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5653389" y="5726345"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>115108</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>188065</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>74575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="テキスト ボックス 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A08FB8-6E2F-4BB5-A399-B4DB66A2EC2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962725" y="5384256"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>32423</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>105380</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="テキスト ボックス 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECF5DAA-A6ED-4576-AED2-5F7D8B80BAF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7125508" y="5382634"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>111866</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>184823</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>103757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="テキスト ボックス 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBEE8ED-4259-4C6D-B9B5-11B4AD50E7DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001653" y="5024332"/>
+          <a:ext cx="445851" cy="340468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9634,7 +13068,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
@@ -9753,25 +13187,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="55" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -9787,49 +13221,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="39" t="s">
+      <c r="AF3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="52" t="s">
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -9845,26 +13279,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -10470,44 +13904,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="58"/>
-      <c r="AM16" s="58"/>
-      <c r="AN16" s="58"/>
-      <c r="AO16" s="58"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="59"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="46"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -10526,42 +13960,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="61"/>
-      <c r="AN17" s="61"/>
-      <c r="AO17" s="61"/>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="62"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="49"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -10580,42 +14014,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="62"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="49"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -10634,42 +14068,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="61"/>
-      <c r="AO19" s="61"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="62"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="48"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="49"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -10688,42 +14122,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="61"/>
-      <c r="AG20" s="61"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="61"/>
-      <c r="AJ20" s="61"/>
-      <c r="AK20" s="61"/>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="61"/>
-      <c r="AN20" s="61"/>
-      <c r="AO20" s="61"/>
-      <c r="AP20" s="61"/>
-      <c r="AQ20" s="61"/>
-      <c r="AR20" s="62"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="49"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -10742,42 +14176,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="61"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="61"/>
-      <c r="AN21" s="61"/>
-      <c r="AO21" s="61"/>
-      <c r="AP21" s="61"/>
-      <c r="AQ21" s="61"/>
-      <c r="AR21" s="62"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="49"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -10796,42 +14230,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="61"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="61"/>
-      <c r="AJ22" s="61"/>
-      <c r="AK22" s="61"/>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="61"/>
-      <c r="AN22" s="61"/>
-      <c r="AO22" s="61"/>
-      <c r="AP22" s="61"/>
-      <c r="AQ22" s="61"/>
-      <c r="AR22" s="62"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="49"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -10850,42 +14284,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="61"/>
-      <c r="AH23" s="61"/>
-      <c r="AI23" s="61"/>
-      <c r="AJ23" s="61"/>
-      <c r="AK23" s="61"/>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="61"/>
-      <c r="AN23" s="61"/>
-      <c r="AO23" s="61"/>
-      <c r="AP23" s="61"/>
-      <c r="AQ23" s="61"/>
-      <c r="AR23" s="62"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="49"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -10904,42 +14338,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="61"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="61"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="61"/>
-      <c r="AJ24" s="61"/>
-      <c r="AK24" s="61"/>
-      <c r="AL24" s="61"/>
-      <c r="AM24" s="61"/>
-      <c r="AN24" s="61"/>
-      <c r="AO24" s="61"/>
-      <c r="AP24" s="61"/>
-      <c r="AQ24" s="61"/>
-      <c r="AR24" s="62"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="49"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -10958,42 +14392,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="61"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="61"/>
-      <c r="AJ25" s="61"/>
-      <c r="AK25" s="61"/>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="61"/>
-      <c r="AN25" s="61"/>
-      <c r="AO25" s="61"/>
-      <c r="AP25" s="61"/>
-      <c r="AQ25" s="61"/>
-      <c r="AR25" s="62"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="49"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -11012,42 +14446,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="61"/>
-      <c r="Z26" s="61"/>
-      <c r="AA26" s="61"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="61"/>
-      <c r="AF26" s="61"/>
-      <c r="AG26" s="61"/>
-      <c r="AH26" s="61"/>
-      <c r="AI26" s="61"/>
-      <c r="AJ26" s="61"/>
-      <c r="AK26" s="61"/>
-      <c r="AL26" s="61"/>
-      <c r="AM26" s="61"/>
-      <c r="AN26" s="61"/>
-      <c r="AO26" s="61"/>
-      <c r="AP26" s="61"/>
-      <c r="AQ26" s="61"/>
-      <c r="AR26" s="62"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="48"/>
+      <c r="AR26" s="49"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -11066,42 +14500,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="61"/>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="61"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="61"/>
-      <c r="AM27" s="61"/>
-      <c r="AN27" s="61"/>
-      <c r="AO27" s="61"/>
-      <c r="AP27" s="61"/>
-      <c r="AQ27" s="61"/>
-      <c r="AR27" s="62"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="48"/>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="48"/>
+      <c r="AO27" s="48"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="49"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -11120,42 +14554,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="61"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="61"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="61"/>
-      <c r="AL28" s="61"/>
-      <c r="AM28" s="61"/>
-      <c r="AN28" s="61"/>
-      <c r="AO28" s="61"/>
-      <c r="AP28" s="61"/>
-      <c r="AQ28" s="61"/>
-      <c r="AR28" s="62"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="48"/>
+      <c r="AO28" s="48"/>
+      <c r="AP28" s="48"/>
+      <c r="AQ28" s="48"/>
+      <c r="AR28" s="49"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -11174,42 +14608,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="64"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="64"/>
-      <c r="AR29" s="65"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="51"/>
+      <c r="AQ29" s="51"/>
+      <c r="AR29" s="52"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -11981,30 +15415,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="39" t="s">
+      <c r="AF45" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="39"/>
-      <c r="AH45" s="39"/>
-      <c r="AI45" s="39"/>
-      <c r="AJ45" s="39"/>
-      <c r="AK45" s="39"/>
-      <c r="AL45" s="52" t="s">
+      <c r="AG45" s="42"/>
+      <c r="AH45" s="42"/>
+      <c r="AI45" s="42"/>
+      <c r="AJ45" s="42"/>
+      <c r="AK45" s="42"/>
+      <c r="AL45" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="AM45" s="52"/>
-      <c r="AN45" s="52"/>
-      <c r="AO45" s="52"/>
-      <c r="AP45" s="52"/>
-      <c r="AQ45" s="52"/>
-      <c r="AR45" s="52"/>
-      <c r="AS45" s="52"/>
-      <c r="AT45" s="52"/>
-      <c r="AU45" s="52"/>
-      <c r="AV45" s="52"/>
-      <c r="AW45" s="52"/>
-      <c r="AX45" s="52"/>
-      <c r="AY45" s="52"/>
+      <c r="AM45" s="43"/>
+      <c r="AN45" s="43"/>
+      <c r="AO45" s="43"/>
+      <c r="AP45" s="43"/>
+      <c r="AQ45" s="43"/>
+      <c r="AR45" s="43"/>
+      <c r="AS45" s="43"/>
+      <c r="AT45" s="43"/>
+      <c r="AU45" s="43"/>
+      <c r="AV45" s="43"/>
+      <c r="AW45" s="43"/>
+      <c r="AX45" s="43"/>
+      <c r="AY45" s="43"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -12039,26 +15473,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="39"/>
-      <c r="AG46" s="39"/>
-      <c r="AH46" s="39"/>
-      <c r="AI46" s="39"/>
-      <c r="AJ46" s="39"/>
-      <c r="AK46" s="39"/>
-      <c r="AL46" s="52"/>
-      <c r="AM46" s="52"/>
-      <c r="AN46" s="52"/>
-      <c r="AO46" s="52"/>
-      <c r="AP46" s="52"/>
-      <c r="AQ46" s="52"/>
-      <c r="AR46" s="52"/>
-      <c r="AS46" s="52"/>
-      <c r="AT46" s="52"/>
-      <c r="AU46" s="52"/>
-      <c r="AV46" s="52"/>
-      <c r="AW46" s="52"/>
-      <c r="AX46" s="52"/>
-      <c r="AY46" s="52"/>
+      <c r="AF46" s="42"/>
+      <c r="AG46" s="42"/>
+      <c r="AH46" s="42"/>
+      <c r="AI46" s="42"/>
+      <c r="AJ46" s="42"/>
+      <c r="AK46" s="42"/>
+      <c r="AL46" s="43"/>
+      <c r="AM46" s="43"/>
+      <c r="AN46" s="43"/>
+      <c r="AO46" s="43"/>
+      <c r="AP46" s="43"/>
+      <c r="AQ46" s="43"/>
+      <c r="AR46" s="43"/>
+      <c r="AS46" s="43"/>
+      <c r="AT46" s="43"/>
+      <c r="AU46" s="43"/>
+      <c r="AV46" s="43"/>
+      <c r="AW46" s="43"/>
+      <c r="AX46" s="43"/>
+      <c r="AY46" s="43"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -12093,30 +15527,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="39" t="s">
+      <c r="AF47" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="39"/>
-      <c r="AH47" s="39"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
-      <c r="AK47" s="39"/>
-      <c r="AL47" s="38">
-        <v>45545</v>
+      <c r="AG47" s="42"/>
+      <c r="AH47" s="42"/>
+      <c r="AI47" s="42"/>
+      <c r="AJ47" s="42"/>
+      <c r="AK47" s="42"/>
+      <c r="AL47" s="53">
+        <v>45548</v>
       </c>
-      <c r="AM47" s="38"/>
-      <c r="AN47" s="38"/>
-      <c r="AO47" s="38"/>
-      <c r="AP47" s="38"/>
-      <c r="AQ47" s="38"/>
-      <c r="AR47" s="38"/>
-      <c r="AS47" s="38"/>
-      <c r="AT47" s="38"/>
-      <c r="AU47" s="38"/>
-      <c r="AV47" s="38"/>
-      <c r="AW47" s="38"/>
-      <c r="AX47" s="38"/>
-      <c r="AY47" s="38"/>
+      <c r="AM47" s="53"/>
+      <c r="AN47" s="53"/>
+      <c r="AO47" s="53"/>
+      <c r="AP47" s="53"/>
+      <c r="AQ47" s="53"/>
+      <c r="AR47" s="53"/>
+      <c r="AS47" s="53"/>
+      <c r="AT47" s="53"/>
+      <c r="AU47" s="53"/>
+      <c r="AV47" s="53"/>
+      <c r="AW47" s="53"/>
+      <c r="AX47" s="53"/>
+      <c r="AY47" s="53"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -12151,26 +15585,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="39"/>
-      <c r="AG48" s="39"/>
-      <c r="AH48" s="39"/>
-      <c r="AI48" s="39"/>
-      <c r="AJ48" s="39"/>
-      <c r="AK48" s="39"/>
-      <c r="AL48" s="38"/>
-      <c r="AM48" s="38"/>
-      <c r="AN48" s="38"/>
-      <c r="AO48" s="38"/>
-      <c r="AP48" s="38"/>
-      <c r="AQ48" s="38"/>
-      <c r="AR48" s="38"/>
-      <c r="AS48" s="38"/>
-      <c r="AT48" s="38"/>
-      <c r="AU48" s="38"/>
-      <c r="AV48" s="38"/>
-      <c r="AW48" s="38"/>
-      <c r="AX48" s="38"/>
-      <c r="AY48" s="38"/>
+      <c r="AF48" s="42"/>
+      <c r="AG48" s="42"/>
+      <c r="AH48" s="42"/>
+      <c r="AI48" s="42"/>
+      <c r="AJ48" s="42"/>
+      <c r="AK48" s="42"/>
+      <c r="AL48" s="53"/>
+      <c r="AM48" s="53"/>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="53"/>
+      <c r="AP48" s="53"/>
+      <c r="AQ48" s="53"/>
+      <c r="AR48" s="53"/>
+      <c r="AS48" s="53"/>
+      <c r="AT48" s="53"/>
+      <c r="AU48" s="53"/>
+      <c r="AV48" s="53"/>
+      <c r="AW48" s="53"/>
+      <c r="AX48" s="53"/>
+      <c r="AY48" s="53"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -12205,30 +15639,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="40" t="s">
+      <c r="AF49" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="41"/>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="42"/>
-      <c r="AL49" s="46" t="s">
+      <c r="AG49" s="55"/>
+      <c r="AH49" s="55"/>
+      <c r="AI49" s="55"/>
+      <c r="AJ49" s="55"/>
+      <c r="AK49" s="56"/>
+      <c r="AL49" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AM49" s="47"/>
-      <c r="AN49" s="47"/>
-      <c r="AO49" s="47"/>
-      <c r="AP49" s="47"/>
-      <c r="AQ49" s="47"/>
-      <c r="AR49" s="47"/>
-      <c r="AS49" s="47"/>
-      <c r="AT49" s="47"/>
-      <c r="AU49" s="47"/>
-      <c r="AV49" s="47"/>
-      <c r="AW49" s="47"/>
-      <c r="AX49" s="47"/>
-      <c r="AY49" s="48"/>
+      <c r="AM49" s="61"/>
+      <c r="AN49" s="61"/>
+      <c r="AO49" s="61"/>
+      <c r="AP49" s="61"/>
+      <c r="AQ49" s="61"/>
+      <c r="AR49" s="61"/>
+      <c r="AS49" s="61"/>
+      <c r="AT49" s="61"/>
+      <c r="AU49" s="61"/>
+      <c r="AV49" s="61"/>
+      <c r="AW49" s="61"/>
+      <c r="AX49" s="61"/>
+      <c r="AY49" s="62"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -12263,26 +15697,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="43"/>
-      <c r="AG50" s="44"/>
-      <c r="AH50" s="44"/>
-      <c r="AI50" s="44"/>
-      <c r="AJ50" s="44"/>
-      <c r="AK50" s="45"/>
-      <c r="AL50" s="49"/>
-      <c r="AM50" s="50"/>
-      <c r="AN50" s="50"/>
-      <c r="AO50" s="50"/>
-      <c r="AP50" s="50"/>
-      <c r="AQ50" s="50"/>
-      <c r="AR50" s="50"/>
-      <c r="AS50" s="50"/>
-      <c r="AT50" s="50"/>
-      <c r="AU50" s="50"/>
-      <c r="AV50" s="50"/>
-      <c r="AW50" s="50"/>
-      <c r="AX50" s="50"/>
-      <c r="AY50" s="51"/>
+      <c r="AF50" s="57"/>
+      <c r="AG50" s="58"/>
+      <c r="AH50" s="58"/>
+      <c r="AI50" s="58"/>
+      <c r="AJ50" s="58"/>
+      <c r="AK50" s="59"/>
+      <c r="AL50" s="63"/>
+      <c r="AM50" s="64"/>
+      <c r="AN50" s="64"/>
+      <c r="AO50" s="64"/>
+      <c r="AP50" s="64"/>
+      <c r="AQ50" s="64"/>
+      <c r="AR50" s="64"/>
+      <c r="AS50" s="64"/>
+      <c r="AT50" s="64"/>
+      <c r="AU50" s="64"/>
+      <c r="AV50" s="64"/>
+      <c r="AW50" s="64"/>
+      <c r="AX50" s="64"/>
+      <c r="AY50" s="65"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -12395,17 +15829,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12425,7 +15859,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BL23" sqref="BL23"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5:J5"/>
+      <selection pane="bottomLeft" activeCell="U9" sqref="U9:AZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -12438,244 +15872,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74"/>
-      <c r="AT1" s="74"/>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74"/>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="75"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="70"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="77"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="78"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="73"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="68" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="68" t="s">
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="68" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="70"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="78"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="71">
+      <c r="A5" s="79">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72">
+      <c r="B5" s="79"/>
+      <c r="C5" s="80">
         <v>45537</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71" t="s">
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71" t="s">
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="71"/>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="71"/>
-      <c r="AN5" s="71"/>
-      <c r="AO5" s="71"/>
-      <c r="AP5" s="71"/>
-      <c r="AQ5" s="71"/>
-      <c r="AR5" s="71"/>
-      <c r="AS5" s="71"/>
-      <c r="AT5" s="71"/>
-      <c r="AU5" s="71"/>
-      <c r="AV5" s="71"/>
-      <c r="AW5" s="71"/>
-      <c r="AX5" s="71"/>
-      <c r="AY5" s="71"/>
-      <c r="AZ5" s="71"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="79"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="79"/>
+      <c r="AQ5" s="79"/>
+      <c r="AR5" s="79"/>
+      <c r="AS5" s="79"/>
+      <c r="AT5" s="79"/>
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="79"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="79"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="66">
@@ -12748,15 +16182,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
+      <c r="C7" s="67">
+        <v>45547</v>
+      </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
+      <c r="G7" s="66" t="s">
+        <v>30</v>
+      </c>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="K7" s="66" t="s">
+        <v>28</v>
+      </c>
       <c r="L7" s="66"/>
       <c r="M7" s="66"/>
       <c r="N7" s="66"/>
@@ -12766,7 +16206,9 @@
       <c r="R7" s="66"/>
       <c r="S7" s="66"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="66" t="s">
+        <v>34</v>
+      </c>
       <c r="V7" s="66"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66"/>
@@ -12805,15 +16247,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
+      <c r="C8" s="67">
+        <v>45548</v>
+      </c>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
+      <c r="G8" s="66" t="s">
+        <v>30</v>
+      </c>
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
+      <c r="K8" s="66" t="s">
+        <v>28</v>
+      </c>
       <c r="L8" s="66"/>
       <c r="M8" s="66"/>
       <c r="N8" s="66"/>
@@ -12823,7 +16271,9 @@
       <c r="R8" s="66"/>
       <c r="S8" s="66"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="66" t="s">
+        <v>35</v>
+      </c>
       <c r="V8" s="66"/>
       <c r="W8" s="66"/>
       <c r="X8" s="66"/>
@@ -14966,64 +18416,256 @@
       <c r="AZ45" s="66"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="79">
+      <c r="A46" s="74">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
-      <c r="Q46" s="79"/>
-      <c r="R46" s="79"/>
-      <c r="S46" s="79"/>
-      <c r="T46" s="79"/>
-      <c r="U46" s="79"/>
-      <c r="V46" s="79"/>
-      <c r="W46" s="79"/>
-      <c r="X46" s="79"/>
-      <c r="Y46" s="79"/>
-      <c r="Z46" s="79"/>
-      <c r="AA46" s="79"/>
-      <c r="AB46" s="79"/>
-      <c r="AC46" s="79"/>
-      <c r="AD46" s="79"/>
-      <c r="AE46" s="79"/>
-      <c r="AF46" s="79"/>
-      <c r="AG46" s="79"/>
-      <c r="AH46" s="79"/>
-      <c r="AI46" s="79"/>
-      <c r="AJ46" s="79"/>
-      <c r="AK46" s="79"/>
-      <c r="AL46" s="79"/>
-      <c r="AM46" s="79"/>
-      <c r="AN46" s="79"/>
-      <c r="AO46" s="79"/>
-      <c r="AP46" s="79"/>
-      <c r="AQ46" s="79"/>
-      <c r="AR46" s="79"/>
-      <c r="AS46" s="79"/>
-      <c r="AT46" s="79"/>
-      <c r="AU46" s="79"/>
-      <c r="AV46" s="79"/>
-      <c r="AW46" s="79"/>
-      <c r="AX46" s="79"/>
-      <c r="AY46" s="79"/>
-      <c r="AZ46" s="79"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="74"/>
+      <c r="R46" s="74"/>
+      <c r="S46" s="74"/>
+      <c r="T46" s="74"/>
+      <c r="U46" s="74"/>
+      <c r="V46" s="74"/>
+      <c r="W46" s="74"/>
+      <c r="X46" s="74"/>
+      <c r="Y46" s="74"/>
+      <c r="Z46" s="74"/>
+      <c r="AA46" s="74"/>
+      <c r="AB46" s="74"/>
+      <c r="AC46" s="74"/>
+      <c r="AD46" s="74"/>
+      <c r="AE46" s="74"/>
+      <c r="AF46" s="74"/>
+      <c r="AG46" s="74"/>
+      <c r="AH46" s="74"/>
+      <c r="AI46" s="74"/>
+      <c r="AJ46" s="74"/>
+      <c r="AK46" s="74"/>
+      <c r="AL46" s="74"/>
+      <c r="AM46" s="74"/>
+      <c r="AN46" s="74"/>
+      <c r="AO46" s="74"/>
+      <c r="AP46" s="74"/>
+      <c r="AQ46" s="74"/>
+      <c r="AR46" s="74"/>
+      <c r="AS46" s="74"/>
+      <c r="AT46" s="74"/>
+      <c r="AU46" s="74"/>
+      <c r="AV46" s="74"/>
+      <c r="AW46" s="74"/>
+      <c r="AX46" s="74"/>
+      <c r="AY46" s="74"/>
+      <c r="AZ46" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="G44:J44"/>
     <mergeCell ref="K44:T44"/>
     <mergeCell ref="C40:F40"/>
@@ -15048,202 +18690,10 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 **** Corporation. All Rights Reserved.</oddFooter>
   </headerFooter>
@@ -15254,8 +18704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+    <sheetView zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -15312,7 +18762,7 @@
       <c r="AJ1" s="99"/>
       <c r="AK1" s="99"/>
       <c r="AL1" s="101">
-        <v>45545</v>
+        <v>45548</v>
       </c>
       <c r="AM1" s="101"/>
       <c r="AN1" s="101"/>
@@ -20372,11 +23822,6 @@
     <row r="50" spans="1:52" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -20384,6 +23829,11 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/02_外部設計/04_画面遷移図.xlsx
+++ b/02_外部設計/04_画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616FF5D1-E493-450E-8D43-9AE531415C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89770F1-3B78-4520-BE49-5B2D70B86A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="240" windowWidth="17280" windowHeight="11808" tabRatio="802" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -33,142 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>奈良田 岬</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F95A74C0-6B67-4B2D-A26B-0F6658395B6A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>奈良田 岬:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-お客様に相談する。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL45" authorId="0" shapeId="0" xr:uid="{AB18F057-9F89-4854-A387-56CED8CB9118}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>奈良田 岬:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-お客様に相談する。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>奈良田 岬</author>
-  </authors>
-  <commentList>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{7DE68132-9D59-4077-8CBB-CD49BA3A121B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>奈良田 岬:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-お客様に相談する。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>奈良田 岬</author>
-  </authors>
-  <commentList>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{CBCD7862-6CE9-4AE5-80FF-AD63B642CCCA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>奈良田 岬:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-お客様に相談する。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -336,13 +202,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>株式会社○○</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>2017BAH000X011</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -432,6 +291,50 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>XYZ株式会社</t>
+    <rPh sb="3" eb="7">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表紙</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面遷移図(ショッピング機能)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>外部レビューでの回答内容から、一部修正しました。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>カイトウナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社名の追加をしました。</t>
+    <rPh sb="0" eb="2">
+      <t>シャメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -440,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -528,21 +431,6 @@
       <sz val="6"/>
       <name val="明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -5774,9 +5662,7 @@
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -6090,14 +5976,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </a:rPr>
             <a:t>※1</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
-              <a:srgbClr val="00B050"/>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -6808,14 +6694,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </a:rPr>
             <a:t>※1</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
-              <a:srgbClr val="00B050"/>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -6863,7 +6749,7 @@
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="00B050"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -6926,7 +6812,7 @@
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="00B050"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -8765,8 +8651,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </a:rPr>
             <a:t>※2</a:t>
@@ -13064,11 +12953,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
@@ -13188,7 +13077,7 @@
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="38" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -15424,7 +15313,7 @@
       <c r="AJ45" s="42"/>
       <c r="AK45" s="42"/>
       <c r="AL45" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM45" s="43"/>
       <c r="AN45" s="43"/>
@@ -15536,7 +15425,7 @@
       <c r="AJ47" s="42"/>
       <c r="AK47" s="42"/>
       <c r="AL47" s="53">
-        <v>45548</v>
+        <v>45553</v>
       </c>
       <c r="AM47" s="53"/>
       <c r="AN47" s="53"/>
@@ -15648,7 +15537,7 @@
       <c r="AJ49" s="55"/>
       <c r="AK49" s="56"/>
       <c r="AL49" s="60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM49" s="61"/>
       <c r="AN49" s="61"/>
@@ -15848,7 +15737,6 @@
     <oddFooter>&amp;C&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 **** Corporation. All Rights Reserved.</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15856,10 +15744,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BL23" sqref="BL23"/>
-      <selection pane="bottomLeft" activeCell="U9" sqref="U9:AZ9"/>
+      <selection pane="bottomLeft" activeCell="U10" sqref="U10:AZ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -16059,13 +15947,13 @@
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="G5" s="79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="79"/>
       <c r="I5" s="79"/>
       <c r="J5" s="79"/>
       <c r="K5" s="79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="79"/>
       <c r="M5" s="79"/>
@@ -16124,13 +16012,13 @@
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
       <c r="G6" s="66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="66"/>
       <c r="K6" s="66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="66"/>
       <c r="M6" s="66"/>
@@ -16142,7 +16030,7 @@
       <c r="S6" s="66"/>
       <c r="T6" s="66"/>
       <c r="U6" s="66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V6" s="66"/>
       <c r="W6" s="66"/>
@@ -16189,13 +16077,13 @@
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L7" s="66"/>
       <c r="M7" s="66"/>
@@ -16207,7 +16095,7 @@
       <c r="S7" s="66"/>
       <c r="T7" s="66"/>
       <c r="U7" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V7" s="66"/>
       <c r="W7" s="66"/>
@@ -16254,13 +16142,13 @@
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
       <c r="G8" s="66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
       <c r="K8" s="66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="66"/>
       <c r="M8" s="66"/>
@@ -16272,7 +16160,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="66"/>
       <c r="U8" s="66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V8" s="66"/>
       <c r="W8" s="66"/>
@@ -16312,15 +16200,21 @@
         <v>5</v>
       </c>
       <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
+      <c r="C9" s="67">
+        <v>45553</v>
+      </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
+      <c r="G9" s="66" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="K9" s="66" t="s">
+        <v>36</v>
+      </c>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
       <c r="N9" s="66"/>
@@ -16330,7 +16224,9 @@
       <c r="R9" s="66"/>
       <c r="S9" s="66"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="66" t="s">
+        <v>39</v>
+      </c>
       <c r="V9" s="66"/>
       <c r="W9" s="66"/>
       <c r="X9" s="66"/>
@@ -16377,7 +16273,9 @@
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
+      <c r="K10" s="66" t="s">
+        <v>37</v>
+      </c>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
       <c r="N10" s="66"/>
@@ -16387,7 +16285,9 @@
       <c r="R10" s="66"/>
       <c r="S10" s="66"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="V10" s="66"/>
       <c r="W10" s="66"/>
       <c r="X10" s="66"/>
@@ -18701,11 +18601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -18744,7 +18644,7 @@
       <c r="V1" s="99"/>
       <c r="W1" s="99"/>
       <c r="X1" s="100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="100"/>
       <c r="Z1" s="100"/>
@@ -18762,7 +18662,7 @@
       <c r="AJ1" s="99"/>
       <c r="AK1" s="99"/>
       <c r="AL1" s="101">
-        <v>45548</v>
+        <v>45553</v>
       </c>
       <c r="AM1" s="101"/>
       <c r="AN1" s="101"/>
@@ -18827,7 +18727,7 @@
       <c r="AJ2" s="102"/>
       <c r="AK2" s="102"/>
       <c r="AL2" s="104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AM2" s="104"/>
       <c r="AN2" s="104"/>
@@ -21269,15 +21169,14 @@
     <oddFooter>&amp;C&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 **** Corporation. All Rights Reserved.</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1:AG1"/>
     </sheetView>
   </sheetViews>
@@ -21317,7 +21216,7 @@
       <c r="V1" s="99"/>
       <c r="W1" s="99"/>
       <c r="X1" s="100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y1" s="100"/>
       <c r="Z1" s="100"/>
@@ -21400,7 +21299,7 @@
       <c r="AJ2" s="102"/>
       <c r="AK2" s="102"/>
       <c r="AL2" s="104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AM2" s="104"/>
       <c r="AN2" s="104"/>
@@ -23842,6 +23741,5 @@
     <oddFooter>&amp;C&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 **** Corporation. All Rights Reserved.</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/02_外部設計/04_画面遷移図.xlsx
+++ b/02_外部設計/04_画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89770F1-3B78-4520-BE49-5B2D70B86A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8AC26D-F88C-415E-BFC3-56360342C3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="240" windowWidth="17280" windowHeight="11808" tabRatio="802" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -1044,53 +1044,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1128,8 +1086,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1152,19 +1165,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -5634,9 +5634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>64851</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>89170</xdr:rowOff>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5651,8 +5651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6104106" y="956553"/>
-          <a:ext cx="2172511" cy="486383"/>
+          <a:off x="6062416" y="946594"/>
+          <a:ext cx="2199841" cy="686263"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5661,9 +5661,7 @@
           <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -5687,10 +5685,25 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>黒字：正常処理（画面遷移）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>赤字：戻り処理</a:t>
+            <a:t>赤字：戻り処理（画面遷移）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
@@ -5976,14 +5989,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>※1</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -6643,10 +6656,10 @@
       <xdr:rowOff>51876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>105382</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>89171</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6661,8 +6674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5312922" y="3229578"/>
-          <a:ext cx="393971" cy="304806"/>
+          <a:off x="5213051" y="3198936"/>
+          <a:ext cx="463849" cy="329124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6694,14 +6707,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>※1</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -6712,15 +6725,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>155728</xdr:colOff>
+      <xdr:colOff>155485</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>92411</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66469</xdr:rowOff>
+      <xdr:rowOff>79278</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6738,8 +6751,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5081394" y="3150452"/>
-          <a:ext cx="153479" cy="309577"/>
+          <a:off x="4978889" y="3129336"/>
+          <a:ext cx="165638" cy="302686"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6749,7 +6762,7 @@
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="0070C0"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -6812,7 +6825,7 @@
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="0070C0"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -7314,13 +7327,13 @@
       <xdr:col>49</xdr:col>
       <xdr:colOff>22374</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123865</xdr:rowOff>
+      <xdr:rowOff>123784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>27561</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>27557</xdr:rowOff>
+      <xdr:rowOff>27638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7338,8 +7351,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9166374" y="3698780"/>
-          <a:ext cx="378081" cy="33394"/>
+          <a:off x="8991114" y="3667084"/>
+          <a:ext cx="370947" cy="33394"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8596,13 +8609,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>89171</xdr:colOff>
+      <xdr:colOff>157751</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>40529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>56747</xdr:colOff>
+      <xdr:colOff>125327</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>113486</xdr:rowOff>
     </xdr:to>
@@ -8619,8 +8632,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5504235" y="3218231"/>
-          <a:ext cx="526916" cy="340468"/>
+          <a:off x="5468891" y="3187589"/>
+          <a:ext cx="516216" cy="339657"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13076,25 +13089,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="40" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -13110,49 +13123,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="42" t="s">
+      <c r="AF3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43" t="s">
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="43"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="52"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -13168,26 +13181,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -13793,44 +13806,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="46"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="58"/>
+      <c r="AM16" s="58"/>
+      <c r="AN16" s="58"/>
+      <c r="AO16" s="58"/>
+      <c r="AP16" s="58"/>
+      <c r="AQ16" s="58"/>
+      <c r="AR16" s="59"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -13849,42 +13862,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="49"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="61"/>
+      <c r="AQ17" s="61"/>
+      <c r="AR17" s="62"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -13903,42 +13916,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="49"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="62"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -13957,42 +13970,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="49"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="62"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -14011,42 +14024,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="49"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="61"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="61"/>
+      <c r="AO20" s="61"/>
+      <c r="AP20" s="61"/>
+      <c r="AQ20" s="61"/>
+      <c r="AR20" s="62"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -14065,42 +14078,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="48"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="48"/>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="49"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="62"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -14119,42 +14132,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="48"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="49"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="61"/>
+      <c r="AL22" s="61"/>
+      <c r="AM22" s="61"/>
+      <c r="AN22" s="61"/>
+      <c r="AO22" s="61"/>
+      <c r="AP22" s="61"/>
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="62"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -14173,42 +14186,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="48"/>
-      <c r="AO23" s="48"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="49"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="61"/>
+      <c r="AM23" s="61"/>
+      <c r="AN23" s="61"/>
+      <c r="AO23" s="61"/>
+      <c r="AP23" s="61"/>
+      <c r="AQ23" s="61"/>
+      <c r="AR23" s="62"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -14227,42 +14240,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
-      <c r="AR24" s="49"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
+      <c r="AK24" s="61"/>
+      <c r="AL24" s="61"/>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="61"/>
+      <c r="AO24" s="61"/>
+      <c r="AP24" s="61"/>
+      <c r="AQ24" s="61"/>
+      <c r="AR24" s="62"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -14281,42 +14294,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="48"/>
-      <c r="AO25" s="48"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="49"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="61"/>
+      <c r="AO25" s="61"/>
+      <c r="AP25" s="61"/>
+      <c r="AQ25" s="61"/>
+      <c r="AR25" s="62"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -14335,42 +14348,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="49"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="61"/>
+      <c r="AL26" s="61"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="61"/>
+      <c r="AO26" s="61"/>
+      <c r="AP26" s="61"/>
+      <c r="AQ26" s="61"/>
+      <c r="AR26" s="62"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -14389,42 +14402,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="49"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="61"/>
+      <c r="AN27" s="61"/>
+      <c r="AO27" s="61"/>
+      <c r="AP27" s="61"/>
+      <c r="AQ27" s="61"/>
+      <c r="AR27" s="62"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -14443,42 +14456,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AR28" s="49"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="61"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="61"/>
+      <c r="AO28" s="61"/>
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="61"/>
+      <c r="AR28" s="62"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -14497,42 +14510,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
-      <c r="AN29" s="51"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="52"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="65"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -15304,30 +15317,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="42" t="s">
+      <c r="AF45" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="42"/>
-      <c r="AH45" s="42"/>
-      <c r="AI45" s="42"/>
-      <c r="AJ45" s="42"/>
-      <c r="AK45" s="42"/>
-      <c r="AL45" s="43" t="s">
+      <c r="AG45" s="39"/>
+      <c r="AH45" s="39"/>
+      <c r="AI45" s="39"/>
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="39"/>
+      <c r="AL45" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="AM45" s="43"/>
-      <c r="AN45" s="43"/>
-      <c r="AO45" s="43"/>
-      <c r="AP45" s="43"/>
-      <c r="AQ45" s="43"/>
-      <c r="AR45" s="43"/>
-      <c r="AS45" s="43"/>
-      <c r="AT45" s="43"/>
-      <c r="AU45" s="43"/>
-      <c r="AV45" s="43"/>
-      <c r="AW45" s="43"/>
-      <c r="AX45" s="43"/>
-      <c r="AY45" s="43"/>
+      <c r="AM45" s="52"/>
+      <c r="AN45" s="52"/>
+      <c r="AO45" s="52"/>
+      <c r="AP45" s="52"/>
+      <c r="AQ45" s="52"/>
+      <c r="AR45" s="52"/>
+      <c r="AS45" s="52"/>
+      <c r="AT45" s="52"/>
+      <c r="AU45" s="52"/>
+      <c r="AV45" s="52"/>
+      <c r="AW45" s="52"/>
+      <c r="AX45" s="52"/>
+      <c r="AY45" s="52"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -15362,26 +15375,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="42"/>
-      <c r="AH46" s="42"/>
-      <c r="AI46" s="42"/>
-      <c r="AJ46" s="42"/>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="43"/>
-      <c r="AM46" s="43"/>
-      <c r="AN46" s="43"/>
-      <c r="AO46" s="43"/>
-      <c r="AP46" s="43"/>
-      <c r="AQ46" s="43"/>
-      <c r="AR46" s="43"/>
-      <c r="AS46" s="43"/>
-      <c r="AT46" s="43"/>
-      <c r="AU46" s="43"/>
-      <c r="AV46" s="43"/>
-      <c r="AW46" s="43"/>
-      <c r="AX46" s="43"/>
-      <c r="AY46" s="43"/>
+      <c r="AF46" s="39"/>
+      <c r="AG46" s="39"/>
+      <c r="AH46" s="39"/>
+      <c r="AI46" s="39"/>
+      <c r="AJ46" s="39"/>
+      <c r="AK46" s="39"/>
+      <c r="AL46" s="52"/>
+      <c r="AM46" s="52"/>
+      <c r="AN46" s="52"/>
+      <c r="AO46" s="52"/>
+      <c r="AP46" s="52"/>
+      <c r="AQ46" s="52"/>
+      <c r="AR46" s="52"/>
+      <c r="AS46" s="52"/>
+      <c r="AT46" s="52"/>
+      <c r="AU46" s="52"/>
+      <c r="AV46" s="52"/>
+      <c r="AW46" s="52"/>
+      <c r="AX46" s="52"/>
+      <c r="AY46" s="52"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -15416,30 +15429,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="42" t="s">
+      <c r="AF47" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="53">
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="38">
         <v>45553</v>
       </c>
-      <c r="AM47" s="53"/>
-      <c r="AN47" s="53"/>
-      <c r="AO47" s="53"/>
-      <c r="AP47" s="53"/>
-      <c r="AQ47" s="53"/>
-      <c r="AR47" s="53"/>
-      <c r="AS47" s="53"/>
-      <c r="AT47" s="53"/>
-      <c r="AU47" s="53"/>
-      <c r="AV47" s="53"/>
-      <c r="AW47" s="53"/>
-      <c r="AX47" s="53"/>
-      <c r="AY47" s="53"/>
+      <c r="AM47" s="38"/>
+      <c r="AN47" s="38"/>
+      <c r="AO47" s="38"/>
+      <c r="AP47" s="38"/>
+      <c r="AQ47" s="38"/>
+      <c r="AR47" s="38"/>
+      <c r="AS47" s="38"/>
+      <c r="AT47" s="38"/>
+      <c r="AU47" s="38"/>
+      <c r="AV47" s="38"/>
+      <c r="AW47" s="38"/>
+      <c r="AX47" s="38"/>
+      <c r="AY47" s="38"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -15474,26 +15487,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="42"/>
-      <c r="AI48" s="42"/>
-      <c r="AJ48" s="42"/>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
-      <c r="AP48" s="53"/>
-      <c r="AQ48" s="53"/>
-      <c r="AR48" s="53"/>
-      <c r="AS48" s="53"/>
-      <c r="AT48" s="53"/>
-      <c r="AU48" s="53"/>
-      <c r="AV48" s="53"/>
-      <c r="AW48" s="53"/>
-      <c r="AX48" s="53"/>
-      <c r="AY48" s="53"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="39"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="39"/>
+      <c r="AL48" s="38"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="38"/>
+      <c r="AO48" s="38"/>
+      <c r="AP48" s="38"/>
+      <c r="AQ48" s="38"/>
+      <c r="AR48" s="38"/>
+      <c r="AS48" s="38"/>
+      <c r="AT48" s="38"/>
+      <c r="AU48" s="38"/>
+      <c r="AV48" s="38"/>
+      <c r="AW48" s="38"/>
+      <c r="AX48" s="38"/>
+      <c r="AY48" s="38"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -15528,30 +15541,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="54" t="s">
+      <c r="AF49" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="55"/>
-      <c r="AH49" s="55"/>
-      <c r="AI49" s="55"/>
-      <c r="AJ49" s="55"/>
-      <c r="AK49" s="56"/>
-      <c r="AL49" s="60" t="s">
+      <c r="AG49" s="41"/>
+      <c r="AH49" s="41"/>
+      <c r="AI49" s="41"/>
+      <c r="AJ49" s="41"/>
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="AM49" s="61"/>
-      <c r="AN49" s="61"/>
-      <c r="AO49" s="61"/>
-      <c r="AP49" s="61"/>
-      <c r="AQ49" s="61"/>
-      <c r="AR49" s="61"/>
-      <c r="AS49" s="61"/>
-      <c r="AT49" s="61"/>
-      <c r="AU49" s="61"/>
-      <c r="AV49" s="61"/>
-      <c r="AW49" s="61"/>
-      <c r="AX49" s="61"/>
-      <c r="AY49" s="62"/>
+      <c r="AM49" s="47"/>
+      <c r="AN49" s="47"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="47"/>
+      <c r="AQ49" s="47"/>
+      <c r="AR49" s="47"/>
+      <c r="AS49" s="47"/>
+      <c r="AT49" s="47"/>
+      <c r="AU49" s="47"/>
+      <c r="AV49" s="47"/>
+      <c r="AW49" s="47"/>
+      <c r="AX49" s="47"/>
+      <c r="AY49" s="48"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -15586,26 +15599,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="57"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="58"/>
-      <c r="AI50" s="58"/>
-      <c r="AJ50" s="58"/>
-      <c r="AK50" s="59"/>
-      <c r="AL50" s="63"/>
-      <c r="AM50" s="64"/>
-      <c r="AN50" s="64"/>
-      <c r="AO50" s="64"/>
-      <c r="AP50" s="64"/>
-      <c r="AQ50" s="64"/>
-      <c r="AR50" s="64"/>
-      <c r="AS50" s="64"/>
-      <c r="AT50" s="64"/>
-      <c r="AU50" s="64"/>
-      <c r="AV50" s="64"/>
-      <c r="AW50" s="64"/>
-      <c r="AX50" s="64"/>
-      <c r="AY50" s="65"/>
+      <c r="AF50" s="43"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="44"/>
+      <c r="AJ50" s="44"/>
+      <c r="AK50" s="45"/>
+      <c r="AL50" s="49"/>
+      <c r="AM50" s="50"/>
+      <c r="AN50" s="50"/>
+      <c r="AO50" s="50"/>
+      <c r="AP50" s="50"/>
+      <c r="AQ50" s="50"/>
+      <c r="AR50" s="50"/>
+      <c r="AS50" s="50"/>
+      <c r="AT50" s="50"/>
+      <c r="AU50" s="50"/>
+      <c r="AV50" s="50"/>
+      <c r="AW50" s="50"/>
+      <c r="AX50" s="50"/>
+      <c r="AY50" s="51"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -15718,17 +15731,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15744,8 +15757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BL23" sqref="BL23"/>
       <selection pane="bottomLeft" activeCell="U10" sqref="U10:AZ10"/>
     </sheetView>
@@ -15760,244 +15773,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="75"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="73"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="78"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="76" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="76" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="76" t="s">
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="76" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="78"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="70"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="79">
+      <c r="A5" s="71">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80">
+      <c r="B5" s="71"/>
+      <c r="C5" s="72">
         <v>45537</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="79" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79" t="s">
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="79"/>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="79"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="79"/>
-      <c r="AQ5" s="79"/>
-      <c r="AR5" s="79"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="79"/>
-      <c r="AU5" s="79"/>
-      <c r="AV5" s="79"/>
-      <c r="AW5" s="79"/>
-      <c r="AX5" s="79"/>
-      <c r="AY5" s="79"/>
-      <c r="AZ5" s="79"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="71"/>
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="71"/>
+      <c r="AN5" s="71"/>
+      <c r="AO5" s="71"/>
+      <c r="AP5" s="71"/>
+      <c r="AQ5" s="71"/>
+      <c r="AR5" s="71"/>
+      <c r="AS5" s="71"/>
+      <c r="AT5" s="71"/>
+      <c r="AU5" s="71"/>
+      <c r="AV5" s="71"/>
+      <c r="AW5" s="71"/>
+      <c r="AX5" s="71"/>
+      <c r="AY5" s="71"/>
+      <c r="AZ5" s="71"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="66">
@@ -18316,232 +18329,88 @@
       <c r="AZ45" s="66"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="74">
+      <c r="A46" s="79">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="74"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
-      <c r="T46" s="74"/>
-      <c r="U46" s="74"/>
-      <c r="V46" s="74"/>
-      <c r="W46" s="74"/>
-      <c r="X46" s="74"/>
-      <c r="Y46" s="74"/>
-      <c r="Z46" s="74"/>
-      <c r="AA46" s="74"/>
-      <c r="AB46" s="74"/>
-      <c r="AC46" s="74"/>
-      <c r="AD46" s="74"/>
-      <c r="AE46" s="74"/>
-      <c r="AF46" s="74"/>
-      <c r="AG46" s="74"/>
-      <c r="AH46" s="74"/>
-      <c r="AI46" s="74"/>
-      <c r="AJ46" s="74"/>
-      <c r="AK46" s="74"/>
-      <c r="AL46" s="74"/>
-      <c r="AM46" s="74"/>
-      <c r="AN46" s="74"/>
-      <c r="AO46" s="74"/>
-      <c r="AP46" s="74"/>
-      <c r="AQ46" s="74"/>
-      <c r="AR46" s="74"/>
-      <c r="AS46" s="74"/>
-      <c r="AT46" s="74"/>
-      <c r="AU46" s="74"/>
-      <c r="AV46" s="74"/>
-      <c r="AW46" s="74"/>
-      <c r="AX46" s="74"/>
-      <c r="AY46" s="74"/>
-      <c r="AZ46" s="74"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="79"/>
+      <c r="R46" s="79"/>
+      <c r="S46" s="79"/>
+      <c r="T46" s="79"/>
+      <c r="U46" s="79"/>
+      <c r="V46" s="79"/>
+      <c r="W46" s="79"/>
+      <c r="X46" s="79"/>
+      <c r="Y46" s="79"/>
+      <c r="Z46" s="79"/>
+      <c r="AA46" s="79"/>
+      <c r="AB46" s="79"/>
+      <c r="AC46" s="79"/>
+      <c r="AD46" s="79"/>
+      <c r="AE46" s="79"/>
+      <c r="AF46" s="79"/>
+      <c r="AG46" s="79"/>
+      <c r="AH46" s="79"/>
+      <c r="AI46" s="79"/>
+      <c r="AJ46" s="79"/>
+      <c r="AK46" s="79"/>
+      <c r="AL46" s="79"/>
+      <c r="AM46" s="79"/>
+      <c r="AN46" s="79"/>
+      <c r="AO46" s="79"/>
+      <c r="AP46" s="79"/>
+      <c r="AQ46" s="79"/>
+      <c r="AR46" s="79"/>
+      <c r="AS46" s="79"/>
+      <c r="AT46" s="79"/>
+      <c r="AU46" s="79"/>
+      <c r="AV46" s="79"/>
+      <c r="AW46" s="79"/>
+      <c r="AX46" s="79"/>
+      <c r="AY46" s="79"/>
+      <c r="AZ46" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="A1:AZ2"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
     <mergeCell ref="K43:T43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:F44"/>
@@ -18566,30 +18435,174 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="U41:AZ41"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="A1:AZ2"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -18604,8 +18617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BF22" sqref="BF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -23721,6 +23734,11 @@
     <row r="50" spans="1:52" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -23728,11 +23746,6 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
